--- a/ePub/图书籍录.xlsx
+++ b/ePub/图书籍录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="金融经济" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="599">
   <si>
     <t>股市进阶之道一个散户的自我修养.epub</t>
   </si>
@@ -75,9 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>史记（印象注释版）.epub</t>
-  </si>
-  <si>
     <t>史记（原文+白话+注解）.epub</t>
   </si>
   <si>
@@ -257,9 +254,6 @@
     <t>百家诗笺.epub</t>
   </si>
   <si>
-    <t>毛泽东诗词鉴赏辞典.epub</t>
-  </si>
-  <si>
     <t>诗词格律常识.ppt</t>
   </si>
   <si>
@@ -439,9 +433,6 @@
   </si>
   <si>
     <t>淡情精选.epub</t>
-  </si>
-  <si>
-    <t>红楼遗秘.txt</t>
   </si>
   <si>
     <t>骆冰传.txt</t>
@@ -1653,9 +1644,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1cLySp</t>
-  </si>
-  <si>
     <t>idlIQl</t>
   </si>
   <si>
@@ -1988,6 +1976,134 @@
   <si>
     <t>川端康成文集.epub</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋史纪事本末.epub</t>
+  </si>
+  <si>
+    <t>史记（印象辑注）.epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/12/21
+2023/11/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛泽东诗词鉴赏辞典.epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施蛰存-唐诗百话.epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jules Verne - 20000 Leagues Under the Seas</t>
+  </si>
+  <si>
+    <t>Jules Verne - Five Weeks In A Balloon</t>
+  </si>
+  <si>
+    <t>Jules Verne - In Search of the Castaways</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jules Verne - The Mysterious Island</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘慈欣-超新星纪元</t>
+  </si>
+  <si>
+    <t>2023/12/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索拉里斯星</t>
+  </si>
+  <si>
+    <t>2023/12/19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷男-红楼遗秘.epub</t>
+  </si>
+  <si>
+    <t>vCOSea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1cLySp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿瑟·克拉克科幻短篇全集.epub</t>
+  </si>
+  <si>
+    <t>古典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹去晶-姑妄言.epub</t>
+  </si>
+  <si>
+    <t>0wVlE8</t>
+  </si>
+  <si>
+    <t>少妇白洁.epub</t>
+  </si>
+  <si>
+    <t>LvdgB1</t>
+  </si>
+  <si>
+    <t>泥人-江山如此多娇.epub</t>
+  </si>
+  <si>
+    <t>ATiA46</t>
+  </si>
+  <si>
+    <t>少年阿宾.epub</t>
+  </si>
+  <si>
+    <t>Cf0GGa</t>
+  </si>
+  <si>
+    <t>Rv6KOw</t>
+  </si>
+  <si>
+    <t>毛泽东诗词全编鉴赏</t>
+  </si>
+  <si>
+    <t>苏东坡新传.epub</t>
+  </si>
+  <si>
+    <t>少女之心.epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡尔·萨根-接触.epub</t>
+  </si>
+  <si>
+    <t>陈江挺-炒股的智慧.epub</t>
+  </si>
+  <si>
+    <t>埃德温•勒菲弗-股票大作手回忆录.epub</t>
+  </si>
+  <si>
+    <t>本杰明·格雷厄姆-聪明的投资者.epub</t>
+  </si>
+  <si>
+    <t>改变世界的经济学家.epub</t>
+  </si>
+  <si>
+    <t>近现代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗美援朝战争史.epub</t>
+  </si>
+  <si>
+    <t>文革史（北大马会）.epub</t>
   </si>
 </sst>
 </file>
@@ -2169,8 +2285,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2496,10 +2612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2518,7 +2634,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
@@ -2530,10 +2646,10 @@
     <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D2" s="9">
         <v>44986</v>
@@ -2543,91 +2659,93 @@
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>384</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="9">
-        <v>44834</v>
+        <v>45302</v>
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="27">
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>388</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="9">
-        <v>44892</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>260</v>
-      </c>
+        <v>45302</v>
+      </c>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>592</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="9">
+        <v>45302</v>
+      </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>159</v>
+        <v>255</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D6" s="9">
         <v>44834</v>
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="27">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>256</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>385</v>
+      </c>
       <c r="D7" s="9">
-        <v>45103</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>44892</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="4"/>
+        <v>595</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="9">
+        <v>45305</v>
+      </c>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D10" s="9">
         <v>44834</v>
@@ -2637,45 +2755,39 @@
     <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>527</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="9">
+        <v>45103</v>
+      </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="27">
+    <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>2</v>
+        <v>352</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>353</v>
+        <v>165</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D14" s="9">
         <v>44834</v>
@@ -2685,47 +2797,45 @@
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>193</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D15" s="9">
-        <v>44834</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="27">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C17" t="s">
-        <v>489</v>
-      </c>
-      <c r="D17" s="9">
-        <v>44992</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>155</v>
+        <v>350</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D18" s="9">
         <v>44834</v>
@@ -2735,44 +2845,62 @@
     <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>5</v>
+        <v>190</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>392</v>
+      </c>
+      <c r="D19" s="9">
+        <v>44834</v>
+      </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D21" s="1"/>
+        <v>484</v>
+      </c>
+      <c r="C21" t="s">
+        <v>485</v>
+      </c>
+      <c r="D21" s="9">
+        <v>44992</v>
+      </c>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D22" s="9">
+        <v>44834</v>
+      </c>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D23" s="1"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5">
@@ -2785,120 +2913,152 @@
     <row r="25" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>6</v>
+        <v>351</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="4" t="s">
-        <v>507</v>
-      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="4" t="s">
-        <v>508</v>
-      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D28" s="9">
-        <v>44966</v>
-      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>315</v>
+        <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D29" s="9">
-        <v>44957</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="D29" s="1"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>162</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D30" s="9">
-        <v>44834</v>
-      </c>
-      <c r="E30" s="4"/>
+        <v>399</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="4" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>487</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="D31" s="9">
-        <v>44992</v>
-      </c>
-      <c r="E31" s="4"/>
+        <v>400</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="4" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>9</v>
+        <v>324</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="D32" s="1"/>
+        <v>401</v>
+      </c>
+      <c r="D32" s="9">
+        <v>44966</v>
+      </c>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="D33" s="1"/>
+        <v>402</v>
+      </c>
+      <c r="D33" s="9">
+        <v>44957</v>
+      </c>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D34" s="9">
+        <v>44834</v>
+      </c>
       <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D35" s="9">
+        <v>44992</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2909,11 +3069,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2932,7 +3092,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
@@ -2941,26 +3101,28 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="27">
       <c r="A2" s="27" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>562</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="11"/>
+      <c r="E2" s="23" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="27"/>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="11"/>
@@ -2968,23 +3130,23 @@
     <row r="4" spans="1:5">
       <c r="A4" s="27"/>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="24" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D5" s="9">
         <v>44926</v>
@@ -2994,23 +3156,23 @@
     <row r="6" spans="1:5">
       <c r="A6" s="26"/>
       <c r="B6" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D7" s="9">
         <v>44945</v>
@@ -3019,10 +3181,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="24" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D8" s="9">
         <v>45174</v>
@@ -3032,10 +3194,10 @@
     <row r="9" spans="1:5">
       <c r="A9" s="25"/>
       <c r="B9" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="11"/>
@@ -3043,10 +3205,10 @@
     <row r="10" spans="1:5">
       <c r="A10" s="25"/>
       <c r="B10" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D10" s="9">
         <v>44935</v>
@@ -3056,10 +3218,10 @@
     <row r="11" spans="1:5">
       <c r="A11" s="25"/>
       <c r="B11" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="11"/>
@@ -3067,10 +3229,10 @@
     <row r="12" spans="1:5">
       <c r="A12" s="25"/>
       <c r="B12" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="9">
@@ -3080,10 +3242,10 @@
     <row r="13" spans="1:5">
       <c r="A13" s="25"/>
       <c r="B13" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="11"/>
@@ -3091,10 +3253,10 @@
     <row r="14" spans="1:5">
       <c r="A14" s="25"/>
       <c r="B14" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="9">
@@ -3111,10 +3273,10 @@
     <row r="16" spans="1:5">
       <c r="A16" s="26"/>
       <c r="B16" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D16" s="9">
         <v>44933</v>
@@ -3123,10 +3285,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -3137,16 +3299,18 @@
     <row r="18" spans="1:5">
       <c r="A18" s="27"/>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="11"/>
+      <c r="E18" s="9">
+        <v>45260</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="27"/>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -3155,7 +3319,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="27"/>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3164,7 +3328,7 @@
     <row r="21" spans="1:5">
       <c r="A21" s="27"/>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -3173,7 +3337,7 @@
     <row r="22" spans="1:5">
       <c r="A22" s="27"/>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -3181,13 +3345,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="11"/>
@@ -3195,10 +3359,10 @@
     <row r="24" spans="1:5">
       <c r="A24" s="25"/>
       <c r="B24" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D24" s="9">
         <v>44935</v>
@@ -3208,10 +3372,10 @@
     <row r="25" spans="1:5">
       <c r="A25" s="25"/>
       <c r="B25" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D25" s="9">
         <v>44966</v>
@@ -3221,10 +3385,10 @@
     <row r="26" spans="1:5">
       <c r="A26" s="25"/>
       <c r="B26" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D26" s="9">
         <v>44834</v>
@@ -3234,10 +3398,10 @@
     <row r="27" spans="1:5">
       <c r="A27" s="26"/>
       <c r="B27" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D27" s="9">
         <v>44966</v>
@@ -3245,64 +3409,64 @@
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="15"/>
+      <c r="A28" s="31" t="s">
+        <v>596</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>303</v>
+        <v>169</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D28" s="9">
+        <v>44834</v>
+      </c>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="32"/>
+      <c r="B29" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="9">
+        <v>45205</v>
+      </c>
+      <c r="E29" s="9">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="33"/>
+      <c r="B30" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="9">
+        <v>45305</v>
+      </c>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="15"/>
+      <c r="B31" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D31" s="9">
         <v>44945</v>
-      </c>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="7"/>
-      <c r="B29" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D29" s="9">
-        <v>44834</v>
-      </c>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="7"/>
-      <c r="B30" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D30" s="9">
-        <v>44834</v>
-      </c>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="13"/>
-      <c r="B31" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D31" s="9">
-        <v>44835</v>
       </c>
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="7"/>
       <c r="B32" s="1" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D32" s="9">
         <v>44834</v>
@@ -3311,160 +3475,157 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="7"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="7"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="9"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D34" s="9">
+        <v>44835</v>
+      </c>
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="1"/>
+      <c r="A35" s="7"/>
       <c r="B35" s="1" t="s">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D35" s="1"/>
+        <v>429</v>
+      </c>
+      <c r="D35" s="9">
+        <v>44834</v>
+      </c>
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D36" s="9">
-        <v>44834</v>
-      </c>
+      <c r="A36" s="7"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
       <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D37" s="9">
-        <v>44935</v>
-      </c>
+      <c r="A37" s="7"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9">
-        <v>45128</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C39" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>431</v>
+      </c>
       <c r="D39" s="9">
-        <v>45074</v>
+        <v>44834</v>
       </c>
       <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C40" s="1"/>
+        <v>280</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>432</v>
+      </c>
       <c r="D40" s="9">
-        <v>45074</v>
+        <v>44935</v>
       </c>
       <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="D41" s="9">
-        <v>44976</v>
-      </c>
-      <c r="E41" s="11"/>
+        <v>543</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9">
+        <v>45128</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>153</v>
+        <v>517</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="9">
-        <v>44834</v>
+        <v>45074</v>
       </c>
       <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>158</v>
+        <v>518</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="9">
-        <v>44834</v>
+        <v>45074</v>
       </c>
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C44" s="1"/>
+        <v>341</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>433</v>
+      </c>
       <c r="D44" s="9">
-        <v>44937</v>
+        <v>44976</v>
       </c>
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="9">
-        <v>44937</v>
+        <v>44834</v>
       </c>
       <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>291</v>
+        <v>155</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="9">
-        <v>44937</v>
+        <v>44834</v>
       </c>
       <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="9">
@@ -3475,7 +3636,7 @@
     <row r="48" spans="1:5">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="9">
@@ -3486,114 +3647,152 @@
     <row r="49" spans="1:5">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>26</v>
+        <v>288</v>
       </c>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="D49" s="9">
+        <v>44937</v>
+      </c>
       <c r="E49" s="11"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="D50" s="9">
+        <v>44937</v>
+      </c>
       <c r="E50" s="11"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="C51" s="1"/>
       <c r="D51" s="9">
-        <v>44834</v>
+        <v>44937</v>
       </c>
       <c r="E51" s="11"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C52" s="1"/>
-      <c r="D52" s="9">
-        <v>44835</v>
-      </c>
+      <c r="D52" s="1"/>
       <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1"/>
-      <c r="B53" s="1" t="s">
-        <v>223</v>
-      </c>
+      <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="9">
-        <v>44834</v>
-      </c>
+      <c r="D53" s="1"/>
       <c r="E53" s="11"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="9"/>
+      <c r="D54" s="9">
+        <v>44834</v>
+      </c>
       <c r="E54" s="11"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1"/>
-      <c r="B55" s="1" t="s">
-        <v>287</v>
-      </c>
+      <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="D55" s="9">
+        <v>44835</v>
+      </c>
       <c r="E55" s="11"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="D56" s="9">
+        <v>44834</v>
+      </c>
       <c r="E56" s="11"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>28</v>
+        <v>561</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="9">
-        <v>44834</v>
+        <v>45218</v>
       </c>
       <c r="E57" s="11"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>160</v>
+        <v>284</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="9">
-        <v>44834</v>
-      </c>
+      <c r="D58" s="1"/>
       <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>204</v>
+        <v>26</v>
       </c>
       <c r="C59" s="1"/>
-      <c r="D59" s="9">
+      <c r="D59" s="1"/>
+      <c r="E59" s="11"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="9">
+        <v>44834</v>
+      </c>
+      <c r="E60" s="11"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="9">
+        <v>44834</v>
+      </c>
+      <c r="E61" s="11"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="9">
         <v>44935</v>
       </c>
-      <c r="E59" s="11"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="B60" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C60" s="19"/>
+      <c r="E62" s="11"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="B63" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C63" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A28:A30"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="A2:A4"/>
@@ -3630,7 +3829,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
@@ -3641,10 +3840,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3653,7 +3852,7 @@
     <row r="3" spans="1:5">
       <c r="A3" s="27"/>
       <c r="B3" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3662,7 +3861,7 @@
     <row r="4" spans="1:5">
       <c r="A4" s="27"/>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3671,7 +3870,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="27"/>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -3679,10 +3878,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -3691,7 +3890,7 @@
     <row r="7" spans="1:5">
       <c r="A7" s="27"/>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3700,7 +3899,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="27"/>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3709,7 +3908,7 @@
     <row r="9" spans="1:5">
       <c r="A9" s="27"/>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3718,7 +3917,7 @@
     <row r="10" spans="1:5">
       <c r="A10" s="27"/>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3727,7 +3926,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="27"/>
       <c r="B11" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3736,7 +3935,7 @@
     <row r="12" spans="1:5">
       <c r="A12" s="27"/>
       <c r="B12" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="9">
@@ -3746,10 +3945,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="24" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="9">
@@ -3760,7 +3959,7 @@
     <row r="14" spans="1:5">
       <c r="A14" s="25"/>
       <c r="B14" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="9">
@@ -3771,7 +3970,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="25"/>
       <c r="B15" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="9">
@@ -3782,7 +3981,7 @@
     <row r="16" spans="1:5">
       <c r="A16" s="25"/>
       <c r="B16" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="9">
@@ -3793,7 +3992,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="25"/>
       <c r="B17" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="9">
@@ -3804,7 +4003,7 @@
     <row r="18" spans="1:5">
       <c r="A18" s="26"/>
       <c r="B18" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="9">
@@ -3814,7 +4013,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="24" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -3824,7 +4023,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="25"/>
       <c r="B20" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="9">
@@ -3835,7 +4034,7 @@
     <row r="21" spans="1:5">
       <c r="A21" s="25"/>
       <c r="B21" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="9">
@@ -3846,7 +4045,7 @@
     <row r="22" spans="1:5">
       <c r="A22" s="26"/>
       <c r="B22" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="9">
@@ -3857,7 +4056,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3866,7 +4065,7 @@
     <row r="24" spans="1:5">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="9">
@@ -3877,7 +4076,7 @@
     <row r="25" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3886,7 +4085,7 @@
     <row r="26" spans="1:5">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="9">
@@ -3897,7 +4096,7 @@
     <row r="27" spans="1:5">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3906,7 +4105,7 @@
     <row r="28" spans="1:5">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3915,7 +4114,7 @@
     <row r="29" spans="1:5">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3924,7 +4123,7 @@
     <row r="30" spans="1:5">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="9">
@@ -3935,7 +4134,7 @@
     <row r="31" spans="1:5">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="9">
@@ -3946,7 +4145,7 @@
     <row r="32" spans="1:5">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -3955,7 +4154,7 @@
     <row r="33" spans="1:5">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="9">
@@ -3966,7 +4165,7 @@
     <row r="34" spans="1:5">
       <c r="A34" s="1"/>
       <c r="B34" s="14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="9">
@@ -3977,7 +4176,7 @@
     <row r="35" spans="1:5">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="9">
@@ -3988,7 +4187,7 @@
     <row r="36" spans="1:5">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="9">
@@ -3999,7 +4198,7 @@
     <row r="37" spans="1:5">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="9">
@@ -4024,8 +4223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="B40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4045,7 +4244,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>10</v>
@@ -4056,13 +4255,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="27" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="1"/>
@@ -4070,10 +4269,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="27"/>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="1"/>
@@ -4081,10 +4280,10 @@
     <row r="4" spans="1:5">
       <c r="A4" s="27"/>
       <c r="B4" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="1"/>
@@ -4092,23 +4291,23 @@
     <row r="5" spans="1:5">
       <c r="A5" s="27"/>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="24" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D6" s="9">
         <v>44834</v>
@@ -4118,10 +4317,10 @@
     <row r="7" spans="1:5">
       <c r="A7" s="26"/>
       <c r="B7" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="1"/>
@@ -4142,10 +4341,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="27" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="11"/>
@@ -4154,7 +4353,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="27"/>
       <c r="B11" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="11"/>
@@ -4163,7 +4362,7 @@
     <row r="12" spans="1:5">
       <c r="A12" s="27"/>
       <c r="B12" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="11"/>
@@ -4172,10 +4371,10 @@
     <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="1"/>
@@ -4183,7 +4382,7 @@
     <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="11"/>
@@ -4192,7 +4391,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="11"/>
@@ -4208,7 +4407,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="9">
@@ -4219,7 +4418,7 @@
     <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="11"/>
@@ -4228,7 +4427,7 @@
     <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="11"/>
@@ -4237,7 +4436,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="11"/>
@@ -4253,7 +4452,7 @@
     <row r="22" spans="1:5">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="11"/>
@@ -4262,7 +4461,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="11"/>
@@ -4271,7 +4470,7 @@
     <row r="24" spans="1:5">
       <c r="A24" s="1"/>
       <c r="B24" s="17" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="9">
@@ -4282,7 +4481,7 @@
     <row r="25" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="11"/>
@@ -4298,10 +4497,10 @@
     <row r="27" spans="1:5">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="1"/>
@@ -4309,7 +4508,7 @@
     <row r="28" spans="1:5">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="11"/>
@@ -4318,7 +4517,7 @@
     <row r="29" spans="1:5">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="11"/>
@@ -4327,7 +4526,7 @@
     <row r="30" spans="1:5">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="11"/>
@@ -4336,7 +4535,7 @@
     <row r="31" spans="1:5">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="9"/>
@@ -4359,7 +4558,7 @@
     <row r="34" spans="1:5">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="9">
@@ -4370,7 +4569,7 @@
     <row r="35" spans="1:5">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="11"/>
@@ -4379,10 +4578,10 @@
     <row r="36" spans="1:5">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C36" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="1"/>
@@ -4390,7 +4589,7 @@
     <row r="37" spans="1:5">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="11"/>
@@ -4399,7 +4598,7 @@
     <row r="38" spans="1:5">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="11"/>
@@ -4408,7 +4607,7 @@
     <row r="39" spans="1:5">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="11"/>
@@ -4417,7 +4616,7 @@
     <row r="40" spans="1:5">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="11"/>
@@ -4426,7 +4625,7 @@
     <row r="41" spans="1:5">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="9">
@@ -4437,7 +4636,7 @@
     <row r="42" spans="1:5">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="11"/>
@@ -4446,7 +4645,7 @@
     <row r="43" spans="1:5">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="9">
@@ -4457,7 +4656,7 @@
     <row r="44" spans="1:5">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="11"/>
@@ -4466,7 +4665,7 @@
     <row r="45" spans="1:5">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="11"/>
@@ -4474,9 +4673,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>589</v>
+      </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="11"/>
+      <c r="D46" s="9">
+        <v>45297</v>
+      </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5">
@@ -4489,7 +4692,7 @@
     <row r="48" spans="1:5">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="9">
@@ -4507,10 +4710,10 @@
     <row r="50" spans="1:5">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C50" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D50" s="9">
         <v>44834</v>
@@ -4520,10 +4723,10 @@
     <row r="51" spans="1:5">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C51" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="1"/>
@@ -4531,7 +4734,7 @@
     <row r="52" spans="1:5">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="11"/>
@@ -4554,8 +4757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4574,7 +4777,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
@@ -4585,13 +4788,13 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="28" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -4599,10 +4802,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="29"/>
       <c r="B3" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -4610,10 +4813,10 @@
     <row r="4" spans="1:5">
       <c r="A4" s="29"/>
       <c r="B4" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C4" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -4621,10 +4824,10 @@
     <row r="5" spans="1:5">
       <c r="A5" s="29"/>
       <c r="B5" s="20" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -4632,10 +4835,10 @@
     <row r="6" spans="1:5">
       <c r="A6" s="29"/>
       <c r="B6" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -4643,27 +4846,31 @@
     <row r="7" spans="1:5">
       <c r="A7" s="29"/>
       <c r="B7" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="30"/>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="9">
+        <v>45296</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4681,7 +4888,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="26"/>
       <c r="B11" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="9">
@@ -4692,7 +4899,7 @@
     <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="9">
@@ -4703,7 +4910,7 @@
     <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="9">
@@ -4714,7 +4921,7 @@
     <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="9">
@@ -4725,7 +4932,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="9">
@@ -4736,7 +4943,7 @@
     <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="9"/>
@@ -4745,7 +4952,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="9"/>
@@ -4754,7 +4961,7 @@
     <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="9">
@@ -4765,10 +4972,10 @@
     <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D19" s="9">
         <v>45006</v>
@@ -4778,7 +4985,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="9"/>
@@ -4787,7 +4994,7 @@
     <row r="21" spans="1:5">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="9"/>
@@ -4796,7 +5003,7 @@
     <row r="22" spans="1:5">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="9">
@@ -4807,7 +5014,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="9">
@@ -4818,7 +5025,7 @@
     <row r="24" spans="1:5">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="9">
@@ -4829,7 +5036,7 @@
     <row r="25" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="9">
@@ -4840,7 +5047,7 @@
     <row r="26" spans="1:5">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -4849,7 +5056,7 @@
     <row r="27" spans="1:5">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -4858,7 +5065,7 @@
     <row r="28" spans="1:5">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -4867,7 +5074,7 @@
     <row r="29" spans="1:5">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4876,7 +5083,7 @@
     <row r="30" spans="1:5">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="9">
@@ -4887,7 +5094,7 @@
     <row r="31" spans="1:5">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="9"/>
@@ -4933,7 +5140,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
@@ -4945,7 +5152,7 @@
     <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="9">
@@ -4963,10 +5170,10 @@
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -4983,7 +5190,7 @@
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4992,7 +5199,7 @@
     <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -5001,10 +5208,10 @@
     <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C8" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D8" s="9">
         <v>44834</v>
@@ -5014,10 +5221,10 @@
     <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -5025,7 +5232,7 @@
     <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="9">
@@ -5036,7 +5243,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="9">
@@ -5047,7 +5254,7 @@
     <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -5056,7 +5263,7 @@
     <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="9">
@@ -5067,10 +5274,10 @@
     <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C14" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D14" s="9">
         <v>44935</v>
@@ -5080,10 +5287,10 @@
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C15" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D15" s="9">
         <v>44945</v>
@@ -5095,7 +5302,7 @@
     <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="9">
@@ -5106,7 +5313,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="9">
@@ -5124,7 +5331,7 @@
     <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -5133,7 +5340,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="9">
@@ -5144,7 +5351,7 @@
     <row r="21" spans="1:5">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -5153,7 +5360,7 @@
     <row r="22" spans="1:5">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="9">
@@ -5164,7 +5371,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -5173,7 +5380,7 @@
     <row r="24" spans="1:5">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="9">
@@ -5184,7 +5391,7 @@
     <row r="25" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="9">
@@ -5202,7 +5409,7 @@
     <row r="27" spans="1:5">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -5211,7 +5418,7 @@
     <row r="28" spans="1:5">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="9">
@@ -5222,7 +5429,7 @@
     <row r="29" spans="1:5">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="9">
@@ -5233,7 +5440,7 @@
     <row r="30" spans="1:5">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="9"/>
@@ -5242,7 +5449,7 @@
     <row r="31" spans="1:5">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="9">
@@ -5253,7 +5460,7 @@
     <row r="32" spans="1:5">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="9">
@@ -5271,7 +5478,7 @@
     <row r="34" spans="1:5">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -5280,7 +5487,7 @@
     <row r="35" spans="1:5">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -5294,10 +5501,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5315,7 +5522,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
@@ -5327,7 +5534,7 @@
     <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5336,7 +5543,7 @@
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5345,10 +5552,10 @@
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>564</v>
       </c>
       <c r="C4" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -5363,16 +5570,18 @@
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>565</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="9">
+        <v>45243</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -5381,7 +5590,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -5390,39 +5599,41 @@
     <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>263</v>
+        <v>75</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="9">
-        <v>44917</v>
-      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="9">
+        <v>44917</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1"/>
-      <c r="B11" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="9">
-        <v>44933</v>
-      </c>
+      <c r="B11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="9">
+        <v>44933</v>
+      </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
@@ -5445,6 +5656,13 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5454,11 +5672,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G189"/>
+  <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C175" sqref="C175"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5476,13 +5694,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>10</v>
@@ -5491,18 +5709,18 @@
         <v>11</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -5524,7 +5742,7 @@
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
       <c r="C4" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="9">
@@ -5537,7 +5755,7 @@
       <c r="A5" s="27"/>
       <c r="B5" s="27"/>
       <c r="C5" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="9">
@@ -5550,7 +5768,7 @@
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="9">
@@ -5572,7 +5790,7 @@
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -5583,7 +5801,7 @@
       <c r="A9" s="27"/>
       <c r="B9" s="27"/>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -5594,7 +5812,7 @@
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
       <c r="C10" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="9">
@@ -5607,7 +5825,7 @@
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -5627,7 +5845,7 @@
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
       <c r="C13" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="9">
@@ -5640,7 +5858,7 @@
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="9">
@@ -5662,12 +5880,12 @@
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="5" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -5692,10 +5910,10 @@
     <row r="19" spans="1:7">
       <c r="A19" s="27"/>
       <c r="B19" s="27" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -5706,10 +5924,10 @@
       <c r="A20" s="27"/>
       <c r="B20" s="27"/>
       <c r="C20" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="4"/>
@@ -5719,10 +5937,10 @@
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E21" s="9">
         <v>44933</v>
@@ -5734,10 +5952,10 @@
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
       <c r="C22" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="4"/>
@@ -5747,24 +5965,24 @@
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
       <c r="C23" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="27"/>
       <c r="B24" s="27" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -5775,7 +5993,7 @@
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="9">
@@ -5788,7 +6006,7 @@
       <c r="A26" s="27"/>
       <c r="B26" s="27"/>
       <c r="C26" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -5799,7 +6017,7 @@
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -5810,7 +6028,7 @@
       <c r="A28" s="27"/>
       <c r="B28" s="27"/>
       <c r="C28" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -5820,7 +6038,7 @@
     <row r="29" spans="1:7">
       <c r="A29" s="27"/>
       <c r="B29" s="27" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -5832,14 +6050,14 @@
       <c r="A30" s="27"/>
       <c r="B30" s="27"/>
       <c r="C30" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="9">
         <v>44884</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -5855,10 +6073,10 @@
     <row r="32" spans="1:7">
       <c r="A32" s="27"/>
       <c r="B32" s="27" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -5869,14 +6087,14 @@
       <c r="A33" s="27"/>
       <c r="B33" s="27"/>
       <c r="C33" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="9">
         <v>45006</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G33" s="1"/>
     </row>
@@ -5884,7 +6102,7 @@
       <c r="A34" s="27"/>
       <c r="B34" s="27"/>
       <c r="C34" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="9">
@@ -5897,14 +6115,14 @@
       <c r="A35" s="27"/>
       <c r="B35" s="27"/>
       <c r="C35" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="9">
         <v>44884</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -5912,7 +6130,7 @@
       <c r="A36" s="27"/>
       <c r="B36" s="27"/>
       <c r="C36" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="9"/>
@@ -5931,10 +6149,10 @@
     <row r="38" spans="1:7">
       <c r="A38" s="27"/>
       <c r="B38" s="24" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="9">
@@ -5947,7 +6165,7 @@
       <c r="A39" s="27"/>
       <c r="B39" s="26"/>
       <c r="C39" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -5957,10 +6175,10 @@
     <row r="40" spans="1:7">
       <c r="A40" s="27"/>
       <c r="B40" s="24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="9">
@@ -5973,7 +6191,7 @@
       <c r="A41" s="27"/>
       <c r="B41" s="25"/>
       <c r="C41" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="9">
@@ -5986,7 +6204,7 @@
       <c r="A42" s="27"/>
       <c r="B42" s="25"/>
       <c r="C42" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="9">
@@ -5999,7 +6217,7 @@
       <c r="A43" s="27"/>
       <c r="B43" s="25"/>
       <c r="C43" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="9">
@@ -6012,7 +6230,7 @@
       <c r="A44" s="27"/>
       <c r="B44" s="26"/>
       <c r="C44" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="9">
@@ -6025,7 +6243,7 @@
       <c r="A45" s="27"/>
       <c r="B45" s="31"/>
       <c r="C45" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="9">
@@ -6038,7 +6256,7 @@
       <c r="A46" s="27"/>
       <c r="B46" s="32"/>
       <c r="C46" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="9">
@@ -6051,7 +6269,7 @@
       <c r="A47" s="27"/>
       <c r="B47" s="32"/>
       <c r="C47" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="9">
@@ -6064,7 +6282,7 @@
       <c r="A48" s="27"/>
       <c r="B48" s="32"/>
       <c r="C48" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="9">
@@ -6077,7 +6295,7 @@
       <c r="A49" s="27"/>
       <c r="B49" s="32"/>
       <c r="C49" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="9">
@@ -6090,7 +6308,7 @@
       <c r="A50" s="27"/>
       <c r="B50" s="32"/>
       <c r="C50" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="9">
@@ -6119,20 +6337,20 @@
     </row>
     <row r="53" spans="1:7" ht="27">
       <c r="A53" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="9">
         <v>45064</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G53" s="1"/>
     </row>
@@ -6140,18 +6358,20 @@
       <c r="A54" s="27"/>
       <c r="B54" s="27"/>
       <c r="C54" s="1" t="s">
-        <v>94</v>
+        <v>570</v>
       </c>
       <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="4"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="5" t="s">
+        <v>571</v>
+      </c>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="27"/>
       <c r="B55" s="27"/>
       <c r="C55" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -6160,29 +6380,27 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="27"/>
-      <c r="B56" s="27" t="s">
-        <v>96</v>
-      </c>
+      <c r="B56" s="27"/>
       <c r="C56" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="4" t="s">
-        <v>143</v>
-      </c>
+      <c r="F56" s="4"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
+      <c r="B57" s="27" t="s">
+        <v>94</v>
+      </c>
       <c r="C57" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G57" s="1"/>
     </row>
@@ -6190,36 +6408,36 @@
       <c r="A58" s="27"/>
       <c r="B58" s="27"/>
       <c r="C58" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="4"/>
+      <c r="F58" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="27"/>
       <c r="B59" s="27"/>
       <c r="C59" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="F59" s="4"/>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="27"/>
       <c r="B60" s="27"/>
       <c r="C60" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G60" s="1"/>
     </row>
@@ -6227,12 +6445,12 @@
       <c r="A61" s="27"/>
       <c r="B61" s="27"/>
       <c r="C61" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G61" s="1"/>
     </row>
@@ -6240,12 +6458,12 @@
       <c r="A62" s="27"/>
       <c r="B62" s="27"/>
       <c r="C62" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="4" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
       <c r="G62" s="1"/>
     </row>
@@ -6253,12 +6471,12 @@
       <c r="A63" s="27"/>
       <c r="B63" s="27"/>
       <c r="C63" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G63" s="1"/>
     </row>
@@ -6266,12 +6484,12 @@
       <c r="A64" s="27"/>
       <c r="B64" s="27"/>
       <c r="C64" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G64" s="1"/>
     </row>
@@ -6279,68 +6497,70 @@
       <c r="A65" s="27"/>
       <c r="B65" s="27"/>
       <c r="C65" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>150</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="27"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="1"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="D66" s="1"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="27"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="B67" s="31"/>
+      <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="9">
-        <v>44834</v>
-      </c>
+      <c r="E67" s="9"/>
       <c r="F67" s="4"/>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="27"/>
-      <c r="B68" s="26"/>
+      <c r="B68" s="32"/>
       <c r="C68" s="1" t="s">
-        <v>169</v>
+        <v>577</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="9">
-        <v>44834</v>
+        <v>45296</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="27"/>
-      <c r="B69" s="24"/>
+      <c r="B69" s="32"/>
       <c r="C69" s="1" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+      <c r="E69" s="9">
+        <v>44834</v>
+      </c>
       <c r="F69" s="4"/>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="27"/>
-      <c r="B70" s="25"/>
+      <c r="B70" s="32"/>
       <c r="C70" s="1" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="9">
@@ -6351,148 +6571,152 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="27"/>
-      <c r="B71" s="25"/>
+      <c r="B71" s="32"/>
       <c r="C71" s="1" t="s">
-        <v>520</v>
+        <v>105</v>
       </c>
       <c r="D71" s="1"/>
-      <c r="E71" s="9">
-        <v>45073</v>
-      </c>
+      <c r="E71" s="1"/>
       <c r="F71" s="4"/>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="27"/>
-      <c r="B72" s="25"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="1" t="s">
-        <v>525</v>
+        <v>181</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="9">
-        <v>45067</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>523</v>
-      </c>
+        <v>44834</v>
+      </c>
+      <c r="F72" s="4"/>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="27"/>
-      <c r="B73" s="25"/>
+      <c r="B73" s="32"/>
       <c r="C73" s="1" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="9">
-        <v>45084</v>
+        <v>45073</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="27"/>
-      <c r="B74" s="25"/>
+      <c r="B74" s="32"/>
       <c r="C74" s="1" t="s">
-        <v>165</v>
+        <v>521</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="9">
-        <v>44834</v>
-      </c>
-      <c r="F74" s="4"/>
+        <v>45067</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>519</v>
+      </c>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="27"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="1"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="1" t="s">
+        <v>522</v>
+      </c>
       <c r="D75" s="1"/>
-      <c r="E75" s="9"/>
+      <c r="E75" s="9">
+        <v>45084</v>
+      </c>
       <c r="F75" s="4"/>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="27"/>
-      <c r="B76" s="25"/>
+      <c r="B76" s="32"/>
       <c r="C76" s="1" t="s">
-        <v>517</v>
+        <v>162</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="9">
-        <v>45066</v>
+        <v>44834</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="27"/>
-      <c r="B77" s="25"/>
+      <c r="B77" s="32"/>
       <c r="C77" s="1" t="s">
-        <v>518</v>
+        <v>591</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="9">
-        <v>45066</v>
+        <v>45302</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="27"/>
-      <c r="B78" s="25"/>
+      <c r="B78" s="32"/>
       <c r="C78" s="1" t="s">
-        <v>382</v>
+        <v>513</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="9">
-        <v>44986</v>
+        <v>45066</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="27"/>
-      <c r="B79" s="25"/>
+      <c r="B79" s="32"/>
       <c r="C79" s="1" t="s">
-        <v>108</v>
+        <v>514</v>
       </c>
       <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="E79" s="9">
+        <v>45066</v>
+      </c>
+      <c r="F79" s="4"/>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="27"/>
-      <c r="B80" s="25"/>
+      <c r="B80" s="32"/>
       <c r="C80" s="1" t="s">
-        <v>109</v>
+        <v>379</v>
       </c>
       <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
+      <c r="E80" s="9">
+        <v>44986</v>
+      </c>
       <c r="F80" s="4"/>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="27"/>
-      <c r="B81" s="25"/>
+      <c r="B81" s="32"/>
       <c r="C81" s="1" t="s">
-        <v>268</v>
+        <v>106</v>
       </c>
       <c r="D81" s="1"/>
-      <c r="E81" s="9">
-        <v>44834</v>
-      </c>
-      <c r="F81" s="4"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="27"/>
-      <c r="B82" s="25"/>
+      <c r="B82" s="32"/>
       <c r="C82" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -6501,21 +6725,23 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="27"/>
-      <c r="B83" s="25"/>
+      <c r="B83" s="32"/>
       <c r="C83" s="1" t="s">
-        <v>111</v>
+        <v>265</v>
       </c>
       <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="E83" s="9">
+        <v>44834</v>
+      </c>
+      <c r="F83" s="4"/>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="27"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="1"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="4"/>
@@ -6523,74 +6749,74 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="27"/>
-      <c r="B85" s="25"/>
+      <c r="B85" s="32"/>
       <c r="C85" s="1" t="s">
-        <v>513</v>
+        <v>109</v>
       </c>
       <c r="D85" s="1"/>
-      <c r="E85" s="9">
-        <v>45061</v>
-      </c>
-      <c r="F85" s="4"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="27"/>
-      <c r="B86" s="25"/>
+      <c r="B86" s="32"/>
       <c r="C86" s="1" t="s">
-        <v>512</v>
+        <v>572</v>
       </c>
       <c r="D86" s="1"/>
-      <c r="E86" s="9">
-        <v>45061</v>
-      </c>
-      <c r="F86" s="4"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="4" t="s">
+        <v>573</v>
+      </c>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="27"/>
-      <c r="B87" s="25"/>
+      <c r="B87" s="32"/>
       <c r="C87" s="1" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="9">
-        <v>45064</v>
+        <v>45061</v>
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="27"/>
-      <c r="B88" s="25"/>
+      <c r="B88" s="32"/>
       <c r="C88" s="1" t="s">
-        <v>376</v>
+        <v>508</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="9">
-        <v>44986</v>
+        <v>45061</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="27"/>
-      <c r="B89" s="25"/>
+      <c r="B89" s="32"/>
       <c r="C89" s="1" t="s">
-        <v>377</v>
+        <v>510</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="9">
-        <v>44986</v>
+        <v>45064</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="27"/>
-      <c r="B90" s="25"/>
+      <c r="B90" s="32"/>
       <c r="C90" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="9">
@@ -6601,129 +6827,129 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="27"/>
-      <c r="B91" s="25"/>
+      <c r="B91" s="32"/>
       <c r="C91" s="1" t="s">
-        <v>269</v>
+        <v>374</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="9">
-        <v>44927</v>
+        <v>44986</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="27"/>
-      <c r="B92" s="26"/>
+      <c r="B92" s="32"/>
       <c r="C92" s="1" t="s">
-        <v>112</v>
+        <v>375</v>
       </c>
       <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
+      <c r="E92" s="9">
+        <v>44986</v>
+      </c>
       <c r="F92" s="4"/>
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="B93" s="27" t="s">
-        <v>113</v>
-      </c>
+      <c r="A93" s="27"/>
+      <c r="B93" s="32"/>
       <c r="C93" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="4" t="s">
-        <v>485</v>
-      </c>
+      <c r="E93" s="9">
+        <v>44927</v>
+      </c>
+      <c r="F93" s="4"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" ht="27">
+    <row r="94" spans="1:7">
       <c r="A94" s="27"/>
-      <c r="B94" s="27"/>
+      <c r="B94" s="33"/>
       <c r="C94" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="5" t="s">
-        <v>473</v>
-      </c>
+      <c r="F94" s="4"/>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="27"/>
-      <c r="B95" s="27"/>
+      <c r="A95" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B95" s="27" t="s">
+        <v>111</v>
+      </c>
       <c r="C95" s="1" t="s">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="4"/>
+      <c r="F95" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" ht="27">
       <c r="A96" s="27"/>
-      <c r="B96" s="8"/>
+      <c r="B96" s="27"/>
       <c r="C96" s="1" t="s">
-        <v>201</v>
+        <v>112</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="4"/>
+      <c r="F96" s="5" t="s">
+        <v>470</v>
+      </c>
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="27"/>
-      <c r="B97" s="24"/>
+      <c r="B97" s="27"/>
       <c r="C97" s="1" t="s">
-        <v>177</v>
+        <v>113</v>
       </c>
       <c r="D97" s="1"/>
-      <c r="E97" s="9">
-        <v>44834</v>
-      </c>
+      <c r="E97" s="1"/>
       <c r="F97" s="4"/>
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="27"/>
-      <c r="B98" s="25"/>
+      <c r="B98" s="8"/>
       <c r="C98" s="1" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="D98" s="1"/>
-      <c r="E98" s="9">
-        <v>44834</v>
-      </c>
+      <c r="E98" s="1"/>
       <c r="F98" s="4"/>
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="27"/>
-      <c r="B99" s="25"/>
+      <c r="B99" s="24"/>
       <c r="C99" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="9">
         <v>44834</v>
       </c>
-      <c r="F99" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="F99" s="4"/>
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="27"/>
       <c r="B100" s="25"/>
       <c r="C100" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
+      <c r="E100" s="9">
+        <v>44834</v>
+      </c>
       <c r="F100" s="4"/>
       <c r="G100" s="1"/>
     </row>
@@ -6731,23 +6957,25 @@
       <c r="A101" s="27"/>
       <c r="B101" s="25"/>
       <c r="C101" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="4"/>
+      <c r="E101" s="9">
+        <v>44834</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>546</v>
+      </c>
       <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="27"/>
       <c r="B102" s="25"/>
       <c r="C102" s="1" t="s">
-        <v>336</v>
+        <v>177</v>
       </c>
       <c r="D102" s="1"/>
-      <c r="E102" s="9">
-        <v>44966</v>
-      </c>
+      <c r="E102" s="1"/>
       <c r="F102" s="4"/>
       <c r="G102" s="1"/>
     </row>
@@ -6755,7 +6983,7 @@
       <c r="A103" s="27"/>
       <c r="B103" s="25"/>
       <c r="C103" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -6765,9 +6993,13 @@
     <row r="104" spans="1:7">
       <c r="A104" s="27"/>
       <c r="B104" s="25"/>
-      <c r="C104" s="1"/>
+      <c r="C104" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
+      <c r="E104" s="9">
+        <v>44966</v>
+      </c>
       <c r="F104" s="4"/>
       <c r="G104" s="1"/>
     </row>
@@ -6775,25 +7007,19 @@
       <c r="A105" s="27"/>
       <c r="B105" s="25"/>
       <c r="C105" s="1" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D105" s="1"/>
-      <c r="E105" s="9">
-        <v>44834</v>
-      </c>
+      <c r="E105" s="1"/>
       <c r="F105" s="4"/>
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="27"/>
       <c r="B106" s="25"/>
-      <c r="C106" s="1" t="s">
-        <v>322</v>
-      </c>
+      <c r="C106" s="1"/>
       <c r="D106" s="1"/>
-      <c r="E106" s="9">
-        <v>44865</v>
-      </c>
+      <c r="E106" s="1"/>
       <c r="F106" s="4"/>
       <c r="G106" s="1"/>
     </row>
@@ -6801,10 +7027,12 @@
       <c r="A107" s="27"/>
       <c r="B107" s="25"/>
       <c r="C107" s="1" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
+      <c r="E107" s="9">
+        <v>44834</v>
+      </c>
       <c r="F107" s="4"/>
       <c r="G107" s="1"/>
     </row>
@@ -6812,10 +7040,12 @@
       <c r="A108" s="27"/>
       <c r="B108" s="25"/>
       <c r="C108" s="1" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
+      <c r="E108" s="9">
+        <v>44865</v>
+      </c>
       <c r="F108" s="4"/>
       <c r="G108" s="1"/>
     </row>
@@ -6823,12 +7053,10 @@
       <c r="A109" s="27"/>
       <c r="B109" s="25"/>
       <c r="C109" s="1" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="D109" s="1"/>
-      <c r="E109" s="9">
-        <v>44834</v>
-      </c>
+      <c r="E109" s="1"/>
       <c r="F109" s="4"/>
       <c r="G109" s="1"/>
     </row>
@@ -6836,12 +7064,10 @@
       <c r="A110" s="27"/>
       <c r="B110" s="25"/>
       <c r="C110" s="1" t="s">
-        <v>183</v>
+        <v>346</v>
       </c>
       <c r="D110" s="1"/>
-      <c r="E110" s="9">
-        <v>44834</v>
-      </c>
+      <c r="E110" s="1"/>
       <c r="F110" s="4"/>
       <c r="G110" s="1"/>
     </row>
@@ -6849,11 +7075,11 @@
       <c r="A111" s="27"/>
       <c r="B111" s="25"/>
       <c r="C111" s="1" t="s">
-        <v>309</v>
+        <v>203</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="9">
-        <v>44947</v>
+        <v>44834</v>
       </c>
       <c r="F111" s="4"/>
       <c r="G111" s="1"/>
@@ -6862,7 +7088,7 @@
       <c r="A112" s="27"/>
       <c r="B112" s="25"/>
       <c r="C112" s="1" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="9">
@@ -6875,10 +7101,12 @@
       <c r="A113" s="27"/>
       <c r="B113" s="25"/>
       <c r="C113" s="1" t="s">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="D113" s="1"/>
-      <c r="E113" s="9"/>
+      <c r="E113" s="9">
+        <v>44947</v>
+      </c>
       <c r="F113" s="4"/>
       <c r="G113" s="1"/>
     </row>
@@ -6886,10 +7114,12 @@
       <c r="A114" s="27"/>
       <c r="B114" s="25"/>
       <c r="C114" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="D114" s="1"/>
-      <c r="E114" s="9"/>
+      <c r="E114" s="9">
+        <v>44834</v>
+      </c>
       <c r="F114" s="4"/>
       <c r="G114" s="1"/>
     </row>
@@ -6897,10 +7127,10 @@
       <c r="A115" s="27"/>
       <c r="B115" s="25"/>
       <c r="C115" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
+      <c r="E115" s="9"/>
       <c r="F115" s="4"/>
       <c r="G115" s="1"/>
     </row>
@@ -6908,12 +7138,10 @@
       <c r="A116" s="27"/>
       <c r="B116" s="25"/>
       <c r="C116" s="1" t="s">
-        <v>310</v>
+        <v>231</v>
       </c>
       <c r="D116" s="1"/>
-      <c r="E116" s="9">
-        <v>44947</v>
-      </c>
+      <c r="E116" s="9"/>
       <c r="F116" s="4"/>
       <c r="G116" s="1"/>
     </row>
@@ -6921,12 +7149,10 @@
       <c r="A117" s="27"/>
       <c r="B117" s="25"/>
       <c r="C117" s="1" t="s">
-        <v>173</v>
+        <v>229</v>
       </c>
       <c r="D117" s="1"/>
-      <c r="E117" s="9">
-        <v>44834</v>
-      </c>
+      <c r="E117" s="1"/>
       <c r="F117" s="4"/>
       <c r="G117" s="1"/>
     </row>
@@ -6934,11 +7160,11 @@
       <c r="A118" s="27"/>
       <c r="B118" s="25"/>
       <c r="C118" s="1" t="s">
-        <v>539</v>
+        <v>307</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="9">
-        <v>45104</v>
+        <v>44947</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="1"/>
@@ -6947,7 +7173,7 @@
       <c r="A119" s="27"/>
       <c r="B119" s="25"/>
       <c r="C119" s="1" t="s">
-        <v>347</v>
+        <v>170</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="9">
@@ -6960,11 +7186,11 @@
       <c r="A120" s="27"/>
       <c r="B120" s="25"/>
       <c r="C120" s="1" t="s">
-        <v>348</v>
+        <v>535</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="9">
-        <v>44982</v>
+        <v>45104</v>
       </c>
       <c r="F120" s="4"/>
       <c r="G120" s="1"/>
@@ -6973,25 +7199,25 @@
       <c r="A121" s="27"/>
       <c r="B121" s="25"/>
       <c r="C121" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="9">
-        <v>44983</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>490</v>
-      </c>
+        <v>44834</v>
+      </c>
+      <c r="F121" s="4"/>
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="27"/>
       <c r="B122" s="25"/>
       <c r="C122" s="1" t="s">
-        <v>219</v>
+        <v>345</v>
       </c>
       <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
+      <c r="E122" s="9">
+        <v>44982</v>
+      </c>
       <c r="F122" s="4"/>
       <c r="G122" s="1"/>
     </row>
@@ -6999,25 +7225,25 @@
       <c r="A123" s="27"/>
       <c r="B123" s="25"/>
       <c r="C123" s="1" t="s">
-        <v>228</v>
+        <v>343</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="9">
-        <v>44835</v>
-      </c>
-      <c r="F123" s="4"/>
+        <v>44983</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>486</v>
+      </c>
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="27"/>
       <c r="B124" s="25"/>
       <c r="C124" s="1" t="s">
-        <v>296</v>
+        <v>216</v>
       </c>
       <c r="D124" s="1"/>
-      <c r="E124" s="9">
-        <v>44945</v>
-      </c>
+      <c r="E124" s="1"/>
       <c r="F124" s="4"/>
       <c r="G124" s="1"/>
     </row>
@@ -7025,11 +7251,11 @@
       <c r="A125" s="27"/>
       <c r="B125" s="25"/>
       <c r="C125" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="9">
-        <v>44834</v>
+        <v>44835</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="1"/>
@@ -7038,11 +7264,11 @@
       <c r="A126" s="27"/>
       <c r="B126" s="25"/>
       <c r="C126" s="1" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="9">
-        <v>44834</v>
+        <v>44945</v>
       </c>
       <c r="F126" s="4"/>
       <c r="G126" s="1"/>
@@ -7051,7 +7277,7 @@
       <c r="A127" s="27"/>
       <c r="B127" s="25"/>
       <c r="C127" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="9">
@@ -7064,7 +7290,7 @@
       <c r="A128" s="27"/>
       <c r="B128" s="25"/>
       <c r="C128" s="1" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="9">
@@ -7077,22 +7303,20 @@
       <c r="A129" s="27"/>
       <c r="B129" s="25"/>
       <c r="C129" s="1" t="s">
-        <v>554</v>
+        <v>228</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="9">
         <v>44834</v>
       </c>
-      <c r="F129" s="18" t="s">
-        <v>345</v>
-      </c>
+      <c r="F129" s="4"/>
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="27"/>
       <c r="B130" s="25"/>
       <c r="C130" s="1" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="9">
@@ -7105,22 +7329,26 @@
       <c r="A131" s="27"/>
       <c r="B131" s="25"/>
       <c r="C131" s="1" t="s">
-        <v>117</v>
+        <v>550</v>
       </c>
       <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="4"/>
+      <c r="E131" s="9">
+        <v>44834</v>
+      </c>
+      <c r="F131" s="18" t="s">
+        <v>342</v>
+      </c>
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="27"/>
       <c r="B132" s="25"/>
       <c r="C132" s="1" t="s">
-        <v>379</v>
+        <v>219</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="9">
-        <v>44986</v>
+        <v>44834</v>
       </c>
       <c r="F132" s="4"/>
       <c r="G132" s="1"/>
@@ -7129,12 +7357,10 @@
       <c r="A133" s="27"/>
       <c r="B133" s="25"/>
       <c r="C133" s="1" t="s">
-        <v>380</v>
+        <v>115</v>
       </c>
       <c r="D133" s="1"/>
-      <c r="E133" s="9">
-        <v>44986</v>
-      </c>
+      <c r="E133" s="1"/>
       <c r="F133" s="4"/>
       <c r="G133" s="1"/>
     </row>
@@ -7142,7 +7368,7 @@
       <c r="A134" s="27"/>
       <c r="B134" s="25"/>
       <c r="C134" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="9">
@@ -7155,11 +7381,11 @@
       <c r="A135" s="27"/>
       <c r="B135" s="25"/>
       <c r="C135" s="1" t="s">
-        <v>207</v>
+        <v>377</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="9">
-        <v>44834</v>
+        <v>44986</v>
       </c>
       <c r="F135" s="4"/>
       <c r="G135" s="1"/>
@@ -7168,11 +7394,11 @@
       <c r="A136" s="27"/>
       <c r="B136" s="25"/>
       <c r="C136" s="1" t="s">
-        <v>311</v>
+        <v>378</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="9">
-        <v>44947</v>
+        <v>44986</v>
       </c>
       <c r="F136" s="4"/>
       <c r="G136" s="1"/>
@@ -7181,11 +7407,11 @@
       <c r="A137" s="27"/>
       <c r="B137" s="25"/>
       <c r="C137" s="1" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="9">
-        <v>44835</v>
+        <v>44834</v>
       </c>
       <c r="F137" s="4"/>
       <c r="G137" s="1"/>
@@ -7194,84 +7420,88 @@
       <c r="A138" s="27"/>
       <c r="B138" s="25"/>
       <c r="C138" s="1" t="s">
-        <v>200</v>
+        <v>308</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="9">
-        <v>44834</v>
+        <v>44947</v>
       </c>
       <c r="F138" s="4"/>
       <c r="G138" s="1"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="27"/>
-      <c r="B139" s="26"/>
+      <c r="B139" s="25"/>
       <c r="C139" s="1" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="9">
-        <v>44834</v>
+        <v>44835</v>
       </c>
       <c r="F139" s="4"/>
       <c r="G139" s="1"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="B140" s="27" t="s">
-        <v>119</v>
-      </c>
+      <c r="A140" s="27"/>
+      <c r="B140" s="25"/>
       <c r="C140" s="1" t="s">
-        <v>555</v>
+        <v>197</v>
       </c>
       <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="4" t="s">
-        <v>498</v>
-      </c>
+      <c r="E140" s="9">
+        <v>44834</v>
+      </c>
+      <c r="F140" s="4"/>
       <c r="G140" s="1"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="27"/>
-      <c r="B141" s="27"/>
+      <c r="B141" s="26"/>
       <c r="C141" s="1" t="s">
-        <v>556</v>
+        <v>205</v>
       </c>
       <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="4" t="s">
-        <v>499</v>
-      </c>
+      <c r="E141" s="9">
+        <v>44834</v>
+      </c>
+      <c r="F141" s="4"/>
       <c r="G141" s="1"/>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="27"/>
-      <c r="B142" s="27"/>
-      <c r="C142" s="1"/>
+      <c r="A142" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B142" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>551</v>
+      </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="4"/>
+      <c r="F142" s="4" t="s">
+        <v>494</v>
+      </c>
       <c r="G142" s="1"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="27"/>
       <c r="B143" s="27"/>
       <c r="C143" s="1" t="s">
-        <v>120</v>
+        <v>552</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
-      <c r="F143" s="4"/>
+      <c r="F143" s="4" t="s">
+        <v>495</v>
+      </c>
       <c r="G143" s="1"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="27"/>
       <c r="B144" s="27"/>
-      <c r="C144" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="4"/>
@@ -7279,151 +7509,157 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="27"/>
-      <c r="B145" s="24"/>
+      <c r="B145" s="27"/>
       <c r="C145" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
-      <c r="F145" s="11"/>
+      <c r="F145" s="4"/>
       <c r="G145" s="1"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="27"/>
-      <c r="B146" s="25"/>
+      <c r="B146" s="27"/>
       <c r="C146" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
-      <c r="F146" s="11"/>
+      <c r="F146" s="4"/>
       <c r="G146" s="1"/>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="27"/>
-      <c r="B147" s="26"/>
+      <c r="B147" s="24"/>
       <c r="C147" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
-      <c r="F147" s="9">
+      <c r="F147" s="11"/>
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="27"/>
+      <c r="B148" s="25"/>
+      <c r="C148" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="1"/>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="27"/>
+      <c r="B149" s="26"/>
+      <c r="C149" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="9">
         <v>44742</v>
       </c>
-      <c r="G147" s="1"/>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B148" s="31"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="9"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="1"/>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="A149" s="25"/>
-      <c r="B149" s="32"/>
-      <c r="C149" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="D149" s="1"/>
-      <c r="E149" s="9">
-        <v>45148</v>
-      </c>
-      <c r="F149" s="9"/>
       <c r="G149" s="1"/>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="25"/>
-      <c r="B150" s="32"/>
-      <c r="C150" s="1" t="s">
-        <v>553</v>
-      </c>
+      <c r="A150" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B150" s="31"/>
+      <c r="C150" s="1"/>
       <c r="D150" s="1"/>
-      <c r="E150" s="9">
-        <v>45084</v>
-      </c>
-      <c r="F150" s="9">
-        <v>45107</v>
-      </c>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
       <c r="G150" s="1"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="25"/>
       <c r="B151" s="32"/>
       <c r="C151" s="1" t="s">
-        <v>126</v>
+        <v>548</v>
       </c>
       <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="11"/>
+      <c r="E151" s="9">
+        <v>45148</v>
+      </c>
+      <c r="F151" s="9"/>
       <c r="G151" s="1"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="25"/>
       <c r="B152" s="32"/>
       <c r="C152" s="1" t="s">
-        <v>127</v>
+        <v>549</v>
       </c>
       <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="11"/>
+      <c r="E152" s="9">
+        <v>45084</v>
+      </c>
+      <c r="F152" s="9">
+        <v>45107</v>
+      </c>
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="25"/>
       <c r="B153" s="32"/>
       <c r="C153" s="1" t="s">
-        <v>128</v>
+        <v>566</v>
       </c>
       <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="11"/>
+      <c r="E153" s="9">
+        <v>45275</v>
+      </c>
+      <c r="F153" s="9"/>
       <c r="G153" s="1"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="25"/>
       <c r="B154" s="32"/>
       <c r="C154" s="1" t="s">
-        <v>129</v>
+        <v>567</v>
       </c>
       <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="11"/>
+      <c r="E154" s="9">
+        <v>45275</v>
+      </c>
+      <c r="F154" s="9"/>
       <c r="G154" s="1"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="25"/>
       <c r="B155" s="32"/>
       <c r="C155" s="1" t="s">
-        <v>529</v>
+        <v>568</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="9">
-        <v>45095</v>
-      </c>
-      <c r="F155" s="11"/>
+        <v>45275</v>
+      </c>
+      <c r="F155" s="9"/>
       <c r="G155" s="1"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="25"/>
       <c r="B156" s="32"/>
       <c r="C156" s="1" t="s">
-        <v>130</v>
+        <v>569</v>
       </c>
       <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="11"/>
+      <c r="E156" s="9">
+        <v>45275</v>
+      </c>
+      <c r="F156" s="9"/>
       <c r="G156" s="1"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="25"/>
       <c r="B157" s="32"/>
       <c r="C157" s="1" t="s">
-        <v>351</v>
+        <v>124</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -7434,460 +7670,640 @@
       <c r="A158" s="25"/>
       <c r="B158" s="32"/>
       <c r="C158" s="1" t="s">
-        <v>538</v>
+        <v>125</v>
       </c>
       <c r="D158" s="1"/>
-      <c r="E158" s="9">
-        <v>45104</v>
-      </c>
+      <c r="E158" s="1"/>
       <c r="F158" s="11"/>
       <c r="G158" s="1"/>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="26"/>
-      <c r="B159" s="33"/>
+      <c r="A159" s="25"/>
+      <c r="B159" s="32"/>
       <c r="C159" s="1" t="s">
-        <v>350</v>
+        <v>126</v>
       </c>
       <c r="D159" s="1"/>
-      <c r="E159" s="9">
-        <v>44983</v>
-      </c>
+      <c r="E159" s="1"/>
       <c r="F159" s="11"/>
       <c r="G159" s="1"/>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="B160" s="24"/>
+      <c r="A160" s="25"/>
+      <c r="B160" s="32"/>
       <c r="C160" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D160" t="s">
-        <v>474</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="11"/>
       <c r="G160" s="1"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="27"/>
-      <c r="B161" s="25"/>
+      <c r="A161" s="25"/>
+      <c r="B161" s="32"/>
       <c r="C161" s="1" t="s">
-        <v>133</v>
+        <v>525</v>
       </c>
       <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
+      <c r="E161" s="9">
+        <v>45095</v>
+      </c>
       <c r="F161" s="11"/>
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="27"/>
-      <c r="B162" s="25"/>
+      <c r="A162" s="25"/>
+      <c r="B162" s="32"/>
       <c r="C162" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>475</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="11"/>
       <c r="G162" s="1"/>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="27"/>
-      <c r="B163" s="25"/>
+      <c r="A163" s="25"/>
+      <c r="B163" s="32"/>
       <c r="C163" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>476</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="11"/>
       <c r="G163" s="1"/>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="27"/>
-      <c r="B164" s="25"/>
+      <c r="A164" s="25"/>
+      <c r="B164" s="32"/>
       <c r="C164" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="E164" s="1"/>
+        <v>534</v>
+      </c>
+      <c r="D164" s="1"/>
+      <c r="E164" s="9">
+        <v>45104</v>
+      </c>
       <c r="F164" s="11"/>
       <c r="G164" s="1"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="27"/>
-      <c r="B165" s="25"/>
+      <c r="A165" s="26"/>
+      <c r="B165" s="33"/>
       <c r="C165" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="E165" s="1"/>
+        <v>347</v>
+      </c>
+      <c r="D165" s="1"/>
+      <c r="E165" s="9">
+        <v>44983</v>
+      </c>
       <c r="F165" s="11"/>
       <c r="G165" s="1"/>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="27"/>
-      <c r="B166" s="25"/>
-      <c r="C166" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="E166" s="1"/>
+      <c r="A166" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B166" s="31" t="s">
+        <v>578</v>
+      </c>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="9"/>
       <c r="F166" s="11"/>
       <c r="G166" s="1"/>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="27"/>
-      <c r="B167" s="26"/>
+      <c r="A167" s="32"/>
+      <c r="B167" s="32"/>
       <c r="C167" s="1" t="s">
-        <v>137</v>
+        <v>579</v>
       </c>
       <c r="D167" t="s">
-        <v>482</v>
-      </c>
-      <c r="E167" s="1"/>
+        <v>580</v>
+      </c>
+      <c r="E167" s="9">
+        <v>45296</v>
+      </c>
       <c r="F167" s="11"/>
       <c r="G167" s="1"/>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="B168" s="31"/>
+      <c r="A168" s="32"/>
+      <c r="B168" s="33"/>
       <c r="C168" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D168" s="1"/>
-      <c r="E168" s="9">
-        <v>44965</v>
-      </c>
-      <c r="F168" s="11"/>
+        <v>130</v>
+      </c>
+      <c r="D168" t="s">
+        <v>576</v>
+      </c>
+      <c r="E168" s="1"/>
+      <c r="F168" s="9">
+        <v>45291</v>
+      </c>
       <c r="G168" s="1"/>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="25"/>
+      <c r="A169" s="32"/>
       <c r="B169" s="32"/>
       <c r="C169" s="1" t="s">
-        <v>340</v>
+        <v>131</v>
       </c>
       <c r="D169" s="1"/>
-      <c r="E169" s="9">
-        <v>44965</v>
-      </c>
-      <c r="F169" s="9">
-        <v>45006</v>
-      </c>
+      <c r="E169" s="1"/>
+      <c r="F169" s="11"/>
       <c r="G169" s="1"/>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="25"/>
+      <c r="A170" s="32"/>
       <c r="B170" s="32"/>
-      <c r="C170" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D170" s="1"/>
-      <c r="E170" s="9">
-        <v>44976</v>
-      </c>
-      <c r="F170" s="9">
-        <v>45024</v>
-      </c>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E170" s="1"/>
+      <c r="F170" s="11"/>
       <c r="G170" s="1"/>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="26"/>
-      <c r="B171" s="33"/>
+      <c r="A171" s="32"/>
+      <c r="B171" s="32"/>
       <c r="C171" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D171" s="1"/>
-      <c r="E171" s="9">
-        <v>44965</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E171" s="1"/>
       <c r="F171" s="11"/>
       <c r="G171" s="1"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="24"/>
-      <c r="B172" s="24"/>
+      <c r="A172" s="32"/>
+      <c r="B172" s="32"/>
       <c r="C172" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="D172" s="1"/>
-      <c r="E172" s="9">
-        <v>45084</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E172" s="1"/>
       <c r="F172" s="11"/>
       <c r="G172" s="1"/>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="25"/>
-      <c r="B173" s="25"/>
+      <c r="A173" s="32"/>
+      <c r="B173" s="32"/>
       <c r="C173" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D173" s="1"/>
-      <c r="E173" s="9">
-        <v>45195</v>
-      </c>
-      <c r="F173" s="11"/>
+        <v>574</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="E173" s="1"/>
+      <c r="F173" s="9">
+        <v>45280</v>
+      </c>
       <c r="G173" s="1"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="25"/>
-      <c r="B174" s="25"/>
+      <c r="A174" s="32"/>
+      <c r="B174" s="32"/>
       <c r="C174" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="9">
-        <v>44819</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="D174" t="s">
+        <v>584</v>
+      </c>
+      <c r="E174" s="9">
+        <v>45296</v>
+      </c>
+      <c r="F174" s="9"/>
       <c r="G174" s="1"/>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="25"/>
-      <c r="B175" s="25"/>
+      <c r="A175" s="32"/>
+      <c r="B175" s="32"/>
       <c r="C175" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D175" s="1"/>
+        <v>476</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>477</v>
+      </c>
       <c r="E175" s="1"/>
       <c r="F175" s="11"/>
       <c r="G175" s="1"/>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="25"/>
-      <c r="B176" s="25"/>
+      <c r="A176" s="32"/>
+      <c r="B176" s="32"/>
       <c r="C176" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D176" s="1"/>
+        <v>475</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>474</v>
+      </c>
       <c r="E176" s="1"/>
       <c r="F176" s="11"/>
       <c r="G176" s="1"/>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="25"/>
-      <c r="B177" s="25"/>
-      <c r="C177" s="1" t="s">
-        <v>540</v>
-      </c>
+      <c r="A177" s="32"/>
+      <c r="B177" s="32"/>
+      <c r="C177" s="1"/>
       <c r="D177" s="1"/>
-      <c r="E177" s="9">
-        <v>45104</v>
-      </c>
+      <c r="E177" s="1"/>
       <c r="F177" s="11"/>
       <c r="G177" s="1"/>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="25"/>
-      <c r="B178" s="25"/>
+      <c r="A178" s="32"/>
+      <c r="B178" s="32"/>
       <c r="C178" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D178" s="1"/>
+        <v>581</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>582</v>
+      </c>
       <c r="E178" s="9">
-        <v>45018</v>
-      </c>
-      <c r="F178" s="9">
-        <v>45032</v>
-      </c>
+        <v>45296</v>
+      </c>
+      <c r="F178" s="11"/>
       <c r="G178" s="1"/>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="26"/>
-      <c r="B179" s="26"/>
+      <c r="A179" s="32"/>
+      <c r="B179" s="32"/>
       <c r="C179" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D179" s="1"/>
+        <v>585</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>586</v>
+      </c>
       <c r="E179" s="9">
-        <v>44947</v>
-      </c>
-      <c r="F179" s="9">
-        <v>45125</v>
-      </c>
+        <v>45296</v>
+      </c>
+      <c r="F179" s="11"/>
       <c r="G179" s="1"/>
     </row>
-    <row r="180" spans="1:7" ht="42" customHeight="1">
-      <c r="A180" s="21"/>
-      <c r="B180" s="21"/>
+    <row r="180" spans="1:7">
+      <c r="A180" s="32"/>
+      <c r="B180" s="32"/>
       <c r="C180" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D180" s="1"/>
+        <v>590</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>587</v>
+      </c>
       <c r="E180" s="9">
-        <v>45018</v>
+        <v>45296</v>
       </c>
       <c r="F180" s="9">
-        <v>45043</v>
-      </c>
-      <c r="G180" s="20" t="s">
-        <v>510</v>
-      </c>
+        <v>45297</v>
+      </c>
+      <c r="G180" s="1"/>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="22"/>
-      <c r="B181" s="22"/>
+      <c r="A181" s="33"/>
+      <c r="B181" s="33"/>
       <c r="C181" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="D181" s="1"/>
-      <c r="E181" s="9">
-        <v>44738</v>
-      </c>
-      <c r="F181" s="9">
-        <v>45057</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="D181" t="s">
+        <v>478</v>
+      </c>
+      <c r="E181" s="1"/>
+      <c r="F181" s="11"/>
       <c r="G181" s="1"/>
     </row>
     <row r="182" spans="1:7">
-      <c r="A182" s="16"/>
-      <c r="B182" s="16"/>
+      <c r="A182" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="B182" s="31"/>
       <c r="C182" s="1" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="9">
-        <v>44945</v>
-      </c>
-      <c r="F182" s="9">
-        <v>44947</v>
-      </c>
+        <v>44965</v>
+      </c>
+      <c r="F182" s="11"/>
       <c r="G182" s="1"/>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="16"/>
-      <c r="B183" s="16"/>
+      <c r="A183" s="25"/>
+      <c r="B183" s="32"/>
       <c r="C183" s="1" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="9">
-        <v>44947</v>
-      </c>
-      <c r="F183" s="11"/>
+        <v>44965</v>
+      </c>
+      <c r="F183" s="9">
+        <v>45006</v>
+      </c>
       <c r="G183" s="1"/>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" s="16"/>
-      <c r="B184" s="16"/>
+      <c r="A184" s="25"/>
+      <c r="B184" s="32"/>
       <c r="C184" s="1" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="9">
+        <v>44976</v>
+      </c>
+      <c r="F184" s="9">
+        <v>45024</v>
+      </c>
+      <c r="G184" s="1"/>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="26"/>
+      <c r="B185" s="33"/>
+      <c r="C185" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D185" s="1"/>
+      <c r="E185" s="9">
+        <v>44965</v>
+      </c>
+      <c r="F185" s="11"/>
+      <c r="G185" s="1"/>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="24"/>
+      <c r="B186" s="24"/>
+      <c r="C186" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D186" s="1"/>
+      <c r="E186" s="9">
+        <v>45084</v>
+      </c>
+      <c r="F186" s="11"/>
+      <c r="G186" s="1"/>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="25"/>
+      <c r="B187" s="25"/>
+      <c r="C187" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D187" s="1"/>
+      <c r="E187" s="9">
+        <v>45195</v>
+      </c>
+      <c r="F187" s="11"/>
+      <c r="G187" s="1"/>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="25"/>
+      <c r="B188" s="25"/>
+      <c r="C188" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="9">
+        <v>44819</v>
+      </c>
+      <c r="G188" s="1"/>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="25"/>
+      <c r="B189" s="25"/>
+      <c r="C189" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="11"/>
+      <c r="G189" s="1"/>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="25"/>
+      <c r="B190" s="25"/>
+      <c r="C190" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="11"/>
+      <c r="G190" s="1"/>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="25"/>
+      <c r="B191" s="25"/>
+      <c r="C191" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D191" s="1"/>
+      <c r="E191" s="9">
+        <v>45104</v>
+      </c>
+      <c r="F191" s="11"/>
+      <c r="G191" s="1"/>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="25"/>
+      <c r="B192" s="25"/>
+      <c r="C192" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D192" s="1"/>
+      <c r="E192" s="9">
+        <v>45018</v>
+      </c>
+      <c r="F192" s="9">
+        <v>45032</v>
+      </c>
+      <c r="G192" s="1"/>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="26"/>
+      <c r="B193" s="26"/>
+      <c r="C193" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D193" s="1"/>
+      <c r="E193" s="9">
         <v>44947</v>
       </c>
-      <c r="F184" s="11"/>
-      <c r="G184" s="1"/>
-    </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="D185" s="14"/>
-      <c r="E185" s="9">
+      <c r="F193" s="9">
+        <v>45125</v>
+      </c>
+      <c r="G193" s="1"/>
+    </row>
+    <row r="194" spans="1:7" ht="42" customHeight="1">
+      <c r="A194" s="21"/>
+      <c r="B194" s="21"/>
+      <c r="C194" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D194" s="1"/>
+      <c r="E194" s="9">
+        <v>45018</v>
+      </c>
+      <c r="F194" s="9">
+        <v>45043</v>
+      </c>
+      <c r="G194" s="20" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="22"/>
+      <c r="B195" s="22"/>
+      <c r="C195" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D195" s="1"/>
+      <c r="E195" s="9">
+        <v>44738</v>
+      </c>
+      <c r="F195" s="9">
+        <v>45057</v>
+      </c>
+      <c r="G195" s="1"/>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="16"/>
+      <c r="B196" s="16"/>
+      <c r="C196" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D196" s="1"/>
+      <c r="E196" s="9">
+        <v>44945</v>
+      </c>
+      <c r="F196" s="9">
+        <v>44947</v>
+      </c>
+      <c r="G196" s="1"/>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="16"/>
+      <c r="B197" s="16"/>
+      <c r="C197" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D197" s="1"/>
+      <c r="E197" s="9">
+        <v>44947</v>
+      </c>
+      <c r="F197" s="11"/>
+      <c r="G197" s="1"/>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="16"/>
+      <c r="B198" s="16"/>
+      <c r="C198" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D198" s="1"/>
+      <c r="E198" s="9">
+        <v>44947</v>
+      </c>
+      <c r="F198" s="11"/>
+      <c r="G198" s="1"/>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D199" s="14"/>
+      <c r="E199" s="9">
         <v>44834</v>
       </c>
-      <c r="F185" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G185" s="1"/>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="D186" s="14"/>
-      <c r="E186" s="9">
+      <c r="F199" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G199" s="1"/>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="D200" s="14"/>
+      <c r="E200" s="9">
         <v>44947</v>
       </c>
-      <c r="F186" s="4"/>
-      <c r="G186" s="1"/>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="14" t="s">
-        <v>500</v>
-      </c>
-      <c r="D187" s="14"/>
-      <c r="E187" s="9">
+      <c r="F200" s="4"/>
+      <c r="G200" s="1"/>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="D201" s="14"/>
+      <c r="E201" s="9">
         <v>45018</v>
       </c>
-      <c r="F187" s="4"/>
-      <c r="G187" s="1"/>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="D188" s="14"/>
-      <c r="E188" s="9">
+      <c r="F201" s="4"/>
+      <c r="G201" s="1"/>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="D202" s="14"/>
+      <c r="E202" s="9">
         <v>45154</v>
       </c>
-      <c r="F188" s="4"/>
-      <c r="G188" s="1"/>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="14"/>
-      <c r="D189" s="14"/>
-      <c r="E189" s="9"/>
-      <c r="F189" s="4"/>
-      <c r="G189" s="1"/>
+      <c r="F202" s="4"/>
+      <c r="G202" s="1"/>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="14"/>
+      <c r="D203" s="14"/>
+      <c r="E203" s="9"/>
+      <c r="F203" s="4"/>
+      <c r="G203" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A140:A147"/>
-    <mergeCell ref="B97:B139"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B172:B179"/>
-    <mergeCell ref="A172:A179"/>
-    <mergeCell ref="A160:A167"/>
-    <mergeCell ref="B69:B92"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B160:B167"/>
-    <mergeCell ref="B168:B171"/>
-    <mergeCell ref="A168:A171"/>
-    <mergeCell ref="B140:B144"/>
-    <mergeCell ref="B148:B159"/>
-    <mergeCell ref="A148:A159"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B45:B52"/>
     <mergeCell ref="A2:A52"/>
-    <mergeCell ref="B56:B65"/>
-    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="B57:B66"/>
+    <mergeCell ref="B95:B97"/>
     <mergeCell ref="B2:B18"/>
     <mergeCell ref="B19:B23"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B32:B37"/>
     <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A53:A92"/>
-    <mergeCell ref="A93:A139"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A53:A94"/>
+    <mergeCell ref="A95:A141"/>
+    <mergeCell ref="B67:B94"/>
+    <mergeCell ref="A142:A149"/>
+    <mergeCell ref="B99:B141"/>
+    <mergeCell ref="B186:B193"/>
+    <mergeCell ref="A186:A193"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="B142:B146"/>
+    <mergeCell ref="B150:B165"/>
+    <mergeCell ref="A150:A165"/>
+    <mergeCell ref="A166:A181"/>
+    <mergeCell ref="B166:B168"/>
+    <mergeCell ref="B169:B181"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7919,7 +8335,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
@@ -7931,25 +8347,25 @@
     <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D2" s="9">
         <v>44743</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D3" s="9">
         <v>44899</v>
@@ -7961,31 +8377,31 @@
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D4" s="9">
         <v>44911</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D5" s="9">
         <v>45019</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:5">

--- a/ePub/图书籍录.xlsx
+++ b/ePub/图书籍录.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="金融经济" sheetId="1" r:id="rId1"/>
-    <sheet name="历史" sheetId="2" r:id="rId2"/>
+    <sheet name="历史传记" sheetId="2" r:id="rId2"/>
     <sheet name="古典文化" sheetId="3" r:id="rId3"/>
     <sheet name="人物传记" sheetId="4" r:id="rId4"/>
     <sheet name="散文随笔" sheetId="5" r:id="rId5"/>
@@ -16,13 +16,14 @@
     <sheet name="诗词曲赋" sheetId="7" r:id="rId7"/>
     <sheet name="小说" sheetId="8" r:id="rId8"/>
     <sheet name="天涯神贴" sheetId="9" r:id="rId9"/>
+    <sheet name="yinxiang" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="679">
   <si>
     <t>股市进阶之道一个散户的自我修养.epub</t>
   </si>
@@ -153,9 +154,6 @@
     <t>南怀瑾-孟子旁通.epub</t>
   </si>
   <si>
-    <t>《毛润之传》</t>
-  </si>
-  <si>
     <t>毛润之传（插图本）.epub</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -429,9 +427,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>痴婆子传.epub</t>
-  </si>
-  <si>
     <t>淡情精选.epub</t>
   </si>
   <si>
@@ -570,10 +565,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>艾萨克·阿西莫夫套装（银河帝国1-15+神们自己+永恒的终结）共17册.epub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阿兰·德波顿-身份的焦虑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -685,9 +676,6 @@
     <t>卜伽丘-十日谈.epub</t>
   </si>
   <si>
-    <t>托马斯·曼-威尼斯之死.epub</t>
-  </si>
-  <si>
     <t>自然文学三部曲（寂静的春天+沙乡年鉴+瓦尔登湖）.epub</t>
   </si>
   <si>
@@ -719,9 +707,6 @@
   </si>
   <si>
     <t>吴晗-朱元璋传.epub</t>
-  </si>
-  <si>
-    <t>庄子（商务印书馆今注今译）.epub</t>
   </si>
   <si>
     <t>麦田里的守望者.epub</t>
@@ -869,10 +854,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2022/12/16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>绝非偶然.epub</t>
   </si>
   <si>
@@ -1136,10 +1117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天涯flp713-你所不知道的冰冷的经济真相.epub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>王小波-青铜时代.epub</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1192,10 +1169,6 @@
     <t>夏志清-中国现代小说史.epub</t>
   </si>
   <si>
-    <t>吴世昌-红楼梦探源.epub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>李硕-南北战争三百年.epub</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1488,9 +1461,6 @@
   </si>
   <si>
     <t>voSoD0</t>
-  </si>
-  <si>
-    <t>KMz2F2</t>
   </si>
   <si>
     <t>0flCG7</t>
@@ -1728,14 +1698,6 @@
     <t>圣埃克絮佩里-人类的大地.epub</t>
   </si>
   <si>
-    <t>2023/3/26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023/4/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>郁达夫-小说全集.epub</t>
   </si>
   <si>
@@ -1753,10 +1715,6 @@
   </si>
   <si>
     <t>f7qybX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023/4/12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1823,9 +1781,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胡适-红楼梦考证.epub</t>
-  </si>
-  <si>
     <t>格雷格·伊根-意识上传中.epub</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1940,14 +1895,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>书剑恩仇录（旧版）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碧血剑（旧版）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>老子（中华书局版）.epub</t>
   </si>
   <si>
@@ -2037,9 +1984,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿瑟·克拉克科幻短篇全集.epub</t>
-  </si>
-  <si>
     <t>古典</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2103,7 +2047,345 @@
     <t>抗美援朝战争史.epub</t>
   </si>
   <si>
+    <t>Carl Sagan - Contact.epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书剑恩仇录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/3/26（旧版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧血剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/4/1（旧版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射雕英雄传</t>
+  </si>
+  <si>
+    <t>神雕侠侣</t>
+  </si>
+  <si>
+    <t>笑傲江湖</t>
+  </si>
+  <si>
+    <t>雪山飞狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024/1/16（旧版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/10/10（旧版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/5/22（旧版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/12/22（旧版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sv2l1Va</t>
+  </si>
+  <si>
+    <t>2024/1/23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>文革史（北大马会）.epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文化大革命：人民的历史1962-1976.epub</t>
+  </si>
+  <si>
+    <t>时间地图：大历史，130亿年前至今.epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱鎔基傳.epub</t>
+  </si>
+  <si>
+    <t>魏格纳-海陆的起源.epub</t>
+  </si>
+  <si>
+    <t>蒋经国传：台湾现代化的推手.mobi</t>
+  </si>
+  <si>
+    <t>虞云国-南渡君臣：宋高宗及其时代.epub</t>
+  </si>
+  <si>
+    <t>傅高義-鄧小平時代</t>
+  </si>
+  <si>
+    <t>资治通鉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇评精注资治通鉴.epub</t>
+  </si>
+  <si>
+    <t>资治通鉴二十讲.epub</t>
+  </si>
+  <si>
+    <t>资治通鉴通识</t>
+  </si>
+  <si>
+    <t>许寿裳-鲁迅传.epub</t>
+  </si>
+  <si>
+    <t>近距离看美国1：历史深处的忧虑.epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近距离看美国2：总统是靠不住的.epub</t>
+  </si>
+  <si>
+    <t>近距离看美国3：我也有一个梦想.epub</t>
+  </si>
+  <si>
+    <t>近距离看美国4：如彗星划过夜空.epub</t>
+  </si>
+  <si>
+    <t>2022/12/16
+2024/2/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天涯flp713-你所不知道的冰冷的经济真相</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读书辑录.epub</t>
+  </si>
+  <si>
+    <t>读书辑录之金融经济.epub</t>
+  </si>
+  <si>
+    <t>读书辑录之网海拾遗.epub</t>
+  </si>
+  <si>
+    <t>古文观止笺.epub</t>
+  </si>
+  <si>
+    <t>科幻短篇辑.epub</t>
+  </si>
+  <si>
+    <t>印象文集.epub</t>
+  </si>
+  <si>
+    <t>2022/12/4
+2024/2/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024/2/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁由之-百年五牛图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坂本龙马.epub</t>
+  </si>
+  <si>
+    <t>龙马史.epub</t>
+  </si>
+  <si>
+    <t>南北朝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南北朝那些事儿（全4册）.epub</t>
+  </si>
+  <si>
+    <t>中国从此走向大唐：南北朝的遗产.epub</t>
+  </si>
+  <si>
+    <t>2024/2/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/4/12
+2024/2/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/5/23
+2023/3/28
+2024/2/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痴婆子传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉蒲团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵以诈立：我读《孙子》.epub</t>
+  </si>
+  <si>
+    <t>托马斯·曼-威尼斯之死.epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陀氏-白痴（荣如德）.epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陀氏-白痴（臧仲伦）.epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光荣与梦想：1932-1972年美国社会实录（全4册）.epub</t>
+  </si>
+  <si>
+    <t>中国是部金融史1</t>
+  </si>
+  <si>
+    <t>刘鹗-老残游记.epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女皇保卫战.epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情色搜神记.epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张旭华-九品中正制研究.epub</t>
+  </si>
+  <si>
+    <t>马克思-路易·波拿巴的雾月十八日.epub</t>
+  </si>
+  <si>
+    <t>汤显祖-紫箫记.epub</t>
+  </si>
+  <si>
+    <t>三国魏晋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原百代-武则天</t>
+  </si>
+  <si>
+    <t>2024/3/17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柯劭忞-新元（全十册）</t>
+  </si>
+  <si>
+    <t>二十六史（完本精校大全集）.epub</t>
+  </si>
+  <si>
+    <t>顾颉刚-中国史学入门</t>
+  </si>
+  <si>
+    <t>毛润之传（全六卷）.epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光环（全四册）.epub</t>
+  </si>
+  <si>
+    <t>寒门再难出贵子.epub</t>
+  </si>
+  <si>
+    <t>浩瀚大洋是赌场：细说日本海军史（全3册）.epub</t>
+  </si>
+  <si>
+    <t>红太阳的陨落：千秋功罪毛泽东.pdf</t>
+  </si>
+  <si>
+    <t>毛泽东私人医生回忆录.epub</t>
+  </si>
+  <si>
+    <t>张海帆-五大贼王（全七册）.epub</t>
+  </si>
+  <si>
+    <t>李幺傻-暗访十年（全五册）.epub</t>
+  </si>
+  <si>
+    <t>正面抗日战场：我的家在松花江上.epub</t>
+  </si>
+  <si>
+    <t>方北辰-诸葛亮传.epub</t>
+  </si>
+  <si>
+    <t>阿瑟·克拉克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾萨克·阿西莫夫套装（银河帝国1-15+神们自己+永恒的终结）共17册.epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿西莫夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安迪·威尔-火星救援.epub</t>
+  </si>
+  <si>
+    <t>安迪·威尔-挽救计划.epub</t>
+  </si>
+  <si>
+    <t>安迪·威尔-月球城市.epub</t>
+  </si>
+  <si>
+    <t>一千零一夜（哈佛百年经典）.epub</t>
+  </si>
+  <si>
+    <t>左传（中华书局文白对照）.epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊召政-张居正（全4册）.epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界顶级科普（宇宙的起源+基因之河+人类的起源+宇宙的最后三分钟）.epub</t>
+  </si>
+  <si>
+    <t>刘忆江-袁世凯评传（全二册）</t>
+  </si>
+  <si>
+    <t>[1987]Norwegian Wood.epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛弃疾词选.epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛弃疾传·辛稼轩年谱.zip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稼轩词编年笺注.zip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2149,7 +2431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2209,13 +2491,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2273,9 +2581,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2287,6 +2592,51 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2301,6 +2651,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2309,13 +2674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2612,10 +2971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2634,7 +2993,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
@@ -2646,10 +3005,10 @@
     <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D2" s="9">
         <v>44986</v>
@@ -2659,7 +3018,7 @@
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="9">
@@ -2670,7 +3029,7 @@
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="9">
@@ -2681,21 +3040,25 @@
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>576</v>
+      </c>
+      <c r="C5" t="s">
+        <v>595</v>
+      </c>
       <c r="D5" s="9">
         <v>45302</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D6" s="9">
         <v>44834</v>
@@ -2705,22 +3068,22 @@
     <row r="7" spans="1:5" ht="27">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D7" s="9">
         <v>44892</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="9">
@@ -2734,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="4"/>
@@ -2742,10 +3105,10 @@
     <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D10" s="9">
         <v>44834</v>
@@ -2755,7 +3118,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="9">
@@ -2766,10 +3129,10 @@
     <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="4"/>
@@ -2784,10 +3147,10 @@
     <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D14" s="9">
         <v>44834</v>
@@ -2800,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="4"/>
@@ -2811,7 +3174,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="5" t="s">
@@ -2824,7 +3187,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="4"/>
@@ -2832,10 +3195,10 @@
     <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D18" s="9">
         <v>44834</v>
@@ -2845,10 +3208,10 @@
     <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D19" s="9">
         <v>44834</v>
@@ -2861,7 +3224,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="4"/>
@@ -2869,10 +3232,10 @@
     <row r="21" spans="1:5">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="C21" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="D21" s="9">
         <v>44992</v>
@@ -2882,10 +3245,10 @@
     <row r="22" spans="1:5">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D22" s="9">
         <v>44834</v>
@@ -2898,7 +3261,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="4"/>
@@ -2913,10 +3276,10 @@
     <row r="25" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="4"/>
@@ -2948,7 +3311,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="4"/>
@@ -2959,11 +3322,11 @@
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="4" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2972,20 +3335,20 @@
         <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="4" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D32" s="9">
         <v>44966</v>
@@ -2995,10 +3358,10 @@
     <row r="33" spans="1:5">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D33" s="9">
         <v>44957</v>
@@ -3008,10 +3371,10 @@
     <row r="34" spans="1:5">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D34" s="9">
         <v>44834</v>
@@ -3021,10 +3384,10 @@
     <row r="35" spans="1:5">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="D35" s="9">
         <v>44992</v>
@@ -3037,7 +3400,7 @@
         <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="4"/>
@@ -3045,20 +3408,49 @@
     <row r="37" spans="1:5">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>640</v>
+      </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="D38" s="9">
+        <v>45341</v>
+      </c>
       <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="9">
+        <v>45341</v>
+      </c>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3067,13 +3459,139 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3092,7 +3610,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
@@ -3101,703 +3619,1027 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27">
-      <c r="A2" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>407</v>
-      </c>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="23" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="27"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="27">
+      <c r="A3" s="41" t="s">
+        <v>266</v>
+      </c>
       <c r="B3" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="22" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="41"/>
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="27"/>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="24" t="s">
-        <v>261</v>
-      </c>
+      <c r="A5" s="41"/>
       <c r="B5" s="1" t="s">
-        <v>262</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D5" s="9">
+        <v>401</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D6" s="9">
         <v>44926</v>
       </c>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="26"/>
-      <c r="B6" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="D6" s="1"/>
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>273</v>
-      </c>
+      <c r="A7" s="40"/>
       <c r="B7" s="1" t="s">
-        <v>302</v>
+        <v>257</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D7" s="9">
+        <v>403</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D8" s="9">
         <v>44945</v>
       </c>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="D8" s="9">
-        <v>45174</v>
-      </c>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="25"/>
-      <c r="B9" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D9" s="1"/>
+      <c r="A9" s="44" t="s">
+        <v>647</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="25"/>
-      <c r="B10" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D10" s="9">
-        <v>44935</v>
-      </c>
+      <c r="A10" s="45"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="25"/>
-      <c r="B11" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="D11" s="1"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="25"/>
-      <c r="B12" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="9">
-        <v>40725</v>
-      </c>
+      <c r="A12" s="45"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="25"/>
-      <c r="B13" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D13" s="1"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="25"/>
-      <c r="B14" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="9">
-        <v>44750</v>
-      </c>
+      <c r="A14" s="46"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="25"/>
+      <c r="A15" s="38" t="s">
+        <v>627</v>
+      </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="26"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>419</v>
-      </c>
+        <v>628</v>
+      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="9">
-        <v>44933</v>
+        <v>45335</v>
       </c>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A17" s="39"/>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="9">
-        <v>45074</v>
-      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="27"/>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A18" s="39"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="9">
-        <v>45260</v>
-      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="27"/>
-      <c r="B19" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A19" s="39"/>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="27"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>629</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="9">
+        <v>45335</v>
+      </c>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="27"/>
-      <c r="B21" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A21" s="42" t="s">
+        <v>648</v>
+      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="27"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>649</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="11"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9">
+        <v>45359</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D23" s="1"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="25"/>
-      <c r="B24" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D24" s="9">
-        <v>44935</v>
-      </c>
+      <c r="A24" s="32"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="25"/>
-      <c r="B25" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D25" s="9">
-        <v>44966</v>
-      </c>
+      <c r="A25" s="32"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="25"/>
-      <c r="B26" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D26" s="9">
-        <v>44834</v>
-      </c>
+      <c r="A26" s="32"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="26"/>
-      <c r="B27" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D27" s="9">
-        <v>44966</v>
-      </c>
+      <c r="A27" s="32"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="31" t="s">
-        <v>596</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D28" s="9">
-        <v>44834</v>
-      </c>
+      <c r="A28" s="32"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="32"/>
       <c r="B29" s="1" t="s">
-        <v>597</v>
+        <v>651</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="9">
-        <v>45205</v>
-      </c>
-      <c r="E29" s="9">
-        <v>45205</v>
-      </c>
+        <v>45380</v>
+      </c>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="33"/>
+      <c r="A30" s="38" t="s">
+        <v>273</v>
+      </c>
       <c r="B30" s="1" t="s">
-        <v>598</v>
+        <v>542</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="9">
-        <v>45305</v>
+        <v>45174</v>
       </c>
       <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="15"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="1" t="s">
-        <v>300</v>
+        <v>543</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D31" s="9">
-        <v>44945</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="D31" s="1"/>
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="7"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="1" t="s">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="D32" s="9">
-        <v>44834</v>
+        <v>44935</v>
       </c>
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="7"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D33" s="1"/>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="13"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="1" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D34" s="9">
-        <v>44835</v>
-      </c>
-      <c r="E34" s="11"/>
+        <v>408</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="9">
+        <v>40725</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="7"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="1" t="s">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D35" s="9">
-        <v>44834</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="D35" s="1"/>
       <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="7"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="11"/>
+      <c r="E36" s="9">
+        <v>44750</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="7"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="11"/>
+      <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="1"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="1" t="s">
-        <v>24</v>
+        <v>272</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D38" s="1"/>
+        <v>411</v>
+      </c>
+      <c r="D38" s="9">
+        <v>44933</v>
+      </c>
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="1"/>
+      <c r="A39" s="41" t="s">
+        <v>17</v>
+      </c>
       <c r="B39" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D39" s="9">
-        <v>44834</v>
-      </c>
-      <c r="E39" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="9">
+        <v>45074</v>
+      </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="1"/>
+      <c r="A40" s="41"/>
       <c r="B40" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="D40" s="9">
-        <v>44935</v>
-      </c>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="9">
+        <v>45260</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="40.5">
+      <c r="A41" s="41"/>
       <c r="B41" s="1" t="s">
-        <v>543</v>
+        <v>20</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9">
-        <v>45128</v>
+      <c r="D41" s="9">
+        <v>44704</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="1"/>
+      <c r="A42" s="41"/>
       <c r="B42" s="1" t="s">
-        <v>517</v>
+        <v>21</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="9">
-        <v>45074</v>
-      </c>
-      <c r="E42" s="11"/>
+        <v>44707</v>
+      </c>
+      <c r="E42" s="9">
+        <v>45013</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="1"/>
+      <c r="A43" s="41"/>
       <c r="B43" s="1" t="s">
-        <v>518</v>
+        <v>22</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="9">
-        <v>45074</v>
-      </c>
+      <c r="D43" s="1"/>
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="1"/>
+      <c r="A44" s="41"/>
       <c r="B44" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D44" s="9">
-        <v>44976</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="1"/>
+      <c r="A45" s="38" t="s">
+        <v>605</v>
+      </c>
       <c r="B45" s="1" t="s">
-        <v>150</v>
+        <v>606</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="9">
-        <v>44834</v>
+        <v>45292</v>
       </c>
       <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="1"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="1" t="s">
-        <v>155</v>
+        <v>607</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="9">
-        <v>44834</v>
+        <v>45312</v>
       </c>
       <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="1"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="1" t="s">
-        <v>286</v>
+        <v>608</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="9">
-        <v>44937</v>
-      </c>
-      <c r="E47" s="11"/>
+        <v>45312</v>
+      </c>
+      <c r="E47" s="9">
+        <v>45321</v>
+      </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1" t="s">
-        <v>287</v>
-      </c>
+      <c r="A48" s="39"/>
+      <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="9">
-        <v>44937</v>
-      </c>
+      <c r="D48" s="1"/>
       <c r="E48" s="11"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1" t="s">
-        <v>288</v>
-      </c>
+      <c r="A49" s="40"/>
+      <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="9">
-        <v>44937</v>
-      </c>
+      <c r="D49" s="1"/>
       <c r="E49" s="11"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1" t="s">
-        <v>289</v>
-      </c>
+      <c r="A50" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="9">
-        <v>44937</v>
-      </c>
+      <c r="D50" s="1"/>
       <c r="E50" s="11"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="1"/>
+      <c r="A51" s="39"/>
       <c r="B51" s="1" t="s">
-        <v>290</v>
+        <v>639</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="9">
-        <v>44937</v>
+        <v>45341</v>
       </c>
       <c r="E51" s="11"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="1"/>
+      <c r="A52" s="39"/>
       <c r="B52" s="1" t="s">
-        <v>25</v>
+        <v>657</v>
       </c>
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="D52" s="9">
+        <v>45389</v>
+      </c>
       <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>412</v>
+      </c>
       <c r="D53" s="1"/>
       <c r="E53" s="11"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>413</v>
+      </c>
       <c r="D54" s="9">
-        <v>44834</v>
+        <v>44935</v>
       </c>
       <c r="E54" s="11"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="A55" s="39"/>
+      <c r="B55" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>414</v>
+      </c>
       <c r="D55" s="9">
-        <v>44835</v>
+        <v>44966</v>
       </c>
       <c r="E55" s="11"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="1"/>
+      <c r="A56" s="39"/>
       <c r="B56" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C56" s="1"/>
+        <v>325</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>415</v>
+      </c>
       <c r="D56" s="9">
         <v>44834</v>
       </c>
       <c r="E56" s="11"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="1"/>
+      <c r="A57" s="40"/>
       <c r="B57" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="C57" s="1"/>
+        <v>323</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>416</v>
+      </c>
       <c r="D57" s="9">
-        <v>45218</v>
+        <v>44966</v>
       </c>
       <c r="E57" s="11"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="1"/>
+      <c r="A58" s="38" t="s">
+        <v>580</v>
+      </c>
       <c r="B58" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+        <v>167</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D58" s="9">
+        <v>44834</v>
+      </c>
       <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="1"/>
+      <c r="A59" s="39"/>
       <c r="B59" s="1" t="s">
-        <v>26</v>
+        <v>581</v>
       </c>
       <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="11"/>
+      <c r="D59" s="9">
+        <v>45205</v>
+      </c>
+      <c r="E59" s="9">
+        <v>45205</v>
+      </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="1"/>
+      <c r="A60" s="39"/>
       <c r="B60" s="1" t="s">
-        <v>27</v>
+        <v>598</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="9">
-        <v>44834</v>
-      </c>
-      <c r="E60" s="11"/>
+        <v>45318</v>
+      </c>
+      <c r="E60" s="9"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="1"/>
+      <c r="A61" s="40"/>
       <c r="B61" s="1" t="s">
-        <v>157</v>
+        <v>597</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="9">
-        <v>44834</v>
+        <v>45305</v>
       </c>
       <c r="E61" s="11"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="1"/>
+      <c r="A62" s="15"/>
       <c r="B62" s="1" t="s">
-        <v>201</v>
+        <v>662</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="9">
+        <v>45389</v>
+      </c>
+      <c r="E62" s="11"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="7"/>
+      <c r="B63" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D63" s="9">
+        <v>44834</v>
+      </c>
+      <c r="E63" s="11"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="7"/>
+      <c r="B64" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E64" s="11"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="13"/>
+      <c r="C65" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D65" s="9">
+        <v>44835</v>
+      </c>
+      <c r="E65" s="11"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="7"/>
+      <c r="B66" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D66" s="9">
+        <v>44834</v>
+      </c>
+      <c r="E66" s="11"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="7"/>
+      <c r="B67" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="11"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="7"/>
+      <c r="B68" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9">
+        <v>45387</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="11"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D70" s="9">
+        <v>44834</v>
+      </c>
+      <c r="E70" s="11"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D71" s="9">
         <v>44935</v>
       </c>
-      <c r="E62" s="11"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="B63" s="1" t="s">
+      <c r="E71" s="11"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="9">
+        <v>45074</v>
+      </c>
+      <c r="E73" s="11"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="9">
+        <v>45074</v>
+      </c>
+      <c r="E74" s="11"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D75" s="9">
+        <v>44976</v>
+      </c>
+      <c r="E75" s="11"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="9">
+        <v>44834</v>
+      </c>
+      <c r="E76" s="11"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="9">
+        <v>44834</v>
+      </c>
+      <c r="E77" s="11"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="9">
+        <v>44937</v>
+      </c>
+      <c r="E78" s="11"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="9">
+        <v>44937</v>
+      </c>
+      <c r="E79" s="11"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="9">
+        <v>44937</v>
+      </c>
+      <c r="E80" s="11"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C63" s="19"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="9">
+        <v>44937</v>
+      </c>
+      <c r="E81" s="11"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="9">
+        <v>44937</v>
+      </c>
+      <c r="E82" s="11"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="11"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="11"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="9">
+        <v>44834</v>
+      </c>
+      <c r="E85" s="11"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="9">
+        <v>44835</v>
+      </c>
+      <c r="E86" s="11"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="9">
+        <v>44834</v>
+      </c>
+      <c r="E87" s="11"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="9">
+        <v>45218</v>
+      </c>
+      <c r="E88" s="11"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="11"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="11"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="9">
+        <v>44834</v>
+      </c>
+      <c r="E91" s="11"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="9">
+        <v>44834</v>
+      </c>
+      <c r="E92" s="11"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="9">
+        <v>44935</v>
+      </c>
+      <c r="E93" s="11"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="11"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="11"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="9">
+        <v>45318</v>
+      </c>
+      <c r="E96" s="11"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="9">
+        <v>45345</v>
+      </c>
+      <c r="E97" s="11"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="B98" t="s">
+        <v>652</v>
+      </c>
+      <c r="D98" s="33">
+        <v>45380</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A16"/>
+  <mergeCells count="10">
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A50:A57"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A9:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3807,10 +4649,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3829,7 +4671,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
@@ -3839,27 +4681,27 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="41" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="27"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="1" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="27"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
@@ -3868,7 +4710,7 @@
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="27"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
@@ -3877,7 +4719,7 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3888,7 +4730,7 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="27"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
@@ -3897,7 +4739,7 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="27"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
@@ -3906,7 +4748,7 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="27"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
@@ -3915,7 +4757,7 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="27"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
@@ -3924,18 +4766,18 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="27"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="1" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="27"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="1" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="9">
@@ -3944,11 +4786,11 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="24" t="s">
-        <v>236</v>
+      <c r="A13" s="38" t="s">
+        <v>231</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="9">
@@ -3957,9 +4799,9 @@
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="25"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="9">
@@ -3968,9 +4810,9 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="25"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="9">
@@ -3979,9 +4821,9 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="25"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="9">
@@ -3990,9 +4832,9 @@
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="25"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="9">
@@ -4001,9 +4843,9 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="26"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="9">
@@ -4012,8 +4854,8 @@
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="24" t="s">
-        <v>320</v>
+      <c r="A19" s="38" t="s">
+        <v>314</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4021,9 +4863,9 @@
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="25"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="1" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="9">
@@ -4032,9 +4874,9 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="25"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="9">
@@ -4043,40 +4885,42 @@
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="26"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="1" t="s">
-        <v>322</v>
+        <v>646</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="9">
+        <v>45353</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="40"/>
+      <c r="B23" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="9">
         <v>44966</v>
       </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="1"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="1" t="s">
-        <v>163</v>
+        <v>635</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="9">
-        <v>44834</v>
+        <v>45339</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>341</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -4085,18 +4929,18 @@
     <row r="26" spans="1:5">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>553</v>
+        <v>161</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="9">
-        <v>45154</v>
+        <v>44834</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -4105,16 +4949,18 @@
     <row r="28" spans="1:5">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>212</v>
+        <v>538</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="9">
+        <v>45154</v>
+      </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4123,82 +4969,78 @@
     <row r="30" spans="1:5">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="9">
-        <v>44834</v>
-      </c>
+      <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>547</v>
+        <v>39</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="9">
-        <v>45145</v>
-      </c>
+      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>531</v>
+        <v>209</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="9">
+        <v>44834</v>
+      </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="9">
-        <v>45103</v>
+        <v>45145</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1"/>
-      <c r="B34" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="9">
-        <v>44945</v>
-      </c>
+      <c r="B34" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>202</v>
+        <v>515</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="9">
-        <v>44834</v>
+        <v>45103</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C36" s="1"/>
+      <c r="B36" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C36" s="14"/>
       <c r="D36" s="9">
-        <v>44928</v>
+        <v>44945</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="9">
@@ -4206,9 +5048,31 @@
       </c>
       <c r="E37" s="1"/>
     </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="9">
+        <v>44928</v>
+      </c>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="9">
+        <v>45391</v>
+      </c>
+      <c r="E39" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A19:A23"/>
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A13:A18"/>
@@ -4221,10 +5085,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView topLeftCell="B40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4244,7 +5109,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>10</v>
@@ -4254,171 +5119,175 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="27" t="s">
-        <v>437</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>438</v>
-      </c>
+      <c r="A2" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="11"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="27"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>439</v>
-      </c>
-      <c r="D3" s="11"/>
+        <v>658</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="9">
+        <v>45389</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="27"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C4" t="s">
-        <v>440</v>
-      </c>
-      <c r="D4" s="11"/>
+        <v>659</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="9">
+        <v>45389</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="27"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>441</v>
+        <v>654</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="24" t="s">
-        <v>434</v>
-      </c>
+      <c r="A6" s="41"/>
       <c r="B6" s="1" t="s">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D6" s="9">
-        <v>44834</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="D6" s="11"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="26"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="1" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="27"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>432</v>
+      </c>
       <c r="D8" s="11"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="27"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="1"/>
+      <c r="A9" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D9" s="9">
+        <v>45297</v>
+      </c>
+      <c r="E9" s="9">
+        <v>45321</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="27" t="s">
-        <v>182</v>
-      </c>
+      <c r="A10" s="45"/>
       <c r="B10" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="11"/>
+        <v>180</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D10" s="9">
+        <v>44834</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="27"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>181</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>427</v>
+      </c>
       <c r="D11" s="11"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="27"/>
-      <c r="B12" s="1" t="s">
-        <v>368</v>
-      </c>
+      <c r="A12" s="41"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="11"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>442</v>
-      </c>
+      <c r="A13" s="41"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="11"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
+      <c r="A14" s="41" t="s">
+        <v>179</v>
+      </c>
       <c r="B14" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="11"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>359</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="11"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="9"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="9">
-        <v>44834</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>433</v>
+      </c>
+      <c r="D17" s="11"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="11"/>
@@ -4427,69 +5296,77 @@
     <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>370</v>
+        <v>625</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="11"/>
+      <c r="D19" s="9">
+        <v>45335</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>371</v>
+        <v>626</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="11"/>
+      <c r="D20" s="9">
+        <v>45335</v>
+      </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="11"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="11"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>347</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="11"/>
+      <c r="D23" s="9">
+        <v>44834</v>
+      </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1"/>
-      <c r="B24" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="9">
-        <v>44834</v>
-      </c>
-      <c r="E24" s="9"/>
+      <c r="B24" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>663</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="11"/>
+      <c r="D25" s="9">
+        <v>45390</v>
+      </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="11"/>
       <c r="E26" s="1"/>
@@ -4497,19 +5374,15 @@
     <row r="27" spans="1:5">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" t="s">
-        <v>446</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="C27" s="1"/>
       <c r="D27" s="11"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="11"/>
       <c r="E28" s="1"/>
@@ -4517,7 +5390,7 @@
     <row r="29" spans="1:5">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="11"/>
@@ -4526,7 +5399,7 @@
     <row r="30" spans="1:5">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>359</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="11"/>
@@ -4534,16 +5407,20 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="1"/>
+      <c r="B31" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="9">
+        <v>44834</v>
+      </c>
+      <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="11"/>
       <c r="E32" s="1"/>
@@ -4558,18 +5435,18 @@
     <row r="34" spans="1:5">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="9">
-        <v>44913</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>437</v>
+      </c>
+      <c r="D34" s="11"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>360</v>
+        <v>48</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="11"/>
@@ -4578,27 +5455,27 @@
     <row r="36" spans="1:5">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C36" t="s">
-        <v>443</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C36" s="1"/>
       <c r="D36" s="11"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>51</v>
+        <v>602</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="11"/>
+      <c r="D37" s="9">
+        <v>45318</v>
+      </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>52</v>
+        <v>351</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="11"/>
@@ -4607,65 +5484,61 @@
     <row r="39" spans="1:5">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="11"/>
+      <c r="D39" s="9"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="11"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="9">
-        <v>44834</v>
-      </c>
+      <c r="D41" s="11"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>54</v>
+        <v>253</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="11"/>
+      <c r="D42" s="9">
+        <v>44913</v>
+      </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>542</v>
+        <v>352</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="9">
-        <v>45121</v>
-      </c>
+      <c r="D43" s="11"/>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="1"/>
+        <v>353</v>
+      </c>
+      <c r="C44" t="s">
+        <v>434</v>
+      </c>
       <c r="D44" s="11"/>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>363</v>
+        <v>50</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="11"/>
@@ -4674,17 +5547,17 @@
     <row r="46" spans="1:5">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>589</v>
+        <v>51</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="9">
-        <v>45297</v>
-      </c>
+      <c r="D46" s="11"/>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="C47" s="1"/>
       <c r="D47" s="11"/>
       <c r="E47" s="1"/>
@@ -4692,17 +5565,21 @@
     <row r="48" spans="1:5">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>214</v>
+        <v>674</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="9">
-        <v>44834</v>
-      </c>
-      <c r="E48" s="1"/>
+        <v>45369</v>
+      </c>
+      <c r="E48" s="9">
+        <v>45391</v>
+      </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C49" s="1"/>
       <c r="D49" s="11"/>
       <c r="E49" s="1"/>
@@ -4710,11 +5587,9 @@
     <row r="50" spans="1:5">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C50" t="s">
-        <v>445</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="C50" s="1"/>
       <c r="D50" s="9">
         <v>44834</v>
       </c>
@@ -4723,29 +5598,149 @@
     <row r="51" spans="1:5">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C51" t="s">
-        <v>444</v>
-      </c>
-      <c r="D51" s="9"/>
+        <v>53</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="11"/>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>56</v>
+        <v>529</v>
       </c>
       <c r="C52" s="1"/>
-      <c r="D52" s="11"/>
+      <c r="D52" s="9">
+        <v>45121</v>
+      </c>
       <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="9">
+        <v>45297</v>
+      </c>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="9">
+        <v>44834</v>
+      </c>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D59" s="9">
+        <v>44834</v>
+      </c>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="9">
+        <v>45391</v>
+      </c>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="9">
+        <v>45321</v>
+      </c>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="9">
+        <v>45318</v>
+      </c>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4758,7 +5753,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4777,7 +5772,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
@@ -4787,77 +5782,77 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="28" t="s">
-        <v>447</v>
+      <c r="A2" s="47" t="s">
+        <v>438</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="29"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="1" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C3" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="29"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="1" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C4" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="29"/>
-      <c r="B5" s="20" t="s">
-        <v>457</v>
+      <c r="A5" s="48"/>
+      <c r="B5" s="19" t="s">
+        <v>448</v>
       </c>
       <c r="C5" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="29"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="1" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C6" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="29"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="1" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="30"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="1" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="9">
@@ -4866,11 +5861,11 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="24" t="s">
-        <v>57</v>
+      <c r="A9" s="38" t="s">
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4879,16 +5874,16 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="25"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="26"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="9">
@@ -4899,7 +5894,7 @@
     <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="9">
@@ -4910,7 +5905,7 @@
     <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="9">
@@ -4921,7 +5916,7 @@
     <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="9">
@@ -4932,7 +5927,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="9">
@@ -4943,7 +5938,7 @@
     <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="9"/>
@@ -4952,7 +5947,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="9"/>
@@ -4961,7 +5956,7 @@
     <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="9">
@@ -4972,10 +5967,10 @@
     <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="D19" s="9">
         <v>45006</v>
@@ -4985,7 +5980,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="9"/>
@@ -4994,7 +5989,7 @@
     <row r="21" spans="1:5">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="9"/>
@@ -5003,7 +5998,7 @@
     <row r="22" spans="1:5">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="9">
@@ -5014,7 +6009,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="9">
@@ -5025,7 +6020,7 @@
     <row r="24" spans="1:5">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="9">
@@ -5036,7 +6031,7 @@
     <row r="25" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="9">
@@ -5047,7 +6042,7 @@
     <row r="26" spans="1:5">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -5056,7 +6051,7 @@
     <row r="27" spans="1:5">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -5065,7 +6060,7 @@
     <row r="28" spans="1:5">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -5074,7 +6069,7 @@
     <row r="29" spans="1:5">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -5083,7 +6078,7 @@
     <row r="30" spans="1:5">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="9">
@@ -5094,7 +6089,7 @@
     <row r="31" spans="1:5">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="9"/>
@@ -5119,10 +6114,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5140,7 +6135,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
@@ -5152,7 +6147,7 @@
     <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="9">
@@ -5170,10 +6165,10 @@
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -5190,7 +6185,7 @@
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -5199,7 +6194,7 @@
     <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -5208,10 +6203,10 @@
     <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C8" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="D8" s="9">
         <v>44834</v>
@@ -5221,10 +6216,10 @@
     <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -5232,7 +6227,7 @@
     <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="9">
@@ -5243,193 +6238,200 @@
     <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>164</v>
+        <v>656</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="9">
-        <v>44834</v>
+        <v>45389</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="9">
+        <v>44834</v>
+      </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="9">
-        <v>44839</v>
-      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C14" t="s">
-        <v>449</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="9">
-        <v>44935</v>
+        <v>44839</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>301</v>
+      <c r="B15" s="23" t="s">
+        <v>277</v>
       </c>
       <c r="C15" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D15" s="9">
-        <v>44945</v>
-      </c>
-      <c r="E15" s="9">
-        <v>44951</v>
-      </c>
+        <v>44935</v>
+      </c>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>199</v>
+        <v>610</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="9">
-        <v>44834</v>
+        <v>45326</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>195</v>
+        <v>611</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="9">
-        <v>44834</v>
+        <v>45326</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>612</v>
+      </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="9">
+        <v>45326</v>
+      </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>613</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="9">
+        <v>45326</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>515</v>
+      <c r="B20" s="24" t="s">
+        <v>661</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="9">
-        <v>45066</v>
+        <v>45389</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="B21" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D21" s="9">
+        <v>44945</v>
+      </c>
+      <c r="E21" s="9">
+        <v>44951</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="1"/>
+      <c r="B22" s="24" t="s">
+        <v>645</v>
+      </c>
       <c r="D22" s="9">
-        <v>44834</v>
-      </c>
-      <c r="E22" s="1"/>
+        <v>45346</v>
+      </c>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="9">
+        <v>44834</v>
+      </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>505</v>
+        <v>192</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="9">
-        <v>45028</v>
+        <v>44834</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>200</v>
-      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="9">
-        <v>44834</v>
-      </c>
+      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="9"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>503</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="9">
+        <v>45066</v>
+      </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="9">
-        <v>44834</v>
-      </c>
+      <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="9">
@@ -5440,58 +6442,153 @@
     <row r="30" spans="1:5">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="9"/>
+      <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>210</v>
+        <v>673</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="9">
-        <v>44834</v>
+        <v>45391</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>311</v>
+        <v>493</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="9">
-        <v>44957</v>
+        <v>45028</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="9"/>
+      <c r="D33" s="9">
+        <v>44834</v>
+      </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1"/>
-      <c r="B34" s="1" t="s">
-        <v>173</v>
-      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="9">
+        <v>44834</v>
+      </c>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="9">
+        <v>44834</v>
+      </c>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="9">
+        <v>44834</v>
+      </c>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="9">
+        <v>45318</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="9">
+        <v>44957</v>
+      </c>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="9">
+        <v>45318</v>
+      </c>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5501,10 +6598,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5522,7 +6619,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
@@ -5534,7 +6631,7 @@
     <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5543,7 +6640,7 @@
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5552,10 +6649,10 @@
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="C4" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -5570,7 +6667,7 @@
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="9">
@@ -5581,7 +6678,7 @@
     <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -5590,7 +6687,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -5599,7 +6696,7 @@
     <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -5608,7 +6705,7 @@
     <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="9">
@@ -5619,42 +6716,54 @@
     <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>678</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="9">
+        <v>45393</v>
+      </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1"/>
-      <c r="B12" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="C12" s="14"/>
+      <c r="B12" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="9">
-        <v>44933</v>
+        <v>45393</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>677</v>
+      </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="9">
+        <v>45393</v>
+      </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="9">
+        <v>44933</v>
+      </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5">
@@ -5663,6 +6772,27 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5672,11 +6802,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G203"/>
+  <dimension ref="A1:G228"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5685,7 +6815,7 @@
     <col min="3" max="3" width="35.75" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="6" customWidth="1"/>
     <col min="7" max="7" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5694,13 +6824,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>10</v>
@@ -5709,18 +6839,18 @@
         <v>11</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -5728,8 +6858,8 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="9">
@@ -5739,10 +6869,10 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="1" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="9">
@@ -5752,10 +6882,10 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="1" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="9">
@@ -5765,10 +6895,10 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="9">
@@ -5778,8 +6908,8 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -5787,10 +6917,10 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -5798,10 +6928,10 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -5809,23 +6939,19 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="1" t="s">
-        <v>520</v>
-      </c>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="9">
-        <v>45078</v>
-      </c>
+      <c r="E10" s="9"/>
       <c r="F10" s="4"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -5833,8 +6959,8 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -5842,23 +6968,19 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="1" t="s">
-        <v>340</v>
-      </c>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="9">
-        <v>44976</v>
-      </c>
+      <c r="E13" s="9"/>
       <c r="F13" s="4"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="9">
@@ -5868,8 +6990,8 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -5877,21 +6999,21 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="27">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="5" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="9"/>
@@ -5899,8 +7021,8 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -5908,12 +7030,12 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27" t="s">
-        <v>297</v>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41" t="s">
+        <v>291</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -5921,26 +7043,26 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="4"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="E21" s="9">
         <v>44933</v>
@@ -5949,40 +7071,40 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="4"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27" t="s">
-        <v>298</v>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41" t="s">
+        <v>292</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -5990,10 +7112,10 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="9">
@@ -6003,10 +7125,10 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -6014,10 +7136,10 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -6025,10 +7147,10 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -6036,9 +7158,9 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27" t="s">
-        <v>299</v>
+      <c r="A29" s="41"/>
+      <c r="B29" s="41" t="s">
+        <v>293</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -6047,23 +7169,23 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="9">
         <v>44884</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -6071,12 +7193,12 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27" t="s">
-        <v>335</v>
+      <c r="A32" s="41"/>
+      <c r="B32" s="41" t="s">
+        <v>328</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -6084,25 +7206,25 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="1" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="9">
         <v>45006</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="9">
@@ -6112,25 +7234,25 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="9">
         <v>44884</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="1" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="9"/>
@@ -6138,8 +7260,8 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="9"/>
@@ -6147,12 +7269,12 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="27"/>
-      <c r="B38" s="24" t="s">
-        <v>314</v>
+      <c r="A38" s="41"/>
+      <c r="B38" s="38" t="s">
+        <v>308</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="9">
@@ -6162,10 +7284,10 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="27"/>
-      <c r="B39" s="26"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="40"/>
       <c r="C39" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -6173,12 +7295,12 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="27"/>
-      <c r="B40" s="24" t="s">
-        <v>248</v>
+      <c r="A40" s="41"/>
+      <c r="B40" s="38" t="s">
+        <v>243</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="9">
@@ -6188,10 +7310,10 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="27"/>
-      <c r="B41" s="25"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="9">
@@ -6201,10 +7323,10 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="27"/>
-      <c r="B42" s="25"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="9">
@@ -6214,10 +7336,10 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="27"/>
-      <c r="B43" s="25"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="9">
@@ -6227,10 +7349,10 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="27"/>
-      <c r="B44" s="26"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="9">
@@ -6240,10 +7362,10 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="27"/>
-      <c r="B45" s="31"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="1" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="9">
@@ -6253,10 +7375,10 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="27"/>
-      <c r="B46" s="32"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="45"/>
       <c r="C46" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="9">
@@ -6266,10 +7388,10 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="27"/>
-      <c r="B47" s="32"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="9">
@@ -6279,110 +7401,114 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="27"/>
-      <c r="B48" s="32"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="1" t="s">
-        <v>487</v>
+        <v>641</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="9">
-        <v>44834</v>
-      </c>
-      <c r="F48" s="4"/>
+        <v>45342</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>650</v>
+      </c>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="27"/>
-      <c r="B49" s="32"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="1" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="9">
-        <v>45001</v>
+        <v>44834</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="27"/>
-      <c r="B50" s="32"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="1" t="s">
-        <v>327</v>
+        <v>479</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="9">
-        <v>44966</v>
+        <v>45001</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="27"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="1"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="D51" s="1"/>
-      <c r="E51" s="9"/>
+      <c r="E51" s="9">
+        <v>44966</v>
+      </c>
       <c r="F51" s="4"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="27"/>
-      <c r="B52" s="33"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="45"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="E52" s="9"/>
       <c r="F52" s="4"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" ht="27">
-      <c r="A53" s="27" t="s">
+    <row r="53" spans="1:7">
+      <c r="A53" s="41"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" ht="27">
+      <c r="A54" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="C54" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="9">
+        <v>45064</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="9">
-        <v>45064</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -6390,485 +7516,468 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27" t="s">
-        <v>94</v>
-      </c>
+      <c r="A57" s="41"/>
+      <c r="B57" s="41"/>
       <c r="C57" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="4" t="s">
-        <v>140</v>
-      </c>
+      <c r="F57" s="4"/>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="41" t="s">
+        <v>93</v>
+      </c>
       <c r="C58" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="41"/>
       <c r="C59" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="4"/>
+      <c r="F59" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="41"/>
       <c r="C60" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="4" t="s">
-        <v>142</v>
-      </c>
+      <c r="F60" s="4"/>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="41"/>
       <c r="C61" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="41"/>
       <c r="C62" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="41"/>
       <c r="C63" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="4" t="s">
-        <v>233</v>
+        <v>142</v>
       </c>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="41"/>
       <c r="C64" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="41"/>
       <c r="C65" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="4" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="41"/>
       <c r="C66" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="41"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="27"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="27"/>
-      <c r="B68" s="32"/>
-      <c r="C68" s="1" t="s">
-        <v>577</v>
-      </c>
+      <c r="A68" s="41"/>
+      <c r="B68" s="44" t="s">
+        <v>664</v>
+      </c>
+      <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="9">
-        <v>45296</v>
-      </c>
+      <c r="E68" s="9"/>
       <c r="F68" s="4"/>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="27"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="1" t="s">
-        <v>171</v>
-      </c>
+      <c r="A69" s="41"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="9">
-        <v>44834</v>
-      </c>
+      <c r="E69" s="9"/>
       <c r="F69" s="4"/>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="27"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="A70" s="41"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="9">
-        <v>44834</v>
-      </c>
+      <c r="E70" s="9"/>
       <c r="F70" s="4"/>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="27"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="A71" s="41"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
+      <c r="E71" s="9"/>
       <c r="F71" s="4"/>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="27"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="1" t="s">
-        <v>181</v>
-      </c>
+      <c r="A72" s="41"/>
+      <c r="B72" s="50" t="s">
+        <v>666</v>
+      </c>
+      <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="9">
-        <v>44834</v>
+        <v>45296</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="27"/>
-      <c r="B73" s="32"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="50"/>
       <c r="C73" s="1" t="s">
-        <v>516</v>
+        <v>665</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="9">
-        <v>45073</v>
+        <v>44834</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="27"/>
-      <c r="B74" s="32"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="50"/>
       <c r="C74" s="1" t="s">
-        <v>521</v>
+        <v>164</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="9">
-        <v>45067</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>519</v>
-      </c>
+        <v>44834</v>
+      </c>
+      <c r="F74" s="4"/>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="27"/>
-      <c r="B75" s="32"/>
+      <c r="A75" s="41"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="1" t="s">
-        <v>522</v>
+        <v>104</v>
       </c>
       <c r="D75" s="1"/>
-      <c r="E75" s="9">
-        <v>45084</v>
-      </c>
+      <c r="E75" s="1"/>
       <c r="F75" s="4"/>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="27"/>
-      <c r="B76" s="32"/>
+      <c r="A76" s="41"/>
+      <c r="B76" s="34"/>
       <c r="C76" s="1" t="s">
-        <v>162</v>
+        <v>667</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="9">
-        <v>44834</v>
+        <v>45391</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="27"/>
-      <c r="B77" s="32"/>
+      <c r="A77" s="41"/>
+      <c r="B77" s="34"/>
       <c r="C77" s="1" t="s">
-        <v>591</v>
+        <v>668</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="9">
-        <v>45302</v>
+        <v>45391</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="27"/>
-      <c r="B78" s="32"/>
+      <c r="A78" s="41"/>
+      <c r="B78" s="34"/>
       <c r="C78" s="1" t="s">
-        <v>513</v>
+        <v>669</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="9">
-        <v>45066</v>
+        <v>45391</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="27"/>
-      <c r="B79" s="32"/>
+      <c r="A79" s="41"/>
+      <c r="B79" s="35"/>
       <c r="C79" s="1" t="s">
-        <v>514</v>
+        <v>582</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="9">
-        <v>45066</v>
+        <v>45308</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="27"/>
-      <c r="B80" s="32"/>
+      <c r="A80" s="41"/>
+      <c r="B80" s="35"/>
       <c r="C80" s="1" t="s">
-        <v>379</v>
+        <v>178</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="9">
-        <v>44986</v>
+        <v>44834</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="27"/>
-      <c r="B81" s="32"/>
+      <c r="A81" s="41"/>
+      <c r="B81" s="35"/>
       <c r="C81" s="1" t="s">
-        <v>106</v>
+        <v>504</v>
       </c>
       <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="4" t="s">
-        <v>148</v>
-      </c>
+      <c r="E81" s="9">
+        <v>45073</v>
+      </c>
+      <c r="F81" s="4"/>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="27"/>
-      <c r="B82" s="32"/>
+      <c r="A82" s="41"/>
+      <c r="B82" s="35"/>
       <c r="C82" s="1" t="s">
-        <v>107</v>
+        <v>508</v>
       </c>
       <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="4"/>
+      <c r="E82" s="9">
+        <v>45067</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>507</v>
+      </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="27"/>
-      <c r="B83" s="32"/>
+      <c r="A83" s="41"/>
+      <c r="B83" s="35"/>
       <c r="C83" s="1" t="s">
-        <v>265</v>
+        <v>655</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="9">
-        <v>44834</v>
+        <v>45389</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="27"/>
-      <c r="B84" s="32"/>
+      <c r="A84" s="41"/>
+      <c r="B84" s="35"/>
       <c r="C84" s="1" t="s">
-        <v>108</v>
+        <v>509</v>
       </c>
       <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
+      <c r="E84" s="9">
+        <v>45084</v>
+      </c>
       <c r="F84" s="4"/>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="27"/>
-      <c r="B85" s="32"/>
+      <c r="A85" s="41"/>
+      <c r="B85" s="35"/>
       <c r="C85" s="1" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="4" t="s">
-        <v>149</v>
-      </c>
+      <c r="E85" s="9">
+        <v>44834</v>
+      </c>
+      <c r="F85" s="4"/>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="27"/>
-      <c r="B86" s="32"/>
+      <c r="A86" s="41"/>
+      <c r="B86" s="35"/>
       <c r="C86" s="1" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="4" t="s">
-        <v>573</v>
-      </c>
+      <c r="E86" s="9">
+        <v>45302</v>
+      </c>
+      <c r="F86" s="4"/>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="27"/>
-      <c r="B87" s="32"/>
+      <c r="A87" s="41"/>
+      <c r="B87" s="35"/>
       <c r="C87" s="1" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="9">
-        <v>45061</v>
+        <v>45066</v>
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="27"/>
-      <c r="B88" s="32"/>
+      <c r="A88" s="41"/>
+      <c r="B88" s="35"/>
       <c r="C88" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="9">
-        <v>45061</v>
+        <v>45066</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="27"/>
-      <c r="B89" s="32"/>
+      <c r="A89" s="41"/>
+      <c r="B89" s="35"/>
       <c r="C89" s="1" t="s">
-        <v>510</v>
+        <v>371</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="9">
-        <v>45064</v>
+        <v>44986</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="27"/>
-      <c r="B90" s="32"/>
+      <c r="A90" s="41"/>
+      <c r="B90" s="35"/>
       <c r="C90" s="1" t="s">
-        <v>373</v>
+        <v>105</v>
       </c>
       <c r="D90" s="1"/>
-      <c r="E90" s="9">
-        <v>44986</v>
-      </c>
-      <c r="F90" s="4"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="27"/>
-      <c r="B91" s="32"/>
+      <c r="A91" s="41"/>
+      <c r="B91" s="35"/>
       <c r="C91" s="1" t="s">
-        <v>374</v>
+        <v>106</v>
       </c>
       <c r="D91" s="1"/>
-      <c r="E91" s="9">
-        <v>44986</v>
-      </c>
+      <c r="E91" s="1"/>
       <c r="F91" s="4"/>
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="27"/>
-      <c r="B92" s="32"/>
+      <c r="A92" s="41"/>
+      <c r="B92" s="35"/>
       <c r="C92" s="1" t="s">
-        <v>375</v>
+        <v>259</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="9">
-        <v>44986</v>
+        <v>44834</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="27"/>
-      <c r="B93" s="32"/>
-      <c r="C93" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D93" s="1"/>
-      <c r="E93" s="9">
-        <v>44927</v>
-      </c>
+      <c r="A93" s="41"/>
+      <c r="B93" s="35"/>
       <c r="F93" s="4"/>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="27"/>
-      <c r="B94" s="33"/>
+      <c r="A94" s="41"/>
+      <c r="B94" s="35"/>
       <c r="C94" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -6876,184 +7985,190 @@
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="B95" s="27" t="s">
-        <v>111</v>
-      </c>
+      <c r="A95" s="41"/>
+      <c r="B95" s="35"/>
       <c r="C95" s="1" t="s">
-        <v>264</v>
+        <v>108</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="4" t="s">
-        <v>481</v>
+        <v>147</v>
       </c>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" ht="27">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27"/>
+    <row r="96" spans="1:7">
+      <c r="A96" s="41"/>
+      <c r="B96" s="35"/>
       <c r="C96" s="1" t="s">
-        <v>112</v>
+        <v>557</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="5" t="s">
-        <v>470</v>
+      <c r="F96" s="4" t="s">
+        <v>558</v>
       </c>
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="27"/>
-      <c r="B97" s="27"/>
+      <c r="A97" s="41"/>
+      <c r="B97" s="35"/>
       <c r="C97" s="1" t="s">
-        <v>113</v>
+        <v>497</v>
       </c>
       <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
+      <c r="E97" s="9">
+        <v>45061</v>
+      </c>
       <c r="F97" s="4"/>
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="27"/>
-      <c r="B98" s="8"/>
+      <c r="A98" s="41"/>
+      <c r="B98" s="35"/>
       <c r="C98" s="1" t="s">
-        <v>198</v>
+        <v>496</v>
       </c>
       <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
+      <c r="E98" s="9">
+        <v>45061</v>
+      </c>
       <c r="F98" s="4"/>
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="27"/>
-      <c r="B99" s="24"/>
+      <c r="A99" s="41"/>
+      <c r="B99" s="35"/>
       <c r="C99" s="1" t="s">
-        <v>174</v>
+        <v>498</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="9">
-        <v>44834</v>
+        <v>45064</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="27"/>
-      <c r="B100" s="25"/>
+      <c r="A100" s="41"/>
+      <c r="B100" s="35"/>
       <c r="C100" s="1" t="s">
-        <v>175</v>
+        <v>365</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="9">
-        <v>44834</v>
+        <v>44986</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="27"/>
-      <c r="B101" s="25"/>
+      <c r="A101" s="41"/>
+      <c r="B101" s="35"/>
       <c r="C101" s="1" t="s">
-        <v>176</v>
+        <v>366</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="9">
-        <v>44834</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>546</v>
-      </c>
+        <v>44986</v>
+      </c>
+      <c r="F101" s="4"/>
       <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="27"/>
-      <c r="B102" s="25"/>
+      <c r="A102" s="41"/>
+      <c r="B102" s="35"/>
       <c r="C102" s="1" t="s">
-        <v>177</v>
+        <v>367</v>
       </c>
       <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
+      <c r="E102" s="9">
+        <v>44986</v>
+      </c>
       <c r="F102" s="4"/>
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="27"/>
-      <c r="B103" s="25"/>
+      <c r="A103" s="41"/>
+      <c r="B103" s="35"/>
       <c r="C103" s="1" t="s">
-        <v>178</v>
+        <v>260</v>
       </c>
       <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
+      <c r="E103" s="9">
+        <v>44927</v>
+      </c>
       <c r="F103" s="4"/>
       <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="27"/>
-      <c r="B104" s="25"/>
+      <c r="A104" s="41"/>
+      <c r="B104" s="36"/>
       <c r="C104" s="1" t="s">
-        <v>333</v>
+        <v>109</v>
       </c>
       <c r="D104" s="1"/>
-      <c r="E104" s="9">
-        <v>44966</v>
-      </c>
+      <c r="E104" s="1"/>
       <c r="F104" s="4"/>
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="27"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="1" t="s">
-        <v>179</v>
-      </c>
+      <c r="A105" s="37"/>
+      <c r="B105" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="4"/>
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="27"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="1"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="45"/>
+      <c r="C106" s="1" t="s">
+        <v>675</v>
+      </c>
       <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
+      <c r="E106" s="9">
+        <v>45392</v>
+      </c>
       <c r="F106" s="4"/>
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="27"/>
-      <c r="B107" s="25"/>
+      <c r="A107" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B107" s="45"/>
       <c r="C107" s="1" t="s">
-        <v>167</v>
+        <v>258</v>
       </c>
       <c r="D107" s="1"/>
-      <c r="E107" s="9">
-        <v>44834</v>
-      </c>
-      <c r="F107" s="4"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="4" t="s">
+        <v>472</v>
+      </c>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="27"/>
-      <c r="B108" s="25"/>
+    <row r="108" spans="1:7" ht="27">
+      <c r="A108" s="41"/>
+      <c r="B108" s="45"/>
       <c r="C108" s="1" t="s">
-        <v>319</v>
+        <v>111</v>
       </c>
       <c r="D108" s="1"/>
-      <c r="E108" s="9">
-        <v>44865</v>
-      </c>
-      <c r="F108" s="4"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="5" t="s">
+        <v>461</v>
+      </c>
       <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="27"/>
-      <c r="B109" s="25"/>
+      <c r="A109" s="41"/>
+      <c r="B109" s="46"/>
       <c r="C109" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -7061,10 +8176,10 @@
       <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="27"/>
-      <c r="B110" s="25"/>
+      <c r="A110" s="41"/>
+      <c r="B110" s="8"/>
       <c r="C110" s="1" t="s">
-        <v>346</v>
+        <v>195</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -7072,10 +8187,10 @@
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="27"/>
-      <c r="B111" s="25"/>
+      <c r="A111" s="41"/>
+      <c r="B111" s="38"/>
       <c r="C111" s="1" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="9">
@@ -7085,10 +8200,10 @@
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="27"/>
-      <c r="B112" s="25"/>
+      <c r="A112" s="41"/>
+      <c r="B112" s="39"/>
       <c r="C112" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="9">
@@ -7098,58 +8213,60 @@
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="27"/>
-      <c r="B113" s="25"/>
+      <c r="A113" s="41"/>
+      <c r="B113" s="39"/>
       <c r="C113" s="1" t="s">
-        <v>306</v>
+        <v>173</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="9">
-        <v>44947</v>
-      </c>
-      <c r="F113" s="4"/>
+        <v>44834</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>533</v>
+      </c>
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="27"/>
-      <c r="B114" s="25"/>
+      <c r="A114" s="41"/>
+      <c r="B114" s="39"/>
       <c r="C114" s="1" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="D114" s="1"/>
-      <c r="E114" s="9">
-        <v>44834</v>
-      </c>
+      <c r="E114" s="1"/>
       <c r="F114" s="4"/>
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="27"/>
-      <c r="B115" s="25"/>
+      <c r="A115" s="41"/>
+      <c r="B115" s="39"/>
       <c r="C115" s="1" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="D115" s="1"/>
-      <c r="E115" s="9"/>
+      <c r="E115" s="1"/>
       <c r="F115" s="4"/>
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="27"/>
-      <c r="B116" s="25"/>
+      <c r="A116" s="41"/>
+      <c r="B116" s="39"/>
       <c r="C116" s="1" t="s">
-        <v>231</v>
+        <v>326</v>
       </c>
       <c r="D116" s="1"/>
-      <c r="E116" s="9"/>
+      <c r="E116" s="9">
+        <v>44966</v>
+      </c>
       <c r="F116" s="4"/>
       <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="27"/>
-      <c r="B117" s="25"/>
+      <c r="A117" s="41"/>
+      <c r="B117" s="39"/>
       <c r="C117" s="1" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -7157,23 +8274,19 @@
       <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="27"/>
-      <c r="B118" s="25"/>
-      <c r="C118" s="1" t="s">
-        <v>307</v>
-      </c>
+      <c r="A118" s="41"/>
+      <c r="B118" s="39"/>
+      <c r="C118" s="1"/>
       <c r="D118" s="1"/>
-      <c r="E118" s="9">
-        <v>44947</v>
-      </c>
+      <c r="E118" s="1"/>
       <c r="F118" s="4"/>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="27"/>
-      <c r="B119" s="25"/>
+      <c r="A119" s="41"/>
+      <c r="B119" s="39"/>
       <c r="C119" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="9">
@@ -7183,270 +8296,260 @@
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="27"/>
-      <c r="B120" s="25"/>
+      <c r="A120" s="41"/>
+      <c r="B120" s="39"/>
       <c r="C120" s="1" t="s">
-        <v>535</v>
+        <v>313</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="9">
-        <v>45104</v>
+        <v>44865</v>
       </c>
       <c r="F120" s="4"/>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="27"/>
-      <c r="B121" s="25"/>
+      <c r="A121" s="41"/>
+      <c r="B121" s="39"/>
       <c r="C121" s="1" t="s">
-        <v>344</v>
+        <v>113</v>
       </c>
       <c r="D121" s="1"/>
-      <c r="E121" s="9">
-        <v>44834</v>
-      </c>
+      <c r="E121" s="1"/>
       <c r="F121" s="4"/>
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="27"/>
-      <c r="B122" s="25"/>
+      <c r="A122" s="41"/>
+      <c r="B122" s="39"/>
       <c r="C122" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D122" s="1"/>
-      <c r="E122" s="9">
-        <v>44982</v>
-      </c>
+      <c r="E122" s="1"/>
       <c r="F122" s="4"/>
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="27"/>
-      <c r="B123" s="25"/>
+      <c r="A123" s="41"/>
+      <c r="B123" s="39"/>
       <c r="C123" s="1" t="s">
-        <v>343</v>
+        <v>200</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="9">
-        <v>44983</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>486</v>
-      </c>
+        <v>44834</v>
+      </c>
+      <c r="F123" s="4"/>
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="27"/>
-      <c r="B124" s="25"/>
+      <c r="A124" s="41"/>
+      <c r="B124" s="39"/>
       <c r="C124" s="1" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
+      <c r="E124" s="9">
+        <v>44834</v>
+      </c>
       <c r="F124" s="4"/>
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="27"/>
-      <c r="B125" s="25"/>
+      <c r="A125" s="41"/>
+      <c r="B125" s="39"/>
       <c r="C125" s="1" t="s">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="9">
-        <v>44835</v>
+        <v>44947</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="27"/>
-      <c r="B126" s="25"/>
+      <c r="A126" s="41"/>
+      <c r="B126" s="39"/>
       <c r="C126" s="1" t="s">
-        <v>293</v>
+        <v>193</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="9">
-        <v>44945</v>
+        <v>44834</v>
       </c>
       <c r="F126" s="4"/>
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="27"/>
-      <c r="B127" s="25"/>
+      <c r="A127" s="41"/>
+      <c r="B127" s="39"/>
       <c r="C127" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D127" s="1"/>
-      <c r="E127" s="9">
-        <v>44834</v>
-      </c>
+      <c r="E127" s="9"/>
       <c r="F127" s="4"/>
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="27"/>
-      <c r="B128" s="25"/>
+      <c r="A128" s="41"/>
+      <c r="B128" s="39"/>
       <c r="C128" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D128" s="1"/>
-      <c r="E128" s="9">
-        <v>44834</v>
-      </c>
+      <c r="E128" s="9"/>
       <c r="F128" s="4"/>
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="27"/>
-      <c r="B129" s="25"/>
+      <c r="A129" s="41"/>
+      <c r="B129" s="39"/>
       <c r="C129" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D129" s="1"/>
-      <c r="E129" s="9">
-        <v>44834</v>
-      </c>
+      <c r="E129" s="1"/>
       <c r="F129" s="4"/>
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="27"/>
-      <c r="B130" s="25"/>
+      <c r="A130" s="41"/>
+      <c r="B130" s="39"/>
       <c r="C130" s="1" t="s">
-        <v>206</v>
+        <v>301</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="9">
-        <v>44834</v>
+        <v>44947</v>
       </c>
       <c r="F130" s="4"/>
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="27"/>
-      <c r="B131" s="25"/>
+      <c r="A131" s="41"/>
+      <c r="B131" s="39"/>
       <c r="C131" s="1" t="s">
-        <v>550</v>
+        <v>168</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="9">
         <v>44834</v>
       </c>
-      <c r="F131" s="18" t="s">
-        <v>342</v>
-      </c>
+      <c r="F131" s="4"/>
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="27"/>
-      <c r="B132" s="25"/>
+      <c r="A132" s="41"/>
+      <c r="B132" s="39"/>
       <c r="C132" s="1" t="s">
-        <v>219</v>
+        <v>522</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="9">
-        <v>44834</v>
+        <v>45104</v>
       </c>
       <c r="F132" s="4"/>
       <c r="G132" s="1"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="27"/>
-      <c r="B133" s="25"/>
+      <c r="A133" s="41"/>
+      <c r="B133" s="39"/>
       <c r="C133" s="1" t="s">
-        <v>115</v>
+        <v>336</v>
       </c>
       <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
+      <c r="E133" s="9">
+        <v>44834</v>
+      </c>
       <c r="F133" s="4"/>
       <c r="G133" s="1"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="27"/>
-      <c r="B134" s="25"/>
+      <c r="A134" s="41"/>
+      <c r="B134" s="39"/>
       <c r="C134" s="1" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="9">
-        <v>44986</v>
+        <v>44982</v>
       </c>
       <c r="F134" s="4"/>
       <c r="G134" s="1"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="27"/>
-      <c r="B135" s="25"/>
+      <c r="A135" s="41"/>
+      <c r="B135" s="39"/>
       <c r="C135" s="1" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="9">
-        <v>44986</v>
-      </c>
-      <c r="F135" s="4"/>
+        <v>44983</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>477</v>
+      </c>
       <c r="G135" s="1"/>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="27"/>
-      <c r="B136" s="25"/>
+      <c r="A136" s="41"/>
+      <c r="B136" s="39"/>
       <c r="C136" s="1" t="s">
-        <v>378</v>
+        <v>211</v>
       </c>
       <c r="D136" s="1"/>
-      <c r="E136" s="9">
-        <v>44986</v>
-      </c>
+      <c r="E136" s="1"/>
       <c r="F136" s="4"/>
       <c r="G136" s="1"/>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="27"/>
-      <c r="B137" s="25"/>
+      <c r="A137" s="41"/>
+      <c r="B137" s="39"/>
       <c r="C137" s="1" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="9">
-        <v>44834</v>
+        <v>44835</v>
       </c>
       <c r="F137" s="4"/>
       <c r="G137" s="1"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="27"/>
-      <c r="B138" s="25"/>
+      <c r="A138" s="41"/>
+      <c r="B138" s="39"/>
       <c r="C138" s="1" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="9">
-        <v>44947</v>
+        <v>44945</v>
       </c>
       <c r="F138" s="4"/>
       <c r="G138" s="1"/>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="27"/>
-      <c r="B139" s="25"/>
+      <c r="A139" s="41"/>
+      <c r="B139" s="39"/>
       <c r="C139" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="9">
-        <v>44835</v>
+        <v>44834</v>
       </c>
       <c r="F139" s="4"/>
       <c r="G139" s="1"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="27"/>
-      <c r="B140" s="25"/>
+      <c r="A140" s="41"/>
+      <c r="B140" s="39"/>
       <c r="C140" s="1" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="9">
@@ -7456,10 +8559,10 @@
       <c r="G140" s="1"/>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="27"/>
-      <c r="B141" s="26"/>
+      <c r="A141" s="41"/>
+      <c r="B141" s="39"/>
       <c r="C141" s="1" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="9">
@@ -7469,49 +8572,51 @@
       <c r="G141" s="1"/>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="B142" s="27" t="s">
-        <v>117</v>
-      </c>
+      <c r="A142" s="41"/>
+      <c r="B142" s="39"/>
       <c r="C142" s="1" t="s">
-        <v>551</v>
+        <v>202</v>
       </c>
       <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="4" t="s">
-        <v>494</v>
-      </c>
+      <c r="E142" s="9">
+        <v>44834</v>
+      </c>
+      <c r="F142" s="4"/>
       <c r="G142" s="1"/>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="27"/>
-      <c r="B143" s="27"/>
+      <c r="A143" s="41"/>
+      <c r="B143" s="39"/>
       <c r="C143" s="1" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="4" t="s">
-        <v>495</v>
+      <c r="E143" s="9">
+        <v>44834</v>
+      </c>
+      <c r="F143" s="18" t="s">
+        <v>334</v>
       </c>
       <c r="G143" s="1"/>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="27"/>
-      <c r="B144" s="27"/>
-      <c r="C144" s="1"/>
+      <c r="A144" s="41"/>
+      <c r="B144" s="39"/>
+      <c r="C144" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
+      <c r="E144" s="9">
+        <v>44834</v>
+      </c>
       <c r="F144" s="4"/>
       <c r="G144" s="1"/>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="27"/>
-      <c r="B145" s="27"/>
+      <c r="A145" s="41"/>
+      <c r="B145" s="39"/>
       <c r="C145" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -7519,791 +8624,1103 @@
       <c r="G145" s="1"/>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="27"/>
-      <c r="B146" s="27"/>
+      <c r="A146" s="41"/>
+      <c r="B146" s="39"/>
       <c r="C146" s="1" t="s">
-        <v>119</v>
+        <v>368</v>
       </c>
       <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
+      <c r="E146" s="9">
+        <v>44986</v>
+      </c>
       <c r="F146" s="4"/>
       <c r="G146" s="1"/>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="27"/>
-      <c r="B147" s="24"/>
+      <c r="A147" s="41"/>
+      <c r="B147" s="39"/>
       <c r="C147" s="1" t="s">
-        <v>120</v>
+        <v>369</v>
       </c>
       <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="11"/>
+      <c r="E147" s="9">
+        <v>44986</v>
+      </c>
+      <c r="F147" s="4"/>
       <c r="G147" s="1"/>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="27"/>
-      <c r="B148" s="25"/>
+      <c r="A148" s="41"/>
+      <c r="B148" s="39"/>
       <c r="C148" s="1" t="s">
-        <v>121</v>
+        <v>370</v>
       </c>
       <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="11"/>
+      <c r="E148" s="9">
+        <v>44986</v>
+      </c>
+      <c r="F148" s="4"/>
       <c r="G148" s="1"/>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="27"/>
-      <c r="B149" s="26"/>
+      <c r="A149" s="41"/>
+      <c r="B149" s="39"/>
       <c r="C149" s="1" t="s">
-        <v>122</v>
+        <v>636</v>
       </c>
       <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="9">
-        <v>44742</v>
-      </c>
+      <c r="E149" s="9">
+        <v>44834</v>
+      </c>
+      <c r="F149" s="4"/>
       <c r="G149" s="1"/>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="B150" s="31"/>
-      <c r="C150" s="1"/>
+      <c r="A150" s="41"/>
+      <c r="B150" s="39"/>
+      <c r="C150" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="D150" s="1"/>
-      <c r="E150" s="9"/>
-      <c r="F150" s="9"/>
+      <c r="E150" s="9">
+        <v>45340</v>
+      </c>
+      <c r="F150" s="4"/>
       <c r="G150" s="1"/>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="25"/>
-      <c r="B151" s="32"/>
+      <c r="A151" s="41"/>
+      <c r="B151" s="39"/>
       <c r="C151" s="1" t="s">
-        <v>548</v>
+        <v>638</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="9">
-        <v>45148</v>
-      </c>
-      <c r="F151" s="9"/>
+        <v>45340</v>
+      </c>
+      <c r="F151" s="4"/>
       <c r="G151" s="1"/>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="25"/>
-      <c r="B152" s="32"/>
-      <c r="C152" s="1" t="s">
-        <v>549</v>
-      </c>
+      <c r="A152" s="41"/>
+      <c r="B152" s="39"/>
+      <c r="C152" s="1"/>
       <c r="D152" s="1"/>
-      <c r="E152" s="9">
-        <v>45084</v>
-      </c>
-      <c r="F152" s="9">
-        <v>45107</v>
-      </c>
+      <c r="E152" s="9"/>
+      <c r="F152" s="4"/>
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="25"/>
-      <c r="B153" s="32"/>
+      <c r="A153" s="41"/>
+      <c r="B153" s="39"/>
       <c r="C153" s="1" t="s">
-        <v>566</v>
+        <v>302</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="9">
-        <v>45275</v>
-      </c>
-      <c r="F153" s="9"/>
+        <v>44947</v>
+      </c>
+      <c r="F153" s="4"/>
       <c r="G153" s="1"/>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="25"/>
-      <c r="B154" s="32"/>
+      <c r="A154" s="41"/>
+      <c r="B154" s="39"/>
       <c r="C154" s="1" t="s">
-        <v>567</v>
+        <v>212</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="9">
-        <v>45275</v>
-      </c>
-      <c r="F154" s="9"/>
+        <v>44835</v>
+      </c>
+      <c r="F154" s="4"/>
       <c r="G154" s="1"/>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="25"/>
-      <c r="B155" s="32"/>
+      <c r="A155" s="41"/>
+      <c r="B155" s="39"/>
       <c r="C155" s="1" t="s">
-        <v>568</v>
+        <v>670</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="9">
-        <v>45275</v>
-      </c>
-      <c r="F155" s="9"/>
+        <v>45391</v>
+      </c>
+      <c r="F155" s="4"/>
       <c r="G155" s="1"/>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="25"/>
-      <c r="B156" s="32"/>
+      <c r="A156" s="41"/>
+      <c r="B156" s="39"/>
       <c r="C156" s="1" t="s">
-        <v>569</v>
+        <v>194</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="9">
-        <v>45275</v>
-      </c>
-      <c r="F156" s="9"/>
+        <v>44834</v>
+      </c>
+      <c r="F156" s="4"/>
       <c r="G156" s="1"/>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="25"/>
-      <c r="B157" s="32"/>
+      <c r="A157" s="41"/>
+      <c r="B157" s="40"/>
       <c r="C157" s="1" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="11"/>
+      <c r="E157" s="9">
+        <v>44834</v>
+      </c>
+      <c r="F157" s="4"/>
       <c r="G157" s="1"/>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="25"/>
-      <c r="B158" s="32"/>
+      <c r="A158" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B158" s="41" t="s">
+        <v>116</v>
+      </c>
       <c r="C158" s="1" t="s">
-        <v>125</v>
+        <v>583</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
-      <c r="F158" s="11"/>
+      <c r="F158" s="4" t="s">
+        <v>584</v>
+      </c>
       <c r="G158" s="1"/>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="25"/>
-      <c r="B159" s="32"/>
+      <c r="A159" s="41"/>
+      <c r="B159" s="41"/>
       <c r="C159" s="1" t="s">
-        <v>126</v>
+        <v>585</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
-      <c r="F159" s="11"/>
+      <c r="F159" s="4" t="s">
+        <v>586</v>
+      </c>
       <c r="G159" s="1"/>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="25"/>
-      <c r="B160" s="32"/>
+      <c r="A160" s="41"/>
+      <c r="B160" s="41"/>
       <c r="C160" s="1" t="s">
-        <v>127</v>
+        <v>587</v>
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
-      <c r="F160" s="11"/>
+      <c r="F160" s="4" t="s">
+        <v>592</v>
+      </c>
       <c r="G160" s="1"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="25"/>
-      <c r="B161" s="32"/>
+      <c r="A161" s="41"/>
+      <c r="B161" s="41"/>
       <c r="C161" s="1" t="s">
-        <v>525</v>
+        <v>590</v>
       </c>
       <c r="D161" s="1"/>
-      <c r="E161" s="9">
-        <v>45095</v>
-      </c>
-      <c r="F161" s="11"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="4" t="s">
+        <v>594</v>
+      </c>
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="25"/>
-      <c r="B162" s="32"/>
+      <c r="A162" s="41"/>
+      <c r="B162" s="41"/>
       <c r="C162" s="1" t="s">
-        <v>128</v>
+        <v>588</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
-      <c r="F162" s="11"/>
+      <c r="F162" s="4" t="s">
+        <v>591</v>
+      </c>
       <c r="G162" s="1"/>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="25"/>
-      <c r="B163" s="32"/>
+      <c r="A163" s="41"/>
+      <c r="B163" s="41"/>
       <c r="C163" s="1" t="s">
-        <v>348</v>
+        <v>589</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
-      <c r="F163" s="11"/>
+      <c r="F163" s="4" t="s">
+        <v>593</v>
+      </c>
       <c r="G163" s="1"/>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="25"/>
-      <c r="B164" s="32"/>
-      <c r="C164" s="1" t="s">
-        <v>534</v>
-      </c>
+      <c r="A164" s="41"/>
+      <c r="B164" s="41"/>
+      <c r="C164" s="1"/>
       <c r="D164" s="1"/>
-      <c r="E164" s="9">
-        <v>45104</v>
-      </c>
-      <c r="F164" s="11"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="4"/>
       <c r="G164" s="1"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="26"/>
-      <c r="B165" s="33"/>
+      <c r="A165" s="41"/>
+      <c r="B165" s="41"/>
       <c r="C165" s="1" t="s">
-        <v>347</v>
+        <v>117</v>
       </c>
       <c r="D165" s="1"/>
-      <c r="E165" s="9">
-        <v>44983</v>
-      </c>
-      <c r="F165" s="11"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="4"/>
       <c r="G165" s="1"/>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="B166" s="31" t="s">
-        <v>578</v>
-      </c>
-      <c r="C166" s="1"/>
+      <c r="A166" s="41"/>
+      <c r="B166" s="41"/>
+      <c r="C166" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="D166" s="1"/>
-      <c r="E166" s="9"/>
-      <c r="F166" s="11"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="4"/>
       <c r="G166" s="1"/>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="32"/>
-      <c r="B167" s="32"/>
+      <c r="A167" s="41"/>
+      <c r="B167" s="38"/>
       <c r="C167" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="D167" t="s">
-        <v>580</v>
-      </c>
-      <c r="E167" s="9">
-        <v>45296</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
       <c r="F167" s="11"/>
       <c r="G167" s="1"/>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="32"/>
-      <c r="B168" s="33"/>
+      <c r="A168" s="41"/>
+      <c r="B168" s="39"/>
       <c r="C168" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D168" t="s">
-        <v>576</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D168" s="1"/>
       <c r="E168" s="1"/>
-      <c r="F168" s="9">
-        <v>45291</v>
-      </c>
+      <c r="F168" s="11"/>
       <c r="G168" s="1"/>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="32"/>
-      <c r="B169" s="32"/>
+      <c r="A169" s="41"/>
+      <c r="B169" s="40"/>
       <c r="C169" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
-      <c r="F169" s="11"/>
+      <c r="F169" s="9">
+        <v>44742</v>
+      </c>
       <c r="G169" s="1"/>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="32"/>
-      <c r="B170" s="32"/>
+      <c r="A170" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B170" s="44"/>
       <c r="C170" s="1"/>
-      <c r="D170" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="E170" s="1"/>
-      <c r="F170" s="11"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
       <c r="G170" s="1"/>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="32"/>
-      <c r="B171" s="32"/>
+      <c r="A171" s="39"/>
+      <c r="B171" s="45"/>
       <c r="C171" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="E171" s="1"/>
-      <c r="F171" s="11"/>
+        <v>535</v>
+      </c>
+      <c r="D171" s="1"/>
+      <c r="E171" s="9">
+        <v>45148</v>
+      </c>
+      <c r="F171" s="9"/>
       <c r="G171" s="1"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="32"/>
-      <c r="B172" s="32"/>
+      <c r="A172" s="39"/>
+      <c r="B172" s="45"/>
       <c r="C172" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E172" s="1"/>
-      <c r="F172" s="11"/>
+        <v>536</v>
+      </c>
+      <c r="D172" s="1"/>
+      <c r="E172" s="9">
+        <v>45084</v>
+      </c>
+      <c r="F172" s="9">
+        <v>45107</v>
+      </c>
       <c r="G172" s="1"/>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="32"/>
-      <c r="B173" s="32"/>
+      <c r="A173" s="39"/>
+      <c r="B173" s="45"/>
       <c r="C173" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="E173" s="1"/>
-      <c r="F173" s="9">
-        <v>45280</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="D173" s="1"/>
+      <c r="E173" s="9">
+        <v>45275</v>
+      </c>
+      <c r="F173" s="9"/>
       <c r="G173" s="1"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="32"/>
-      <c r="B174" s="32"/>
+      <c r="A174" s="39"/>
+      <c r="B174" s="45"/>
       <c r="C174" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="D174" t="s">
-        <v>584</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="D174" s="1"/>
       <c r="E174" s="9">
-        <v>45296</v>
+        <v>45275</v>
       </c>
       <c r="F174" s="9"/>
       <c r="G174" s="1"/>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="32"/>
-      <c r="B175" s="32"/>
+      <c r="A175" s="39"/>
+      <c r="B175" s="45"/>
       <c r="C175" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="E175" s="1"/>
-      <c r="F175" s="11"/>
+        <v>553</v>
+      </c>
+      <c r="D175" s="1"/>
+      <c r="E175" s="9">
+        <v>45275</v>
+      </c>
+      <c r="F175" s="9"/>
       <c r="G175" s="1"/>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="32"/>
-      <c r="B176" s="32"/>
+      <c r="A176" s="39"/>
+      <c r="B176" s="45"/>
       <c r="C176" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="E176" s="1"/>
-      <c r="F176" s="11"/>
+        <v>554</v>
+      </c>
+      <c r="D176" s="1"/>
+      <c r="E176" s="9">
+        <v>45275</v>
+      </c>
+      <c r="F176" s="9"/>
       <c r="G176" s="1"/>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="32"/>
-      <c r="B177" s="32"/>
-      <c r="C177" s="1"/>
+      <c r="A177" s="39"/>
+      <c r="B177" s="45"/>
+      <c r="C177" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="11"/>
       <c r="G177" s="1"/>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="32"/>
-      <c r="B178" s="32"/>
+      <c r="A178" s="39"/>
+      <c r="B178" s="45"/>
       <c r="C178" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="E178" s="9">
-        <v>45296</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
       <c r="F178" s="11"/>
       <c r="G178" s="1"/>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="32"/>
-      <c r="B179" s="32"/>
+      <c r="A179" s="39"/>
+      <c r="B179" s="45"/>
       <c r="C179" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="E179" s="9">
-        <v>45296</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
       <c r="F179" s="11"/>
       <c r="G179" s="1"/>
     </row>
     <row r="180" spans="1:7">
-      <c r="A180" s="32"/>
-      <c r="B180" s="32"/>
+      <c r="A180" s="39"/>
+      <c r="B180" s="45"/>
       <c r="C180" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="E180" s="9">
-        <v>45296</v>
-      </c>
-      <c r="F180" s="9">
-        <v>45297</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="11"/>
       <c r="G180" s="1"/>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="33"/>
-      <c r="B181" s="33"/>
+      <c r="A181" s="39"/>
+      <c r="B181" s="45"/>
       <c r="C181" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D181" t="s">
-        <v>478</v>
-      </c>
-      <c r="E181" s="1"/>
+        <v>512</v>
+      </c>
+      <c r="D181" s="1"/>
+      <c r="E181" s="9">
+        <v>45095</v>
+      </c>
       <c r="F181" s="11"/>
       <c r="G181" s="1"/>
     </row>
     <row r="182" spans="1:7">
-      <c r="A182" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="B182" s="31"/>
+      <c r="A182" s="39"/>
+      <c r="B182" s="45"/>
       <c r="C182" s="1" t="s">
-        <v>336</v>
+        <v>127</v>
       </c>
       <c r="D182" s="1"/>
-      <c r="E182" s="9">
-        <v>44965</v>
-      </c>
+      <c r="E182" s="1"/>
       <c r="F182" s="11"/>
       <c r="G182" s="1"/>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="25"/>
-      <c r="B183" s="32"/>
+      <c r="A183" s="39"/>
+      <c r="B183" s="45"/>
       <c r="C183" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D183" s="1"/>
-      <c r="E183" s="9">
-        <v>44965</v>
-      </c>
-      <c r="F183" s="9">
-        <v>45006</v>
-      </c>
+      <c r="E183" s="1"/>
+      <c r="F183" s="11"/>
       <c r="G183" s="1"/>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" s="25"/>
-      <c r="B184" s="32"/>
+      <c r="A184" s="39"/>
+      <c r="B184" s="45"/>
       <c r="C184" s="1" t="s">
-        <v>338</v>
+        <v>521</v>
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="9">
-        <v>44976</v>
-      </c>
-      <c r="F184" s="9">
-        <v>45024</v>
-      </c>
+        <v>45104</v>
+      </c>
+      <c r="F184" s="11"/>
       <c r="G184" s="1"/>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="26"/>
-      <c r="B185" s="33"/>
+      <c r="A185" s="40"/>
+      <c r="B185" s="46"/>
       <c r="C185" s="1" t="s">
         <v>339</v>
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="9">
-        <v>44965</v>
+        <v>44983</v>
       </c>
       <c r="F185" s="11"/>
       <c r="G185" s="1"/>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="24"/>
-      <c r="B186" s="24"/>
-      <c r="C186" s="1" t="s">
-        <v>559</v>
-      </c>
+      <c r="A186" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="B186" s="44" t="s">
+        <v>562</v>
+      </c>
+      <c r="C186" s="1"/>
       <c r="D186" s="1"/>
-      <c r="E186" s="9">
-        <v>45084</v>
-      </c>
+      <c r="E186" s="9"/>
       <c r="F186" s="11"/>
       <c r="G186" s="1"/>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="25"/>
-      <c r="B187" s="25"/>
+      <c r="A187" s="45"/>
+      <c r="B187" s="45"/>
       <c r="C187" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="D187" s="1"/>
+        <v>563</v>
+      </c>
+      <c r="D187" t="s">
+        <v>564</v>
+      </c>
       <c r="E187" s="9">
-        <v>45195</v>
+        <v>45296</v>
       </c>
       <c r="F187" s="11"/>
       <c r="G187" s="1"/>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="25"/>
-      <c r="B188" s="25"/>
-      <c r="C188" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
+      <c r="A188" s="45"/>
+      <c r="B188" s="45"/>
+      <c r="C188" s="29" t="s">
+        <v>633</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E188" s="30"/>
       <c r="F188" s="9">
-        <v>44819</v>
+        <v>45291</v>
       </c>
       <c r="G188" s="1"/>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="25"/>
-      <c r="B189" s="25"/>
-      <c r="C189" s="1" t="s">
-        <v>137</v>
+      <c r="A189" s="45"/>
+      <c r="B189" s="45"/>
+      <c r="C189" s="29" t="s">
+        <v>634</v>
       </c>
       <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
-      <c r="F189" s="11"/>
+      <c r="E189" s="31"/>
+      <c r="F189" s="9">
+        <v>45337</v>
+      </c>
       <c r="G189" s="1"/>
     </row>
     <row r="190" spans="1:7">
-      <c r="A190" s="25"/>
-      <c r="B190" s="25"/>
-      <c r="C190" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="A190" s="45"/>
+      <c r="B190" s="46"/>
       <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
-      <c r="F190" s="11"/>
       <c r="G190" s="1"/>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="25"/>
-      <c r="B191" s="25"/>
+      <c r="A191" s="45"/>
+      <c r="B191" s="45"/>
       <c r="C191" s="1" t="s">
-        <v>536</v>
+        <v>129</v>
       </c>
       <c r="D191" s="1"/>
-      <c r="E191" s="9">
-        <v>45104</v>
-      </c>
+      <c r="E191" s="1"/>
       <c r="F191" s="11"/>
       <c r="G191" s="1"/>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="25"/>
-      <c r="B192" s="25"/>
-      <c r="C192" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="D192" s="1"/>
-      <c r="E192" s="9">
-        <v>45018</v>
-      </c>
-      <c r="F192" s="9">
-        <v>45032</v>
-      </c>
+      <c r="A192" s="45"/>
+      <c r="B192" s="45"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E192" s="1"/>
+      <c r="F192" s="11"/>
       <c r="G192" s="1"/>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="26"/>
-      <c r="B193" s="26"/>
+      <c r="A193" s="45"/>
+      <c r="B193" s="45"/>
       <c r="C193" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D193" s="1"/>
-      <c r="E193" s="9">
-        <v>44947</v>
-      </c>
-      <c r="F193" s="9">
-        <v>45125</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E193" s="1"/>
+      <c r="F193" s="11"/>
       <c r="G193" s="1"/>
     </row>
-    <row r="194" spans="1:7" ht="42" customHeight="1">
-      <c r="A194" s="21"/>
-      <c r="B194" s="21"/>
+    <row r="194" spans="1:7">
+      <c r="A194" s="45"/>
+      <c r="B194" s="45"/>
       <c r="C194" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="D194" s="1"/>
-      <c r="E194" s="9">
-        <v>45018</v>
-      </c>
-      <c r="F194" s="9">
-        <v>45043</v>
-      </c>
-      <c r="G194" s="20" t="s">
-        <v>506</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E194" s="1"/>
+      <c r="F194" s="11"/>
+      <c r="G194" s="1"/>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="22"/>
-      <c r="B195" s="22"/>
+      <c r="A195" s="45"/>
+      <c r="B195" s="45"/>
       <c r="C195" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="D195" s="1"/>
-      <c r="E195" s="9">
-        <v>44738</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E195" s="1"/>
       <c r="F195" s="9">
-        <v>45057</v>
+        <v>45280</v>
       </c>
       <c r="G195" s="1"/>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="16"/>
-      <c r="B196" s="16"/>
+      <c r="A196" s="45"/>
+      <c r="B196" s="45"/>
       <c r="C196" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D196" s="1"/>
+        <v>567</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>568</v>
+      </c>
       <c r="E196" s="9">
-        <v>44945</v>
-      </c>
-      <c r="F196" s="9">
-        <v>44947</v>
-      </c>
+        <v>45296</v>
+      </c>
+      <c r="F196" s="9"/>
       <c r="G196" s="1"/>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="16"/>
-      <c r="B197" s="16"/>
+      <c r="A197" s="45"/>
+      <c r="B197" s="45"/>
       <c r="C197" s="1" t="s">
-        <v>303</v>
+        <v>642</v>
       </c>
       <c r="D197" s="1"/>
       <c r="E197" s="9">
+        <v>45342</v>
+      </c>
+      <c r="F197" s="9"/>
+      <c r="G197" s="1"/>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="45"/>
+      <c r="B198" s="45"/>
+      <c r="C198" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="E198" s="9">
+        <v>45342</v>
+      </c>
+      <c r="F198" s="9"/>
+      <c r="G198" s="1"/>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="45"/>
+      <c r="B199" s="45"/>
+      <c r="C199" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E199" s="1"/>
+      <c r="F199" s="11"/>
+      <c r="G199" s="1"/>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="45"/>
+      <c r="B200" s="45"/>
+      <c r="C200" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E200" s="1"/>
+      <c r="F200" s="11"/>
+      <c r="G200" s="1"/>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="45"/>
+      <c r="B201" s="45"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="11"/>
+      <c r="G201" s="1"/>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="45"/>
+      <c r="B202" s="45"/>
+      <c r="C202" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E202" s="9">
+        <v>45296</v>
+      </c>
+      <c r="F202" s="11"/>
+      <c r="G202" s="1"/>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="45"/>
+      <c r="B203" s="45"/>
+      <c r="C203" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E203" s="9">
+        <v>45296</v>
+      </c>
+      <c r="F203" s="11"/>
+      <c r="G203" s="1"/>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="45"/>
+      <c r="B204" s="45"/>
+      <c r="C204" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E204" s="9">
+        <v>45296</v>
+      </c>
+      <c r="F204" s="9">
+        <v>45297</v>
+      </c>
+      <c r="G204" s="1"/>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="46"/>
+      <c r="B205" s="46"/>
+      <c r="C205" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D205" t="s">
+        <v>469</v>
+      </c>
+      <c r="E205" s="1"/>
+      <c r="F205" s="11"/>
+      <c r="G205" s="1"/>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="B206" s="44"/>
+      <c r="C206" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D206" s="1"/>
+      <c r="E206" s="9">
+        <v>44965</v>
+      </c>
+      <c r="F206" s="11"/>
+      <c r="G206" s="1"/>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="39"/>
+      <c r="B207" s="45"/>
+      <c r="C207" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D207" s="1"/>
+      <c r="E207" s="9">
+        <v>44965</v>
+      </c>
+      <c r="F207" s="9">
+        <v>45006</v>
+      </c>
+      <c r="G207" s="1"/>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="39"/>
+      <c r="B208" s="45"/>
+      <c r="C208" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D208" s="1"/>
+      <c r="E208" s="9">
+        <v>44976</v>
+      </c>
+      <c r="F208" s="9">
+        <v>45024</v>
+      </c>
+      <c r="G208" s="1"/>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="40"/>
+      <c r="B209" s="46"/>
+      <c r="C209" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D209" s="1"/>
+      <c r="E209" s="9">
+        <v>44965</v>
+      </c>
+      <c r="F209" s="11"/>
+      <c r="G209" s="1"/>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="38"/>
+      <c r="B210" s="38"/>
+      <c r="C210" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D210" s="1"/>
+      <c r="E210" s="9">
+        <v>45084</v>
+      </c>
+      <c r="F210" s="11"/>
+      <c r="G210" s="1"/>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="39"/>
+      <c r="B211" s="39"/>
+      <c r="C211" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D211" s="1"/>
+      <c r="E211" s="9">
+        <v>45195</v>
+      </c>
+      <c r="F211" s="11"/>
+      <c r="G211" s="1"/>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="39"/>
+      <c r="B212" s="39"/>
+      <c r="C212" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="9">
+        <v>44819</v>
+      </c>
+      <c r="G212" s="1"/>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="39"/>
+      <c r="B213" s="39"/>
+      <c r="C213" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="11"/>
+      <c r="G213" s="1"/>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="39"/>
+      <c r="B214" s="39"/>
+      <c r="C214" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="11"/>
+      <c r="G214" s="1"/>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="39"/>
+      <c r="B215" s="39"/>
+      <c r="C215" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D215" s="1"/>
+      <c r="E215" s="9">
+        <v>45104</v>
+      </c>
+      <c r="F215" s="11"/>
+      <c r="G215" s="1"/>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="39"/>
+      <c r="B216" s="39"/>
+      <c r="C216" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D216" s="1"/>
+      <c r="E216" s="9">
+        <v>45018</v>
+      </c>
+      <c r="F216" s="9">
+        <v>45032</v>
+      </c>
+      <c r="G216" s="1"/>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="40"/>
+      <c r="B217" s="40"/>
+      <c r="C217" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D217" s="1"/>
+      <c r="E217" s="9">
         <v>44947</v>
       </c>
-      <c r="F197" s="11"/>
-      <c r="G197" s="1"/>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="A198" s="16"/>
-      <c r="B198" s="16"/>
-      <c r="C198" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D198" s="1"/>
-      <c r="E198" s="9">
+      <c r="F217" s="9">
+        <v>45125</v>
+      </c>
+      <c r="G217" s="1"/>
+    </row>
+    <row r="218" spans="1:7" ht="42" customHeight="1">
+      <c r="A218" s="20"/>
+      <c r="B218" s="20"/>
+      <c r="C218" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D218" s="1"/>
+      <c r="E218" s="9">
+        <v>45018</v>
+      </c>
+      <c r="F218" s="9">
+        <v>45043</v>
+      </c>
+      <c r="G218" s="19" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="21"/>
+      <c r="B219" s="21"/>
+      <c r="C219" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D219" s="1"/>
+      <c r="E219" s="9">
+        <v>44738</v>
+      </c>
+      <c r="F219" s="9">
+        <v>45057</v>
+      </c>
+      <c r="G219" s="1"/>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="16"/>
+      <c r="B220" s="16"/>
+      <c r="C220" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D220" s="1"/>
+      <c r="E220" s="9">
+        <v>44945</v>
+      </c>
+      <c r="F220" s="9">
         <v>44947</v>
       </c>
-      <c r="F198" s="11"/>
-      <c r="G198" s="1"/>
-    </row>
-    <row r="199" spans="1:7">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="D199" s="14"/>
-      <c r="E199" s="9">
+      <c r="G220" s="1"/>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="16"/>
+      <c r="B221" s="16"/>
+      <c r="C221" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D221" s="1"/>
+      <c r="E221" s="9">
+        <v>44947</v>
+      </c>
+      <c r="F221" s="11"/>
+      <c r="G221" s="1"/>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="16"/>
+      <c r="B222" s="16"/>
+      <c r="C222" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D222" s="1"/>
+      <c r="E222" s="9">
+        <v>44947</v>
+      </c>
+      <c r="F222" s="11"/>
+      <c r="G222" s="1"/>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D223" s="14"/>
+      <c r="E223" s="9">
         <v>44834</v>
       </c>
-      <c r="F199" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G199" s="1"/>
-    </row>
-    <row r="200" spans="1:7">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="D200" s="14"/>
-      <c r="E200" s="9">
+      <c r="F223" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G223" s="1"/>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="D224" s="14"/>
+      <c r="E224" s="9">
         <v>44947</v>
       </c>
-      <c r="F200" s="4"/>
-      <c r="G200" s="1"/>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
-      <c r="C201" s="14" t="s">
-        <v>496</v>
-      </c>
-      <c r="D201" s="14"/>
-      <c r="E201" s="9">
+      <c r="F224" s="4"/>
+      <c r="G224" s="1"/>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="D225" s="14"/>
+      <c r="E225" s="9">
         <v>45018</v>
       </c>
-      <c r="F201" s="4"/>
-      <c r="G201" s="1"/>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
-      <c r="C202" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="D202" s="14"/>
-      <c r="E202" s="9">
+      <c r="F225" s="4"/>
+      <c r="G225" s="1"/>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="D226" s="14"/>
+      <c r="E226" s="9">
+        <v>45389</v>
+      </c>
+      <c r="F226" s="4"/>
+      <c r="G226" s="1"/>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="D227" s="14"/>
+      <c r="E227" s="9">
         <v>45154</v>
       </c>
-      <c r="F202" s="4"/>
-      <c r="G202" s="1"/>
-    </row>
-    <row r="203" spans="1:7">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
-      <c r="C203" s="14"/>
-      <c r="D203" s="14"/>
-      <c r="E203" s="9"/>
-      <c r="F203" s="4"/>
-      <c r="G203" s="1"/>
+      <c r="F227" s="4"/>
+      <c r="G227" s="1"/>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="14"/>
+      <c r="D228" s="14"/>
+      <c r="E228" s="9"/>
+      <c r="F228" s="4"/>
+      <c r="G228" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
     <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B45:B52"/>
-    <mergeCell ref="A2:A52"/>
-    <mergeCell ref="B57:B66"/>
-    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B45:B53"/>
+    <mergeCell ref="A2:A53"/>
+    <mergeCell ref="B58:B67"/>
     <mergeCell ref="B2:B18"/>
     <mergeCell ref="B19:B23"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B32:B37"/>
     <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A53:A94"/>
-    <mergeCell ref="A95:A141"/>
-    <mergeCell ref="B67:B94"/>
-    <mergeCell ref="A142:A149"/>
-    <mergeCell ref="B99:B141"/>
-    <mergeCell ref="B186:B193"/>
-    <mergeCell ref="A186:A193"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="B142:B146"/>
-    <mergeCell ref="B150:B165"/>
-    <mergeCell ref="A150:A165"/>
-    <mergeCell ref="A166:A181"/>
-    <mergeCell ref="B166:B168"/>
-    <mergeCell ref="B169:B181"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="A54:A104"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="A158:A169"/>
+    <mergeCell ref="B111:B157"/>
+    <mergeCell ref="B210:B217"/>
+    <mergeCell ref="A210:A217"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="B158:B166"/>
+    <mergeCell ref="B170:B185"/>
+    <mergeCell ref="A170:A185"/>
+    <mergeCell ref="A186:A205"/>
+    <mergeCell ref="B186:B190"/>
+    <mergeCell ref="B191:B205"/>
+    <mergeCell ref="A107:A157"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8313,10 +9730,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8335,7 +9752,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
@@ -8346,97 +9763,101 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="D2" s="9">
-        <v>44743</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>540</v>
-      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>538</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="C3" s="26"/>
       <c r="D3" s="9">
-        <v>44899</v>
-      </c>
-      <c r="E3" s="9">
-        <v>44899</v>
+        <v>45329</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>397</v>
+        <v>526</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>528</v>
       </c>
       <c r="D4" s="9">
-        <v>44911</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>44743</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="27">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>501</v>
+        <v>524</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>525</v>
       </c>
       <c r="D5" s="9">
+        <v>44899</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="D6" s="9">
+        <v>44911</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="D7" s="9">
         <v>45019</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="25" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="9"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="9"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
@@ -8457,14 +9878,14 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5">
@@ -8474,6 +9895,20 @@
       <c r="D15" s="1"/>
       <c r="E15" s="4"/>
     </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ePub/图书籍录.xlsx
+++ b/ePub/图书籍录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="金融经济" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="683">
   <si>
     <t>股市进阶之道一个散户的自我修养.epub</t>
   </si>
@@ -430,9 +430,6 @@
     <t>淡情精选.epub</t>
   </si>
   <si>
-    <t>骆冰传.txt</t>
-  </si>
-  <si>
     <t>骆冰淫传.epub</t>
   </si>
   <si>
@@ -1614,9 +1611,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>idlIQl</t>
-  </si>
-  <si>
     <t>zCiQTi</t>
   </si>
   <si>
@@ -1624,10 +1618,6 @@
   </si>
   <si>
     <t>Uk13Gd</t>
-  </si>
-  <si>
-    <t>十景缎.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>上位.txt</t>
@@ -2386,6 +2376,29 @@
   <si>
     <t>稼轩词编年笺注.zip</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方寸光-十景缎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idlIQl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六朝(1)清羽记.epub</t>
+  </si>
+  <si>
+    <t>六朝(2)云龙吟.epub</t>
+  </si>
+  <si>
+    <t>六朝(3)燕歌行.epub</t>
+  </si>
+  <si>
+    <t>琼明神女录.epub</t>
+  </si>
+  <si>
+    <t>方寸光短篇集.epub</t>
   </si>
 </sst>
 </file>
@@ -2993,7 +3006,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
@@ -3005,10 +3018,10 @@
     <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D2" s="9">
         <v>44986</v>
@@ -3018,7 +3031,7 @@
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="9">
@@ -3029,7 +3042,7 @@
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="9">
@@ -3040,25 +3053,25 @@
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C5" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D5" s="9">
         <v>45302</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D6" s="9">
         <v>44834</v>
@@ -3068,22 +3081,22 @@
     <row r="7" spans="1:5" ht="27">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D7" s="9">
         <v>44892</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="9">
@@ -3097,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="4"/>
@@ -3105,10 +3118,10 @@
     <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D10" s="9">
         <v>44834</v>
@@ -3118,7 +3131,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="9">
@@ -3129,10 +3142,10 @@
     <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="4"/>
@@ -3147,10 +3160,10 @@
     <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D14" s="9">
         <v>44834</v>
@@ -3163,7 +3176,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="4"/>
@@ -3174,7 +3187,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="5" t="s">
@@ -3187,7 +3200,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="4"/>
@@ -3195,10 +3208,10 @@
     <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D18" s="9">
         <v>44834</v>
@@ -3208,10 +3221,10 @@
     <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D19" s="9">
         <v>44834</v>
@@ -3224,7 +3237,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="4"/>
@@ -3232,10 +3245,10 @@
     <row r="21" spans="1:5">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C21" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D21" s="9">
         <v>44992</v>
@@ -3245,10 +3258,10 @@
     <row r="22" spans="1:5">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D22" s="9">
         <v>44834</v>
@@ -3261,7 +3274,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="4"/>
@@ -3276,10 +3289,10 @@
     <row r="25" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="4"/>
@@ -3311,7 +3324,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="4"/>
@@ -3322,11 +3335,11 @@
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="4" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3335,20 +3348,20 @@
         <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D32" s="9">
         <v>44966</v>
@@ -3358,10 +3371,10 @@
     <row r="33" spans="1:5">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D33" s="9">
         <v>44957</v>
@@ -3371,10 +3384,10 @@
     <row r="34" spans="1:5">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D34" s="9">
         <v>44834</v>
@@ -3384,10 +3397,10 @@
     <row r="35" spans="1:5">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D35" s="9">
         <v>44992</v>
@@ -3400,7 +3413,7 @@
         <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="4"/>
@@ -3408,10 +3421,10 @@
     <row r="37" spans="1:5">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="4"/>
@@ -3419,7 +3432,7 @@
     <row r="38" spans="1:5">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="9">
@@ -3430,7 +3443,7 @@
     <row r="39" spans="1:5">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="9">
@@ -3480,7 +3493,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
@@ -3510,7 +3523,7 @@
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3519,7 +3532,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -3528,7 +3541,7 @@
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -3537,7 +3550,7 @@
     <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3546,7 +3559,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3555,7 +3568,7 @@
     <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3573,7 +3586,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3610,7 +3623,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
@@ -3628,17 +3641,17 @@
     </row>
     <row r="3" spans="1:5" ht="27">
       <c r="A3" s="41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="22" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3647,7 +3660,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="11"/>
@@ -3658,20 +3671,20 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D6" s="9">
         <v>44926</v>
@@ -3681,23 +3694,23 @@
     <row r="7" spans="1:5">
       <c r="A7" s="40"/>
       <c r="B7" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D8" s="9">
         <v>44945</v>
@@ -3706,7 +3719,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="44" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3750,7 +3763,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="38" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3760,7 +3773,7 @@
     <row r="16" spans="1:5">
       <c r="A16" s="39"/>
       <c r="B16" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="9">
@@ -3792,7 +3805,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="40"/>
       <c r="B20" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="9">
@@ -3802,7 +3815,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="42" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3812,7 +3825,7 @@
     <row r="22" spans="1:5">
       <c r="A22" s="43"/>
       <c r="B22" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="9"/>
@@ -3865,7 +3878,7 @@
     <row r="29" spans="1:5">
       <c r="A29" s="32"/>
       <c r="B29" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="9">
@@ -3875,10 +3888,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="38" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="9">
@@ -3889,10 +3902,10 @@
     <row r="31" spans="1:5">
       <c r="A31" s="39"/>
       <c r="B31" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="11"/>
@@ -3900,10 +3913,10 @@
     <row r="32" spans="1:5">
       <c r="A32" s="39"/>
       <c r="B32" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D32" s="9">
         <v>44935</v>
@@ -3913,10 +3926,10 @@
     <row r="33" spans="1:5">
       <c r="A33" s="39"/>
       <c r="B33" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="11"/>
@@ -3924,10 +3937,10 @@
     <row r="34" spans="1:5">
       <c r="A34" s="39"/>
       <c r="B34" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="9">
@@ -3937,10 +3950,10 @@
     <row r="35" spans="1:5">
       <c r="A35" s="39"/>
       <c r="B35" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="11"/>
@@ -3948,10 +3961,10 @@
     <row r="36" spans="1:5">
       <c r="A36" s="39"/>
       <c r="B36" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="9">
@@ -3968,10 +3981,10 @@
     <row r="38" spans="1:5">
       <c r="A38" s="40"/>
       <c r="B38" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D38" s="9">
         <v>44933</v>
@@ -4012,7 +4025,7 @@
         <v>44704</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4048,10 +4061,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="38" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="9">
@@ -4062,7 +4075,7 @@
     <row r="46" spans="1:5">
       <c r="A46" s="39"/>
       <c r="B46" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="9">
@@ -4073,7 +4086,7 @@
     <row r="47" spans="1:5">
       <c r="A47" s="39"/>
       <c r="B47" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="9">
@@ -4099,7 +4112,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -4109,7 +4122,7 @@
     <row r="51" spans="1:5">
       <c r="A51" s="39"/>
       <c r="B51" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="9">
@@ -4120,7 +4133,7 @@
     <row r="52" spans="1:5">
       <c r="A52" s="39"/>
       <c r="B52" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="9">
@@ -4131,10 +4144,10 @@
     <row r="53" spans="1:5">
       <c r="A53" s="39"/>
       <c r="B53" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="11"/>
@@ -4142,10 +4155,10 @@
     <row r="54" spans="1:5">
       <c r="A54" s="39"/>
       <c r="B54" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D54" s="9">
         <v>44935</v>
@@ -4155,10 +4168,10 @@
     <row r="55" spans="1:5">
       <c r="A55" s="39"/>
       <c r="B55" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D55" s="9">
         <v>44966</v>
@@ -4168,10 +4181,10 @@
     <row r="56" spans="1:5">
       <c r="A56" s="39"/>
       <c r="B56" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D56" s="9">
         <v>44834</v>
@@ -4181,10 +4194,10 @@
     <row r="57" spans="1:5">
       <c r="A57" s="40"/>
       <c r="B57" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D57" s="9">
         <v>44966</v>
@@ -4193,13 +4206,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="38" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D58" s="9">
         <v>44834</v>
@@ -4209,7 +4222,7 @@
     <row r="59" spans="1:5">
       <c r="A59" s="39"/>
       <c r="B59" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="9">
@@ -4222,7 +4235,7 @@
     <row r="60" spans="1:5">
       <c r="A60" s="39"/>
       <c r="B60" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="9">
@@ -4233,7 +4246,7 @@
     <row r="61" spans="1:5">
       <c r="A61" s="40"/>
       <c r="B61" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="9">
@@ -4244,7 +4257,7 @@
     <row r="62" spans="1:5">
       <c r="A62" s="15"/>
       <c r="B62" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="9">
@@ -4255,10 +4268,10 @@
     <row r="63" spans="1:5">
       <c r="A63" s="7"/>
       <c r="B63" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D63" s="9">
         <v>44834</v>
@@ -4268,14 +4281,14 @@
     <row r="64" spans="1:5">
       <c r="A64" s="7"/>
       <c r="B64" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E64" s="11"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="13"/>
       <c r="C65" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D65" s="9">
         <v>44835</v>
@@ -4285,10 +4298,10 @@
     <row r="66" spans="1:5">
       <c r="A66" s="7"/>
       <c r="B66" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D66" s="9">
         <v>44834</v>
@@ -4298,7 +4311,7 @@
     <row r="67" spans="1:5">
       <c r="A67" s="7"/>
       <c r="B67" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -4307,7 +4320,7 @@
     <row r="68" spans="1:5">
       <c r="A68" s="7"/>
       <c r="B68" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="9"/>
@@ -4319,7 +4332,7 @@
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="11"/>
@@ -4330,7 +4343,7 @@
         <v>24</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D70" s="9">
         <v>44834</v>
@@ -4340,10 +4353,10 @@
     <row r="71" spans="1:5">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D71" s="9">
         <v>44935</v>
@@ -4353,7 +4366,7 @@
     <row r="72" spans="1:5">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="9"/>
@@ -4364,7 +4377,7 @@
     <row r="73" spans="1:5">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="9">
@@ -4375,7 +4388,7 @@
     <row r="74" spans="1:5">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="9">
@@ -4386,10 +4399,10 @@
     <row r="75" spans="1:5">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D75" s="9">
         <v>44976</v>
@@ -4399,7 +4412,7 @@
     <row r="76" spans="1:5">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="9">
@@ -4410,7 +4423,7 @@
     <row r="77" spans="1:5">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="9">
@@ -4421,7 +4434,7 @@
     <row r="78" spans="1:5">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="9">
@@ -4432,7 +4445,7 @@
     <row r="79" spans="1:5">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="9">
@@ -4443,7 +4456,7 @@
     <row r="80" spans="1:5">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="9">
@@ -4454,7 +4467,7 @@
     <row r="81" spans="1:5">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="9">
@@ -4465,7 +4478,7 @@
     <row r="82" spans="1:5">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="9">
@@ -4476,7 +4489,7 @@
     <row r="83" spans="1:5">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -4521,7 +4534,7 @@
     <row r="88" spans="1:5">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="9">
@@ -4532,7 +4545,7 @@
     <row r="89" spans="1:5">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -4541,7 +4554,7 @@
     <row r="90" spans="1:5">
       <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -4572,7 +4585,7 @@
     <row r="93" spans="1:5">
       <c r="A93" s="1"/>
       <c r="B93" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="9">
@@ -4583,7 +4596,7 @@
     <row r="94" spans="1:5">
       <c r="A94" s="1"/>
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -4592,7 +4605,7 @@
     <row r="95" spans="1:5">
       <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -4601,7 +4614,7 @@
     <row r="96" spans="1:5">
       <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="9">
@@ -4612,7 +4625,7 @@
     <row r="97" spans="1:5">
       <c r="A97" s="1"/>
       <c r="B97" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="9">
@@ -4622,7 +4635,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="B98" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D98" s="33">
         <v>45380</v>
@@ -4671,7 +4684,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
@@ -4685,7 +4698,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4694,7 +4707,7 @@
     <row r="3" spans="1:5">
       <c r="A3" s="41"/>
       <c r="B3" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4768,7 +4781,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="41"/>
       <c r="B11" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -4777,7 +4790,7 @@
     <row r="12" spans="1:5">
       <c r="A12" s="41"/>
       <c r="B12" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="9">
@@ -4787,10 +4800,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="9">
@@ -4801,7 +4814,7 @@
     <row r="14" spans="1:5">
       <c r="A14" s="39"/>
       <c r="B14" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="9">
@@ -4812,7 +4825,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="39"/>
       <c r="B15" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="9">
@@ -4823,7 +4836,7 @@
     <row r="16" spans="1:5">
       <c r="A16" s="39"/>
       <c r="B16" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="9">
@@ -4834,7 +4847,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="39"/>
       <c r="B17" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="9">
@@ -4845,7 +4858,7 @@
     <row r="18" spans="1:5">
       <c r="A18" s="40"/>
       <c r="B18" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="9">
@@ -4855,7 +4868,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="38" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4865,7 +4878,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="39"/>
       <c r="B20" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="9">
@@ -4876,7 +4889,7 @@
     <row r="21" spans="1:5">
       <c r="A21" s="39"/>
       <c r="B21" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="9">
@@ -4887,7 +4900,7 @@
     <row r="22" spans="1:5">
       <c r="A22" s="39"/>
       <c r="B22" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="9">
@@ -4898,7 +4911,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="40"/>
       <c r="B23" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="9">
@@ -4909,7 +4922,7 @@
     <row r="24" spans="1:5">
       <c r="A24" s="28"/>
       <c r="B24" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="9">
@@ -4920,7 +4933,7 @@
     <row r="25" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -4929,7 +4942,7 @@
     <row r="26" spans="1:5">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="9">
@@ -4949,7 +4962,7 @@
     <row r="28" spans="1:5">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="9">
@@ -4969,7 +4982,7 @@
     <row r="30" spans="1:5">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4987,7 +5000,7 @@
     <row r="32" spans="1:5">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="9">
@@ -4998,7 +5011,7 @@
     <row r="33" spans="1:5">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="9">
@@ -5009,7 +5022,7 @@
     <row r="34" spans="1:5">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -5018,7 +5031,7 @@
     <row r="35" spans="1:5">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="9">
@@ -5029,7 +5042,7 @@
     <row r="36" spans="1:5">
       <c r="A36" s="1"/>
       <c r="B36" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="9">
@@ -5040,7 +5053,7 @@
     <row r="37" spans="1:5">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="9">
@@ -5051,7 +5064,7 @@
     <row r="38" spans="1:5">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="9">
@@ -5062,7 +5075,7 @@
     <row r="39" spans="1:5">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="9">
@@ -5109,7 +5122,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>10</v>
@@ -5120,7 +5133,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="41" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="11"/>
@@ -5129,7 +5142,7 @@
     <row r="3" spans="1:5">
       <c r="A3" s="41"/>
       <c r="B3" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="9">
@@ -5140,7 +5153,7 @@
     <row r="4" spans="1:5">
       <c r="A4" s="41"/>
       <c r="B4" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="9">
@@ -5151,10 +5164,10 @@
     <row r="5" spans="1:5">
       <c r="A5" s="41"/>
       <c r="B5" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="1"/>
@@ -5165,7 +5178,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="1"/>
@@ -5173,10 +5186,10 @@
     <row r="7" spans="1:5">
       <c r="A7" s="41"/>
       <c r="B7" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="1"/>
@@ -5187,17 +5200,17 @@
         <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="44" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D9" s="9">
         <v>45297</v>
@@ -5209,10 +5222,10 @@
     <row r="10" spans="1:5">
       <c r="A10" s="45"/>
       <c r="B10" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D10" s="9">
         <v>44834</v>
@@ -5222,10 +5235,10 @@
     <row r="11" spans="1:5">
       <c r="A11" s="46"/>
       <c r="B11" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="1"/>
@@ -5246,10 +5259,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="11"/>
@@ -5258,7 +5271,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="41"/>
       <c r="B15" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="11"/>
@@ -5267,7 +5280,7 @@
     <row r="16" spans="1:5">
       <c r="A16" s="41"/>
       <c r="B16" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="11"/>
@@ -5279,7 +5292,7 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="1"/>
@@ -5287,7 +5300,7 @@
     <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="11"/>
@@ -5296,7 +5309,7 @@
     <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="9">
@@ -5307,7 +5320,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="9">
@@ -5334,7 +5347,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="9">
@@ -5345,7 +5358,7 @@
     <row r="24" spans="1:5">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="11"/>
@@ -5354,7 +5367,7 @@
     <row r="25" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="9">
@@ -5365,7 +5378,7 @@
     <row r="26" spans="1:5">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="11"/>
@@ -5374,7 +5387,7 @@
     <row r="27" spans="1:5">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="11"/>
@@ -5408,7 +5421,7 @@
     <row r="31" spans="1:5">
       <c r="A31" s="1"/>
       <c r="B31" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="9">
@@ -5438,7 +5451,7 @@
         <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="1"/>
@@ -5464,7 +5477,7 @@
     <row r="37" spans="1:5">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="9">
@@ -5475,7 +5488,7 @@
     <row r="38" spans="1:5">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="11"/>
@@ -5484,7 +5497,7 @@
     <row r="39" spans="1:5">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="9"/>
@@ -5507,7 +5520,7 @@
     <row r="42" spans="1:5">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="9">
@@ -5518,7 +5531,7 @@
     <row r="43" spans="1:5">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="11"/>
@@ -5527,10 +5540,10 @@
     <row r="44" spans="1:5">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C44" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="1"/>
@@ -5556,7 +5569,7 @@
     <row r="47" spans="1:5">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="11"/>
@@ -5565,7 +5578,7 @@
     <row r="48" spans="1:5">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="9">
@@ -5587,7 +5600,7 @@
     <row r="50" spans="1:5">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="9">
@@ -5607,7 +5620,7 @@
     <row r="52" spans="1:5">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="9">
@@ -5627,7 +5640,7 @@
     <row r="54" spans="1:5">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="11"/>
@@ -5636,7 +5649,7 @@
     <row r="55" spans="1:5">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="9">
@@ -5654,7 +5667,7 @@
     <row r="57" spans="1:5">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="9">
@@ -5672,10 +5685,10 @@
     <row r="59" spans="1:5">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D59" s="9">
         <v>44834</v>
@@ -5685,10 +5698,10 @@
     <row r="60" spans="1:5">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="1"/>
@@ -5696,7 +5709,7 @@
     <row r="61" spans="1:5">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="9">
@@ -5707,7 +5720,7 @@
     <row r="62" spans="1:5">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="9">
@@ -5718,7 +5731,7 @@
     <row r="63" spans="1:5">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="9">
@@ -5772,7 +5785,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
@@ -5783,13 +5796,13 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="47" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -5797,10 +5810,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="48"/>
       <c r="B3" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -5808,10 +5821,10 @@
     <row r="4" spans="1:5">
       <c r="A4" s="48"/>
       <c r="B4" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -5819,10 +5832,10 @@
     <row r="5" spans="1:5">
       <c r="A5" s="48"/>
       <c r="B5" s="19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -5830,10 +5843,10 @@
     <row r="6" spans="1:5">
       <c r="A6" s="48"/>
       <c r="B6" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -5841,10 +5854,10 @@
     <row r="7" spans="1:5">
       <c r="A7" s="48"/>
       <c r="B7" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -5852,7 +5865,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="49"/>
       <c r="B8" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="9">
@@ -5865,7 +5878,7 @@
         <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -5883,7 +5896,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="40"/>
       <c r="B11" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="9">
@@ -5894,7 +5907,7 @@
     <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="9">
@@ -5905,7 +5918,7 @@
     <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="9">
@@ -5916,7 +5929,7 @@
     <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="9">
@@ -5927,7 +5940,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="9">
@@ -5938,7 +5951,7 @@
     <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="9"/>
@@ -5947,7 +5960,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="9"/>
@@ -5956,7 +5969,7 @@
     <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="9">
@@ -5967,10 +5980,10 @@
     <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D19" s="9">
         <v>45006</v>
@@ -5980,7 +5993,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="9"/>
@@ -5989,7 +6002,7 @@
     <row r="21" spans="1:5">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="9"/>
@@ -5998,7 +6011,7 @@
     <row r="22" spans="1:5">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="9">
@@ -6009,7 +6022,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="9">
@@ -6020,7 +6033,7 @@
     <row r="24" spans="1:5">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="9">
@@ -6031,7 +6044,7 @@
     <row r="25" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="9">
@@ -6069,7 +6082,7 @@
     <row r="29" spans="1:5">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -6078,7 +6091,7 @@
     <row r="30" spans="1:5">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="9">
@@ -6089,7 +6102,7 @@
     <row r="31" spans="1:5">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="9"/>
@@ -6135,7 +6148,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
@@ -6147,7 +6160,7 @@
     <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="9">
@@ -6168,7 +6181,7 @@
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -6185,7 +6198,7 @@
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -6203,10 +6216,10 @@
     <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D8" s="9">
         <v>44834</v>
@@ -6219,7 +6232,7 @@
         <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -6238,7 +6251,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="9">
@@ -6249,7 +6262,7 @@
     <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="9">
@@ -6260,7 +6273,7 @@
     <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -6269,7 +6282,7 @@
     <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="9">
@@ -6280,10 +6293,10 @@
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D15" s="9">
         <v>44935</v>
@@ -6293,7 +6306,7 @@
     <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="9">
@@ -6304,7 +6317,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="9">
@@ -6315,7 +6328,7 @@
     <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="9">
@@ -6326,7 +6339,7 @@
     <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="9">
@@ -6337,7 +6350,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="24" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="9">
@@ -6348,10 +6361,10 @@
     <row r="21" spans="1:5">
       <c r="A21" s="1"/>
       <c r="B21" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D21" s="9">
         <v>44945</v>
@@ -6363,7 +6376,7 @@
     <row r="22" spans="1:5">
       <c r="A22" s="1"/>
       <c r="B22" s="24" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D22" s="9">
         <v>45346</v>
@@ -6373,7 +6386,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="9">
@@ -6384,7 +6397,7 @@
     <row r="24" spans="1:5">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="9">
@@ -6411,7 +6424,7 @@
     <row r="27" spans="1:5">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="9">
@@ -6442,7 +6455,7 @@
     <row r="30" spans="1:5">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -6451,7 +6464,7 @@
     <row r="31" spans="1:5">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="9">
@@ -6462,7 +6475,7 @@
     <row r="32" spans="1:5">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="9">
@@ -6473,7 +6486,7 @@
     <row r="33" spans="1:5">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="9">
@@ -6511,7 +6524,7 @@
     <row r="37" spans="1:5">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="9">
@@ -6522,7 +6535,7 @@
     <row r="38" spans="1:5">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="9"/>
@@ -6531,7 +6544,7 @@
     <row r="39" spans="1:5">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="9">
@@ -6542,7 +6555,7 @@
     <row r="40" spans="1:5">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="9">
@@ -6553,7 +6566,7 @@
     <row r="41" spans="1:5">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="9">
@@ -6564,7 +6577,7 @@
     <row r="42" spans="1:5">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="9">
@@ -6575,7 +6588,7 @@
     <row r="43" spans="1:5">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -6600,7 +6613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -6619,7 +6632,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
@@ -6649,10 +6662,10 @@
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -6667,7 +6680,7 @@
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="9">
@@ -6705,7 +6718,7 @@
     <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="9">
@@ -6716,7 +6729,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="9">
@@ -6727,7 +6740,7 @@
     <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="9">
@@ -6738,7 +6751,7 @@
     <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="9">
@@ -6758,7 +6771,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="9">
@@ -6802,11 +6815,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G228"/>
+  <dimension ref="A1:G233"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D192" sqref="D192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6830,7 +6843,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>10</v>
@@ -6839,7 +6852,7 @@
         <v>11</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -6847,7 +6860,7 @@
         <v>77</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>78</v>
@@ -6872,7 +6885,7 @@
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="9">
@@ -6885,7 +6898,7 @@
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="9">
@@ -6898,7 +6911,7 @@
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="9">
@@ -6980,7 +6993,7 @@
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="9">
@@ -7002,12 +7015,12 @@
       <c r="A16" s="41"/>
       <c r="B16" s="41"/>
       <c r="C16" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -7032,10 +7045,10 @@
     <row r="19" spans="1:7">
       <c r="A19" s="41"/>
       <c r="B19" s="41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -7049,7 +7062,7 @@
         <v>82</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="4"/>
@@ -7059,10 +7072,10 @@
       <c r="A21" s="41"/>
       <c r="B21" s="41"/>
       <c r="C21" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E21" s="9">
         <v>44933</v>
@@ -7077,7 +7090,7 @@
         <v>83</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="4"/>
@@ -7090,21 +7103,21 @@
         <v>84</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="41"/>
       <c r="B24" s="41" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -7115,7 +7128,7 @@
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="9">
@@ -7160,7 +7173,7 @@
     <row r="29" spans="1:7">
       <c r="A29" s="41"/>
       <c r="B29" s="41" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -7172,14 +7185,14 @@
       <c r="A30" s="41"/>
       <c r="B30" s="41"/>
       <c r="C30" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="9">
         <v>44884</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -7195,10 +7208,10 @@
     <row r="32" spans="1:7">
       <c r="A32" s="41"/>
       <c r="B32" s="41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -7209,14 +7222,14 @@
       <c r="A33" s="41"/>
       <c r="B33" s="41"/>
       <c r="C33" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="9">
         <v>45006</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G33" s="1"/>
     </row>
@@ -7224,7 +7237,7 @@
       <c r="A34" s="41"/>
       <c r="B34" s="41"/>
       <c r="C34" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="9">
@@ -7237,14 +7250,14 @@
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="9">
         <v>44884</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -7252,7 +7265,7 @@
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="9"/>
@@ -7271,10 +7284,10 @@
     <row r="38" spans="1:7">
       <c r="A38" s="41"/>
       <c r="B38" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="9">
@@ -7287,7 +7300,7 @@
       <c r="A39" s="41"/>
       <c r="B39" s="40"/>
       <c r="C39" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -7297,10 +7310,10 @@
     <row r="40" spans="1:7">
       <c r="A40" s="41"/>
       <c r="B40" s="38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="9">
@@ -7313,7 +7326,7 @@
       <c r="A41" s="41"/>
       <c r="B41" s="39"/>
       <c r="C41" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="9">
@@ -7326,7 +7339,7 @@
       <c r="A42" s="41"/>
       <c r="B42" s="39"/>
       <c r="C42" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="9">
@@ -7339,7 +7352,7 @@
       <c r="A43" s="41"/>
       <c r="B43" s="39"/>
       <c r="C43" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="9">
@@ -7352,7 +7365,7 @@
       <c r="A44" s="41"/>
       <c r="B44" s="40"/>
       <c r="C44" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="9">
@@ -7365,7 +7378,7 @@
       <c r="A45" s="41"/>
       <c r="B45" s="44"/>
       <c r="C45" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="9">
@@ -7391,7 +7404,7 @@
       <c r="A47" s="41"/>
       <c r="B47" s="45"/>
       <c r="C47" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="9">
@@ -7404,14 +7417,14 @@
       <c r="A48" s="41"/>
       <c r="B48" s="45"/>
       <c r="C48" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="9">
         <v>45342</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G48" s="1"/>
     </row>
@@ -7419,7 +7432,7 @@
       <c r="A49" s="41"/>
       <c r="B49" s="45"/>
       <c r="C49" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="9">
@@ -7432,7 +7445,7 @@
       <c r="A50" s="41"/>
       <c r="B50" s="45"/>
       <c r="C50" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="9">
@@ -7445,7 +7458,7 @@
       <c r="A51" s="41"/>
       <c r="B51" s="45"/>
       <c r="C51" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="9">
@@ -7480,14 +7493,14 @@
         <v>90</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="9">
         <v>45064</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G54" s="1"/>
     </row>
@@ -7495,12 +7508,12 @@
       <c r="A55" s="41"/>
       <c r="B55" s="41"/>
       <c r="C55" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="9"/>
       <c r="F55" s="5" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G55" s="1"/>
     </row>
@@ -7537,7 +7550,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G58" s="1"/>
     </row>
@@ -7550,7 +7563,7 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G59" s="1"/>
     </row>
@@ -7574,7 +7587,7 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G61" s="1"/>
     </row>
@@ -7587,7 +7600,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G62" s="1"/>
     </row>
@@ -7600,7 +7613,7 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G63" s="1"/>
     </row>
@@ -7613,7 +7626,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G64" s="1"/>
     </row>
@@ -7626,7 +7639,7 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G65" s="1"/>
     </row>
@@ -7639,7 +7652,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G66" s="1"/>
     </row>
@@ -7652,16 +7665,16 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="41"/>
       <c r="B68" s="44" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -7699,7 +7712,7 @@
     <row r="72" spans="1:7">
       <c r="A72" s="41"/>
       <c r="B72" s="50" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -7713,7 +7726,7 @@
       <c r="A73" s="41"/>
       <c r="B73" s="50"/>
       <c r="C73" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="9">
@@ -7726,7 +7739,7 @@
       <c r="A74" s="41"/>
       <c r="B74" s="50"/>
       <c r="C74" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="9">
@@ -7750,7 +7763,7 @@
       <c r="A76" s="41"/>
       <c r="B76" s="34"/>
       <c r="C76" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="9">
@@ -7763,7 +7776,7 @@
       <c r="A77" s="41"/>
       <c r="B77" s="34"/>
       <c r="C77" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="9">
@@ -7776,7 +7789,7 @@
       <c r="A78" s="41"/>
       <c r="B78" s="34"/>
       <c r="C78" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="9">
@@ -7789,7 +7802,7 @@
       <c r="A79" s="41"/>
       <c r="B79" s="35"/>
       <c r="C79" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="9">
@@ -7802,7 +7815,7 @@
       <c r="A80" s="41"/>
       <c r="B80" s="35"/>
       <c r="C80" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="9">
@@ -7815,7 +7828,7 @@
       <c r="A81" s="41"/>
       <c r="B81" s="35"/>
       <c r="C81" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="9">
@@ -7828,14 +7841,14 @@
       <c r="A82" s="41"/>
       <c r="B82" s="35"/>
       <c r="C82" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="9">
         <v>45067</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G82" s="1"/>
     </row>
@@ -7843,7 +7856,7 @@
       <c r="A83" s="41"/>
       <c r="B83" s="35"/>
       <c r="C83" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="9">
@@ -7856,7 +7869,7 @@
       <c r="A84" s="41"/>
       <c r="B84" s="35"/>
       <c r="C84" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="9">
@@ -7869,7 +7882,7 @@
       <c r="A85" s="41"/>
       <c r="B85" s="35"/>
       <c r="C85" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="9">
@@ -7882,7 +7895,7 @@
       <c r="A86" s="41"/>
       <c r="B86" s="35"/>
       <c r="C86" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="9">
@@ -7895,7 +7908,7 @@
       <c r="A87" s="41"/>
       <c r="B87" s="35"/>
       <c r="C87" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="9">
@@ -7908,7 +7921,7 @@
       <c r="A88" s="41"/>
       <c r="B88" s="35"/>
       <c r="C88" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="9">
@@ -7921,7 +7934,7 @@
       <c r="A89" s="41"/>
       <c r="B89" s="35"/>
       <c r="C89" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="9">
@@ -7939,7 +7952,7 @@
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G90" s="1"/>
     </row>
@@ -7958,7 +7971,7 @@
       <c r="A92" s="41"/>
       <c r="B92" s="35"/>
       <c r="C92" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="9">
@@ -7993,7 +8006,7 @@
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G95" s="1"/>
     </row>
@@ -8001,12 +8014,12 @@
       <c r="A96" s="41"/>
       <c r="B96" s="35"/>
       <c r="C96" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="4" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G96" s="1"/>
     </row>
@@ -8014,7 +8027,7 @@
       <c r="A97" s="41"/>
       <c r="B97" s="35"/>
       <c r="C97" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="9">
@@ -8027,7 +8040,7 @@
       <c r="A98" s="41"/>
       <c r="B98" s="35"/>
       <c r="C98" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="9">
@@ -8040,7 +8053,7 @@
       <c r="A99" s="41"/>
       <c r="B99" s="35"/>
       <c r="C99" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="9">
@@ -8053,7 +8066,7 @@
       <c r="A100" s="41"/>
       <c r="B100" s="35"/>
       <c r="C100" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="9">
@@ -8066,7 +8079,7 @@
       <c r="A101" s="41"/>
       <c r="B101" s="35"/>
       <c r="C101" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="9">
@@ -8079,7 +8092,7 @@
       <c r="A102" s="41"/>
       <c r="B102" s="35"/>
       <c r="C102" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="9">
@@ -8092,7 +8105,7 @@
       <c r="A103" s="41"/>
       <c r="B103" s="35"/>
       <c r="C103" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="9">
@@ -8127,7 +8140,7 @@
       <c r="A106" s="37"/>
       <c r="B106" s="45"/>
       <c r="C106" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="9">
@@ -8142,12 +8155,12 @@
       </c>
       <c r="B107" s="45"/>
       <c r="C107" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G107" s="1"/>
     </row>
@@ -8160,7 +8173,7 @@
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G108" s="1"/>
     </row>
@@ -8179,7 +8192,7 @@
       <c r="A110" s="41"/>
       <c r="B110" s="8"/>
       <c r="C110" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -8190,7 +8203,7 @@
       <c r="A111" s="41"/>
       <c r="B111" s="38"/>
       <c r="C111" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="9">
@@ -8203,7 +8216,7 @@
       <c r="A112" s="41"/>
       <c r="B112" s="39"/>
       <c r="C112" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="9">
@@ -8216,14 +8229,14 @@
       <c r="A113" s="41"/>
       <c r="B113" s="39"/>
       <c r="C113" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="9">
         <v>44834</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G113" s="1"/>
     </row>
@@ -8231,7 +8244,7 @@
       <c r="A114" s="41"/>
       <c r="B114" s="39"/>
       <c r="C114" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -8242,7 +8255,7 @@
       <c r="A115" s="41"/>
       <c r="B115" s="39"/>
       <c r="C115" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -8253,7 +8266,7 @@
       <c r="A116" s="41"/>
       <c r="B116" s="39"/>
       <c r="C116" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="9">
@@ -8266,7 +8279,7 @@
       <c r="A117" s="41"/>
       <c r="B117" s="39"/>
       <c r="C117" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -8286,7 +8299,7 @@
       <c r="A119" s="41"/>
       <c r="B119" s="39"/>
       <c r="C119" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="9">
@@ -8299,7 +8312,7 @@
       <c r="A120" s="41"/>
       <c r="B120" s="39"/>
       <c r="C120" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="9">
@@ -8323,7 +8336,7 @@
       <c r="A122" s="41"/>
       <c r="B122" s="39"/>
       <c r="C122" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -8334,7 +8347,7 @@
       <c r="A123" s="41"/>
       <c r="B123" s="39"/>
       <c r="C123" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="9">
@@ -8347,7 +8360,7 @@
       <c r="A124" s="41"/>
       <c r="B124" s="39"/>
       <c r="C124" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="9">
@@ -8360,7 +8373,7 @@
       <c r="A125" s="41"/>
       <c r="B125" s="39"/>
       <c r="C125" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="9">
@@ -8373,7 +8386,7 @@
       <c r="A126" s="41"/>
       <c r="B126" s="39"/>
       <c r="C126" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="9">
@@ -8386,7 +8399,7 @@
       <c r="A127" s="41"/>
       <c r="B127" s="39"/>
       <c r="C127" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="9"/>
@@ -8397,7 +8410,7 @@
       <c r="A128" s="41"/>
       <c r="B128" s="39"/>
       <c r="C128" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="9"/>
@@ -8408,7 +8421,7 @@
       <c r="A129" s="41"/>
       <c r="B129" s="39"/>
       <c r="C129" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -8419,7 +8432,7 @@
       <c r="A130" s="41"/>
       <c r="B130" s="39"/>
       <c r="C130" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="9">
@@ -8432,7 +8445,7 @@
       <c r="A131" s="41"/>
       <c r="B131" s="39"/>
       <c r="C131" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="9">
@@ -8445,7 +8458,7 @@
       <c r="A132" s="41"/>
       <c r="B132" s="39"/>
       <c r="C132" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="9">
@@ -8458,7 +8471,7 @@
       <c r="A133" s="41"/>
       <c r="B133" s="39"/>
       <c r="C133" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="9">
@@ -8471,7 +8484,7 @@
       <c r="A134" s="41"/>
       <c r="B134" s="39"/>
       <c r="C134" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="9">
@@ -8484,14 +8497,14 @@
       <c r="A135" s="41"/>
       <c r="B135" s="39"/>
       <c r="C135" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="9">
         <v>44983</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G135" s="1"/>
     </row>
@@ -8499,7 +8512,7 @@
       <c r="A136" s="41"/>
       <c r="B136" s="39"/>
       <c r="C136" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -8510,7 +8523,7 @@
       <c r="A137" s="41"/>
       <c r="B137" s="39"/>
       <c r="C137" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="9">
@@ -8523,7 +8536,7 @@
       <c r="A138" s="41"/>
       <c r="B138" s="39"/>
       <c r="C138" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="9">
@@ -8536,7 +8549,7 @@
       <c r="A139" s="41"/>
       <c r="B139" s="39"/>
       <c r="C139" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="9">
@@ -8549,7 +8562,7 @@
       <c r="A140" s="41"/>
       <c r="B140" s="39"/>
       <c r="C140" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="9">
@@ -8562,7 +8575,7 @@
       <c r="A141" s="41"/>
       <c r="B141" s="39"/>
       <c r="C141" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="9">
@@ -8575,7 +8588,7 @@
       <c r="A142" s="41"/>
       <c r="B142" s="39"/>
       <c r="C142" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="9">
@@ -8588,14 +8601,14 @@
       <c r="A143" s="41"/>
       <c r="B143" s="39"/>
       <c r="C143" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="9">
         <v>44834</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G143" s="1"/>
     </row>
@@ -8603,7 +8616,7 @@
       <c r="A144" s="41"/>
       <c r="B144" s="39"/>
       <c r="C144" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="9">
@@ -8627,7 +8640,7 @@
       <c r="A146" s="41"/>
       <c r="B146" s="39"/>
       <c r="C146" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="9">
@@ -8640,7 +8653,7 @@
       <c r="A147" s="41"/>
       <c r="B147" s="39"/>
       <c r="C147" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="9">
@@ -8653,7 +8666,7 @@
       <c r="A148" s="41"/>
       <c r="B148" s="39"/>
       <c r="C148" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="9">
@@ -8666,7 +8679,7 @@
       <c r="A149" s="41"/>
       <c r="B149" s="39"/>
       <c r="C149" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="9">
@@ -8679,7 +8692,7 @@
       <c r="A150" s="41"/>
       <c r="B150" s="39"/>
       <c r="C150" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="9">
@@ -8692,7 +8705,7 @@
       <c r="A151" s="41"/>
       <c r="B151" s="39"/>
       <c r="C151" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="9">
@@ -8714,7 +8727,7 @@
       <c r="A153" s="41"/>
       <c r="B153" s="39"/>
       <c r="C153" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="9">
@@ -8727,7 +8740,7 @@
       <c r="A154" s="41"/>
       <c r="B154" s="39"/>
       <c r="C154" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="9">
@@ -8740,7 +8753,7 @@
       <c r="A155" s="41"/>
       <c r="B155" s="39"/>
       <c r="C155" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="9">
@@ -8753,7 +8766,7 @@
       <c r="A156" s="41"/>
       <c r="B156" s="39"/>
       <c r="C156" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="9">
@@ -8766,7 +8779,7 @@
       <c r="A157" s="41"/>
       <c r="B157" s="40"/>
       <c r="C157" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="9">
@@ -8783,12 +8796,12 @@
         <v>116</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G158" s="1"/>
     </row>
@@ -8796,12 +8809,12 @@
       <c r="A159" s="41"/>
       <c r="B159" s="41"/>
       <c r="C159" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="4" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G159" s="1"/>
     </row>
@@ -8809,12 +8822,12 @@
       <c r="A160" s="41"/>
       <c r="B160" s="41"/>
       <c r="C160" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="4" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G160" s="1"/>
     </row>
@@ -8822,12 +8835,12 @@
       <c r="A161" s="41"/>
       <c r="B161" s="41"/>
       <c r="C161" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G161" s="1"/>
     </row>
@@ -8835,12 +8848,12 @@
       <c r="A162" s="41"/>
       <c r="B162" s="41"/>
       <c r="C162" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="G162" s="1"/>
     </row>
@@ -8848,12 +8861,12 @@
       <c r="A163" s="41"/>
       <c r="B163" s="41"/>
       <c r="C163" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="4" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="G163" s="1"/>
     </row>
@@ -8938,7 +8951,7 @@
       <c r="A171" s="39"/>
       <c r="B171" s="45"/>
       <c r="C171" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="9">
@@ -8951,7 +8964,7 @@
       <c r="A172" s="39"/>
       <c r="B172" s="45"/>
       <c r="C172" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="9">
@@ -8966,7 +8979,7 @@
       <c r="A173" s="39"/>
       <c r="B173" s="45"/>
       <c r="C173" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="9">
@@ -8979,7 +8992,7 @@
       <c r="A174" s="39"/>
       <c r="B174" s="45"/>
       <c r="C174" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="9">
@@ -8992,7 +9005,7 @@
       <c r="A175" s="39"/>
       <c r="B175" s="45"/>
       <c r="C175" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D175" s="1"/>
       <c r="E175" s="9">
@@ -9005,7 +9018,7 @@
       <c r="A176" s="39"/>
       <c r="B176" s="45"/>
       <c r="C176" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D176" s="1"/>
       <c r="E176" s="9">
@@ -9062,7 +9075,7 @@
       <c r="A181" s="39"/>
       <c r="B181" s="45"/>
       <c r="C181" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="9">
@@ -9086,7 +9099,7 @@
       <c r="A183" s="39"/>
       <c r="B183" s="45"/>
       <c r="C183" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -9097,7 +9110,7 @@
       <c r="A184" s="39"/>
       <c r="B184" s="45"/>
       <c r="C184" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="9">
@@ -9110,7 +9123,7 @@
       <c r="A185" s="40"/>
       <c r="B185" s="46"/>
       <c r="C185" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="9">
@@ -9121,10 +9134,10 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B186" s="44" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -9136,10 +9149,10 @@
       <c r="A187" s="45"/>
       <c r="B187" s="45"/>
       <c r="C187" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D187" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E187" s="9">
         <v>45296</v>
@@ -9151,10 +9164,10 @@
       <c r="A188" s="45"/>
       <c r="B188" s="45"/>
       <c r="C188" s="29" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E188" s="30"/>
       <c r="F188" s="9">
@@ -9166,7 +9179,7 @@
       <c r="A189" s="45"/>
       <c r="B189" s="45"/>
       <c r="C189" s="29" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="31"/>
@@ -9195,11 +9208,13 @@
     <row r="192" spans="1:7">
       <c r="A192" s="45"/>
       <c r="B192" s="45"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="E192" s="1"/>
+      <c r="C192" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D192" s="1"/>
+      <c r="E192" s="9">
+        <v>45396</v>
+      </c>
       <c r="F192" s="11"/>
       <c r="G192" s="1"/>
     </row>
@@ -9207,25 +9222,29 @@
       <c r="A193" s="45"/>
       <c r="B193" s="45"/>
       <c r="C193" s="1" t="s">
-        <v>130</v>
+        <v>676</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>463</v>
+        <v>677</v>
       </c>
       <c r="E193" s="1"/>
-      <c r="F193" s="11"/>
+      <c r="F193" s="9">
+        <v>45395</v>
+      </c>
       <c r="G193" s="1"/>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="45"/>
       <c r="B194" s="45"/>
       <c r="C194" s="1" t="s">
-        <v>131</v>
+        <v>678</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="E194" s="1"/>
+        <v>461</v>
+      </c>
+      <c r="E194" s="9">
+        <v>45390</v>
+      </c>
       <c r="F194" s="11"/>
       <c r="G194" s="1"/>
     </row>
@@ -9233,280 +9252,278 @@
       <c r="A195" s="45"/>
       <c r="B195" s="45"/>
       <c r="C195" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="E195" s="1"/>
-      <c r="F195" s="9">
-        <v>45280</v>
-      </c>
+        <v>679</v>
+      </c>
+      <c r="D195" s="1"/>
+      <c r="E195" s="9">
+        <v>45390</v>
+      </c>
+      <c r="F195" s="11"/>
       <c r="G195" s="1"/>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="45"/>
       <c r="B196" s="45"/>
       <c r="C196" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>568</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="D196" s="1"/>
       <c r="E196" s="9">
-        <v>45296</v>
-      </c>
-      <c r="F196" s="9"/>
+        <v>45390</v>
+      </c>
+      <c r="F196" s="11"/>
       <c r="G196" s="1"/>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="45"/>
       <c r="B197" s="45"/>
-      <c r="C197" s="1" t="s">
-        <v>642</v>
-      </c>
+      <c r="C197" s="1"/>
       <c r="D197" s="1"/>
-      <c r="E197" s="9">
-        <v>45342</v>
-      </c>
-      <c r="F197" s="9"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="11"/>
       <c r="G197" s="1"/>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="45"/>
       <c r="B198" s="45"/>
       <c r="C198" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="E198" s="9">
-        <v>45342</v>
-      </c>
-      <c r="F198" s="9"/>
+        <v>130</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E198" s="1"/>
+      <c r="F198" s="11"/>
       <c r="G198" s="1"/>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="45"/>
       <c r="B199" s="45"/>
       <c r="C199" s="1" t="s">
-        <v>467</v>
+        <v>556</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>468</v>
+        <v>557</v>
       </c>
       <c r="E199" s="1"/>
-      <c r="F199" s="11"/>
+      <c r="F199" s="9">
+        <v>45280</v>
+      </c>
       <c r="G199" s="1"/>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="45"/>
       <c r="B200" s="45"/>
       <c r="C200" s="1" t="s">
-        <v>466</v>
+        <v>564</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="E200" s="1"/>
-      <c r="F200" s="11"/>
+        <v>565</v>
+      </c>
+      <c r="E200" s="9">
+        <v>45296</v>
+      </c>
+      <c r="F200" s="9"/>
       <c r="G200" s="1"/>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="45"/>
       <c r="B201" s="45"/>
-      <c r="C201" s="1"/>
+      <c r="C201" s="1" t="s">
+        <v>639</v>
+      </c>
       <c r="D201" s="1"/>
-      <c r="E201" s="1"/>
-      <c r="F201" s="11"/>
+      <c r="E201" s="9">
+        <v>45342</v>
+      </c>
+      <c r="F201" s="9"/>
       <c r="G201" s="1"/>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="45"/>
       <c r="B202" s="45"/>
       <c r="C202" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>566</v>
-      </c>
+        <v>640</v>
+      </c>
+      <c r="D202" s="1"/>
       <c r="E202" s="9">
-        <v>45296</v>
-      </c>
-      <c r="F202" s="11"/>
+        <v>45342</v>
+      </c>
+      <c r="F202" s="9"/>
       <c r="G202" s="1"/>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="45"/>
       <c r="B203" s="45"/>
       <c r="C203" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>570</v>
+        <v>681</v>
       </c>
       <c r="E203" s="9">
-        <v>45296</v>
-      </c>
-      <c r="F203" s="11"/>
+        <v>45390</v>
+      </c>
+      <c r="F203" s="9"/>
       <c r="G203" s="1"/>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="45"/>
       <c r="B204" s="45"/>
       <c r="C204" s="1" t="s">
-        <v>574</v>
+        <v>464</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="E204" s="9">
-        <v>45296</v>
-      </c>
-      <c r="F204" s="9">
-        <v>45297</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="E204" s="1"/>
+      <c r="F204" s="11"/>
       <c r="G204" s="1"/>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="46"/>
-      <c r="B205" s="46"/>
-      <c r="C205" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D205" t="s">
-        <v>469</v>
+      <c r="A205" s="45"/>
+      <c r="B205" s="45"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1" t="s">
+        <v>463</v>
       </c>
       <c r="E205" s="1"/>
       <c r="F205" s="11"/>
       <c r="G205" s="1"/>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="38" t="s">
-        <v>307</v>
-      </c>
-      <c r="B206" s="44"/>
-      <c r="C206" s="1" t="s">
-        <v>329</v>
-      </c>
+      <c r="A206" s="45"/>
+      <c r="B206" s="45"/>
+      <c r="C206" s="1"/>
       <c r="D206" s="1"/>
-      <c r="E206" s="9">
-        <v>44965</v>
-      </c>
+      <c r="E206" s="1"/>
       <c r="F206" s="11"/>
       <c r="G206" s="1"/>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="39"/>
+      <c r="A207" s="45"/>
       <c r="B207" s="45"/>
       <c r="C207" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D207" s="1"/>
+        <v>562</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>563</v>
+      </c>
       <c r="E207" s="9">
-        <v>44965</v>
-      </c>
-      <c r="F207" s="9">
-        <v>45006</v>
-      </c>
+        <v>45296</v>
+      </c>
+      <c r="F207" s="11"/>
       <c r="G207" s="1"/>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="39"/>
+      <c r="A208" s="45"/>
       <c r="B208" s="45"/>
       <c r="C208" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D208" s="1"/>
+        <v>566</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>567</v>
+      </c>
       <c r="E208" s="9">
-        <v>44976</v>
-      </c>
-      <c r="F208" s="9">
-        <v>45024</v>
-      </c>
+        <v>45296</v>
+      </c>
+      <c r="F208" s="11"/>
       <c r="G208" s="1"/>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="40"/>
-      <c r="B209" s="46"/>
+      <c r="A209" s="45"/>
+      <c r="B209" s="45"/>
       <c r="C209" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D209" s="1"/>
+        <v>571</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>568</v>
+      </c>
       <c r="E209" s="9">
-        <v>44965</v>
-      </c>
-      <c r="F209" s="11"/>
+        <v>45296</v>
+      </c>
+      <c r="F209" s="9">
+        <v>45297</v>
+      </c>
       <c r="G209" s="1"/>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="38"/>
-      <c r="B210" s="38"/>
+      <c r="A210" s="46"/>
+      <c r="B210" s="46"/>
       <c r="C210" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="D210" s="1"/>
-      <c r="E210" s="9">
-        <v>45084</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D210" t="s">
+        <v>466</v>
+      </c>
+      <c r="E210" s="1"/>
       <c r="F210" s="11"/>
       <c r="G210" s="1"/>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="39"/>
-      <c r="B211" s="39"/>
+      <c r="A211" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="B211" s="44"/>
       <c r="C211" s="1" t="s">
-        <v>545</v>
+        <v>328</v>
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="9">
-        <v>45195</v>
+        <v>44965</v>
       </c>
       <c r="F211" s="11"/>
       <c r="G211" s="1"/>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="39"/>
-      <c r="B212" s="39"/>
+      <c r="B212" s="45"/>
       <c r="C212" s="1" t="s">
-        <v>134</v>
+        <v>329</v>
       </c>
       <c r="D212" s="1"/>
-      <c r="E212" s="1"/>
+      <c r="E212" s="9">
+        <v>44965</v>
+      </c>
       <c r="F212" s="9">
-        <v>44819</v>
+        <v>45006</v>
       </c>
       <c r="G212" s="1"/>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="39"/>
-      <c r="B213" s="39"/>
+      <c r="B213" s="45"/>
       <c r="C213" s="1" t="s">
-        <v>135</v>
+        <v>330</v>
       </c>
       <c r="D213" s="1"/>
-      <c r="E213" s="1"/>
-      <c r="F213" s="11"/>
+      <c r="E213" s="9">
+        <v>44976</v>
+      </c>
+      <c r="F213" s="9">
+        <v>45024</v>
+      </c>
       <c r="G213" s="1"/>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="39"/>
-      <c r="B214" s="39"/>
+      <c r="A214" s="40"/>
+      <c r="B214" s="46"/>
       <c r="C214" s="1" t="s">
-        <v>136</v>
+        <v>331</v>
       </c>
       <c r="D214" s="1"/>
-      <c r="E214" s="1"/>
+      <c r="E214" s="9">
+        <v>44965</v>
+      </c>
       <c r="F214" s="11"/>
       <c r="G214" s="1"/>
     </row>
     <row r="215" spans="1:7">
-      <c r="A215" s="39"/>
-      <c r="B215" s="39"/>
+      <c r="A215" s="38"/>
+      <c r="B215" s="38"/>
       <c r="C215" s="1" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="9">
-        <v>45104</v>
+        <v>45084</v>
       </c>
       <c r="F215" s="11"/>
       <c r="G215" s="1"/>
@@ -9515,183 +9532,259 @@
       <c r="A216" s="39"/>
       <c r="B216" s="39"/>
       <c r="C216" s="1" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="D216" s="1"/>
       <c r="E216" s="9">
-        <v>45018</v>
-      </c>
-      <c r="F216" s="9">
-        <v>45032</v>
-      </c>
+        <v>45195</v>
+      </c>
+      <c r="F216" s="11"/>
       <c r="G216" s="1"/>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="40"/>
-      <c r="B217" s="40"/>
+      <c r="A217" s="39"/>
+      <c r="B217" s="39"/>
       <c r="C217" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D217" s="1"/>
-      <c r="E217" s="9">
-        <v>44947</v>
-      </c>
+      <c r="E217" s="1"/>
       <c r="F217" s="9">
-        <v>45125</v>
+        <v>44819</v>
       </c>
       <c r="G217" s="1"/>
     </row>
-    <row r="218" spans="1:7" ht="42" customHeight="1">
-      <c r="A218" s="20"/>
-      <c r="B218" s="20"/>
+    <row r="218" spans="1:7">
+      <c r="A218" s="39"/>
+      <c r="B218" s="39"/>
       <c r="C218" s="1" t="s">
-        <v>487</v>
+        <v>134</v>
       </c>
       <c r="D218" s="1"/>
-      <c r="E218" s="9">
-        <v>45018</v>
-      </c>
-      <c r="F218" s="9">
-        <v>45043</v>
-      </c>
-      <c r="G218" s="19" t="s">
-        <v>494</v>
-      </c>
+      <c r="E218" s="1"/>
+      <c r="F218" s="11"/>
+      <c r="G218" s="1"/>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="21"/>
-      <c r="B219" s="21"/>
+      <c r="A219" s="39"/>
+      <c r="B219" s="39"/>
       <c r="C219" s="1" t="s">
-        <v>488</v>
+        <v>135</v>
       </c>
       <c r="D219" s="1"/>
-      <c r="E219" s="9">
-        <v>44738</v>
-      </c>
-      <c r="F219" s="9">
-        <v>45057</v>
-      </c>
+      <c r="E219" s="1"/>
+      <c r="F219" s="11"/>
       <c r="G219" s="1"/>
     </row>
     <row r="220" spans="1:7">
-      <c r="A220" s="16"/>
-      <c r="B220" s="16"/>
+      <c r="A220" s="39"/>
+      <c r="B220" s="39"/>
       <c r="C220" s="1" t="s">
-        <v>288</v>
+        <v>520</v>
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="9">
-        <v>44945</v>
-      </c>
-      <c r="F220" s="9">
-        <v>44947</v>
-      </c>
+        <v>45104</v>
+      </c>
+      <c r="F220" s="11"/>
       <c r="G220" s="1"/>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="16"/>
-      <c r="B221" s="16"/>
+      <c r="A221" s="39"/>
+      <c r="B221" s="39"/>
       <c r="C221" s="1" t="s">
-        <v>297</v>
+        <v>483</v>
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="9">
-        <v>44947</v>
-      </c>
-      <c r="F221" s="11"/>
+        <v>45018</v>
+      </c>
+      <c r="F221" s="9">
+        <v>45032</v>
+      </c>
       <c r="G221" s="1"/>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="16"/>
-      <c r="B222" s="16"/>
+      <c r="A222" s="40"/>
+      <c r="B222" s="40"/>
       <c r="C222" s="1" t="s">
-        <v>298</v>
+        <v>136</v>
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="9">
         <v>44947</v>
       </c>
-      <c r="F222" s="11"/>
+      <c r="F222" s="9">
+        <v>45125</v>
+      </c>
       <c r="G222" s="1"/>
     </row>
-    <row r="223" spans="1:7">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-      <c r="C223" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="D223" s="14"/>
+    <row r="223" spans="1:7" ht="42" customHeight="1">
+      <c r="A223" s="20"/>
+      <c r="B223" s="20"/>
+      <c r="C223" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D223" s="1"/>
       <c r="E223" s="9">
-        <v>44834</v>
-      </c>
-      <c r="F223" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G223" s="1"/>
+        <v>45018</v>
+      </c>
+      <c r="F223" s="9">
+        <v>45043</v>
+      </c>
+      <c r="G223" s="19" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="224" spans="1:7">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="D224" s="14"/>
+      <c r="A224" s="21"/>
+      <c r="B224" s="21"/>
+      <c r="C224" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D224" s="1"/>
       <c r="E224" s="9">
+        <v>44738</v>
+      </c>
+      <c r="F224" s="9">
+        <v>45057</v>
+      </c>
+      <c r="G224" s="1"/>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="16"/>
+      <c r="B225" s="16"/>
+      <c r="C225" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D225" s="1"/>
+      <c r="E225" s="9">
+        <v>44945</v>
+      </c>
+      <c r="F225" s="9">
         <v>44947</v>
       </c>
-      <c r="F224" s="4"/>
-      <c r="G224" s="1"/>
-    </row>
-    <row r="225" spans="1:7">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="D225" s="14"/>
-      <c r="E225" s="9">
-        <v>45018</v>
-      </c>
-      <c r="F225" s="4"/>
       <c r="G225" s="1"/>
     </row>
     <row r="226" spans="1:7">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="14" t="s">
-        <v>660</v>
-      </c>
-      <c r="D226" s="14"/>
+      <c r="A226" s="16"/>
+      <c r="B226" s="16"/>
+      <c r="C226" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D226" s="1"/>
       <c r="E226" s="9">
-        <v>45389</v>
-      </c>
-      <c r="F226" s="4"/>
+        <v>44947</v>
+      </c>
+      <c r="F226" s="11"/>
       <c r="G226" s="1"/>
     </row>
     <row r="227" spans="1:7">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="14" t="s">
-        <v>540</v>
-      </c>
-      <c r="D227" s="14"/>
+      <c r="A227" s="16"/>
+      <c r="B227" s="16"/>
+      <c r="C227" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D227" s="1"/>
       <c r="E227" s="9">
-        <v>45154</v>
-      </c>
-      <c r="F227" s="4"/>
+        <v>44947</v>
+      </c>
+      <c r="F227" s="11"/>
       <c r="G227" s="1"/>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
-      <c r="C228" s="14"/>
+      <c r="C228" s="14" t="s">
+        <v>298</v>
+      </c>
       <c r="D228" s="14"/>
-      <c r="E228" s="9"/>
-      <c r="F228" s="4"/>
+      <c r="E228" s="9">
+        <v>44834</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="G228" s="1"/>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D229" s="14"/>
+      <c r="E229" s="9">
+        <v>44947</v>
+      </c>
+      <c r="F229" s="4"/>
+      <c r="G229" s="1"/>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="D230" s="14"/>
+      <c r="E230" s="9">
+        <v>45018</v>
+      </c>
+      <c r="F230" s="4"/>
+      <c r="G230" s="1"/>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="D231" s="14"/>
+      <c r="E231" s="9">
+        <v>45389</v>
+      </c>
+      <c r="F231" s="4"/>
+      <c r="G231" s="1"/>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="D232" s="14"/>
+      <c r="E232" s="9">
+        <v>45154</v>
+      </c>
+      <c r="F232" s="4"/>
+      <c r="G232" s="1"/>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="14"/>
+      <c r="D233" s="14"/>
+      <c r="E233" s="9"/>
+      <c r="F233" s="4"/>
+      <c r="G233" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="A158:A169"/>
+    <mergeCell ref="B111:B157"/>
+    <mergeCell ref="B215:B222"/>
+    <mergeCell ref="A215:A222"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="B211:B214"/>
+    <mergeCell ref="A211:A214"/>
+    <mergeCell ref="B158:B166"/>
+    <mergeCell ref="B170:B185"/>
+    <mergeCell ref="A170:A185"/>
+    <mergeCell ref="A186:A210"/>
+    <mergeCell ref="B186:B190"/>
+    <mergeCell ref="B191:B210"/>
+    <mergeCell ref="A107:A157"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B45:B53"/>
     <mergeCell ref="A2:A53"/>
@@ -9706,21 +9799,6 @@
     <mergeCell ref="A54:A104"/>
     <mergeCell ref="B68:B71"/>
     <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="A158:A169"/>
-    <mergeCell ref="B111:B157"/>
-    <mergeCell ref="B210:B217"/>
-    <mergeCell ref="A210:A217"/>
-    <mergeCell ref="B167:B169"/>
-    <mergeCell ref="B206:B209"/>
-    <mergeCell ref="A206:A209"/>
-    <mergeCell ref="B158:B166"/>
-    <mergeCell ref="B170:B185"/>
-    <mergeCell ref="A170:A185"/>
-    <mergeCell ref="A186:A205"/>
-    <mergeCell ref="B186:B190"/>
-    <mergeCell ref="B191:B205"/>
-    <mergeCell ref="A107:A157"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9752,7 +9830,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
@@ -9767,74 +9845,74 @@
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="9">
         <v>45329</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D4" s="9">
         <v>44743</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="27">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D5" s="9">
         <v>44899</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="27">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D6" s="9">
         <v>44911</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="27">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D7" s="9">
         <v>45019</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -9843,7 +9921,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="4" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="9" spans="1:5">
